--- a/list.xlsx
+++ b/list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,16 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>banner_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>prompt</t>
         </is>
       </c>
@@ -453,7 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>AI 그림</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Write a blog post about 미드저니 실사 고양이 프롬프트</t>
         </is>
       </c>
     </row>
@@ -465,7 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>유튜브</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Write a blog post about 유튜브 쇼츠 공포 썰 대본 예시</t>
         </is>
       </c>
     </row>
@@ -477,7 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>업무 효율</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Write a blog post about ChatGPT 영어 비즈니스 이메일 작성법</t>
         </is>
       </c>
     </row>
@@ -489,7 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>AI 그림</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Write a blog post about 스테이블 디퓨전 3D 캐릭터 모델 추천</t>
         </is>
       </c>
     </row>
@@ -501,7 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>생산성</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Write a blog post about 노션으로 독서 기록 템플릿 만들기</t>
         </is>
       </c>
     </row>
@@ -513,7 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>디자인</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Write a blog post about AI 로고 디자인 무료 사이트 추천</t>
         </is>
       </c>
     </row>
@@ -525,7 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>블로그</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Write a blog post about 블로그 글쓰기 자동화 프롬프트</t>
         </is>
       </c>
     </row>
@@ -537,7 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>SNS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Write a blog post about 인스타그램 감성 글귀 생성 프롬프트</t>
         </is>
       </c>
     </row>
@@ -549,7 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>코딩</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Write a blog post about 파이썬 업무 자동화 코드 예시</t>
         </is>
       </c>
     </row>
@@ -561,7 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>자세하고 유익한 블로그 포스팅을 작성해줘</t>
+          <t>마케팅</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Write a blog post about 스마트스토어 상세페이지 카피라이팅</t>
         </is>
       </c>
     </row>

--- a/list.xlsx
+++ b/list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,237 +441,352 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>banner_type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prompt</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>미드저니 실사 고양이 프롬프트</t>
+          <t>Instagram Viral Caption Generator</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AI 그림</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Write a blog post about 미드저니 실사 고양이 프롬프트</t>
+          <t>Marketing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>유튜브 쇼츠 공포 썰 대본 예시</t>
+          <t>Python Code Debugger</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>유튜브</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Write a blog post about 유튜브 쇼츠 공포 썰 대본 예시</t>
+          <t>Coding</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ChatGPT 영어 비즈니스 이메일 작성법</t>
+          <t>SEO Blog Post Writer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>업무 효율</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Write a blog post about ChatGPT 영어 비즈니스 이메일 작성법</t>
+          <t>Writing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>스테이블 디퓨전 3D 캐릭터 모델 추천</t>
+          <t>Email Cold Outreach Template</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AI 그림</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Write a blog post about 스테이블 디퓨전 3D 캐릭터 모델 추천</t>
+          <t>Business</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>노션으로 독서 기록 템플릿 만들기</t>
+          <t>Midjourney Portrait Prompt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>생산성</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Write a blog post about 노션으로 독서 기록 템플릿 만들기</t>
+          <t>Art</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AI 로고 디자인 무료 사이트 추천</t>
+          <t>YouTube Video Script Hook</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>디자인</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Write a blog post about AI 로고 디자인 무료 사이트 추천</t>
+          <t>Marketing</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>블로그 글쓰기 자동화 프롬프트</t>
+          <t>React Component Generator</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>블로그</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Write a blog post about 블로그 글쓰기 자동화 프롬프트</t>
+          <t>Coding</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>인스타그램 감성 글귀 생성 프롬프트</t>
+          <t>Business Plan Executive Summary</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SNS</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Write a blog post about 인스타그램 감성 글귀 생성 프롬프트</t>
+          <t>Business</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>파이썬 업무 자동화 코드 예시</t>
+          <t>Fitness Workout Plan AI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>코딩</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Write a blog post about 파이썬 업무 자동화 코드 예시</t>
+          <t>Lifestyle</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>스마트스토어 상세페이지 카피라이팅</t>
+          <t>Meditation Script Generator</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>마케팅</t>
+          <t>Write a viral caption for...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Write a blog post about 스마트스토어 상세페이지 카피라이팅</t>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TikTok Trend Ideas</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SQL Query Optimizer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Coding</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Resume Bullet Point Polisher</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recipe Generator from Ingredients</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Startup Pitch Deck Outliner</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Twitter Thread Creator</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Excel Formula Explainer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Coding</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Novel Character Backstory</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Product Description Improver</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Daily Journaling Prompts</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Write a viral caption for...</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
         </is>
       </c>
     </row>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\visual\lazyprompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D25A09-FCDB-495A-AA98-74BFB4D03F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FF0AF-D6F7-4B4A-BE28-B1E90CD18F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>topic</t>
   </si>
@@ -31,136 +31,133 @@
     <t>category</t>
   </si>
   <si>
-    <t>인스타그램 바이럴 캡션 생성기</t>
-  </si>
-  <si>
-    <t>인스타그램 게시물에 사용할 바이럴하고 참여를 유도하는 매력적인 캡션을 작성해줘. 이모지를 적절히 사용하고, 독자에게 질문을 던져 댓글을 유도하는 마무리로 끝내줘.</t>
-  </si>
-  <si>
     <t>마케팅</t>
   </si>
   <si>
-    <t>파이썬 코드 디버거</t>
-  </si>
-  <si>
-    <t>내가 제공하는 파이썬 코드의 버그를 찾아서 수정하고, 왜 에러가 발생했는지 초보자도 이해하기 쉽게 설명해줘. 또한, 성능을 개선할 수 있는 팁도 함께 알려줘.</t>
-  </si>
-  <si>
     <t>코딩</t>
   </si>
   <si>
-    <t>SEO 블로그 포스팅 작성기</t>
-  </si>
-  <si>
-    <t>검색 엔진 최적화(SEO)를 고려하여 블로그 글을 작성해줘. 제목은 클릭을 유도하도록 짓고, 본문에는 관련 키워드를 자연스럽게 녹여내줘. 소제목을 사용하여 가독성을 높여줘.</t>
-  </si>
-  <si>
     <t>글쓰기</t>
   </si>
   <si>
-    <t>콜드 메일 영업 템플릿</t>
-  </si>
-  <si>
-    <t>잠재 고객에게 보낼 매력적인 콜드 메일(영업 메일) 템플릿을 작성해줘. 메일을 열어보게 만드는 제목과, 짧고 간결하면서도 신뢰를 주는 본문 내용으로 구성해줘.</t>
-  </si>
-  <si>
     <t>비즈니스</t>
   </si>
   <si>
-    <t>미드저니 인물화 프롬프트</t>
-  </si>
-  <si>
-    <t>미드저니(Midjourney) AI에서 고퀄리티 인물화를 생성하기 위한 프롬프트를 작성해줘. 조명, 화풍, 카메라 앵글, 묘사 세부 사항 등을 포함하여 영어 프롬프트로 만들어줘.</t>
-  </si>
-  <si>
-    <t>예술</t>
-  </si>
-  <si>
-    <t>유튜브 영상 도입부 대본</t>
-  </si>
-  <si>
-    <t>유튜브 영상의 초반 5초 안에 시청자를 사로잡을 수 있는 강력한 도입부(후킹) 대본을 3가지 버전으로 작성해줘. 호기심을 자극하거나 공감을 이끌어내는 멘트를 사용해줘.</t>
-  </si>
-  <si>
-    <t>리액트 컴포넌트 생성기</t>
-  </si>
-  <si>
-    <t>특정 기능을 수행하는 리액트(React) 컴포넌트 코드를 작성해줘. 함수형 컴포넌트로 작성하고, 스타일링을 위한 CSS나 Tailwind 클래스 예시도 포함해줘. 주석으로 설명을 달아줘.</t>
-  </si>
-  <si>
-    <t>사업계획서 요약본 작성</t>
-  </si>
-  <si>
-    <t>투자자에게 보여줄 사업계획서의 요약본(Executive Summary)을 작성해줘. 문제 제기, 해결책, 시장 규모, 비즈니스 모델, 경쟁 우위를 명확하고 설득력 있게 정리해줘.</t>
-  </si>
-  <si>
-    <t>AI 피트니스 운동 계획표</t>
-  </si>
-  <si>
-    <t>사용자의 목표(예: 다이어트, 근육 증가)와 운동 수준에 맞춘 일주일치 운동 루틴을 표로 작성해줘. 각 요일별 운동 종목, 세트 수, 횟수, 휴식 시간을 구체적으로 알려줘.</t>
-  </si>
-  <si>
-    <t>라이프스타일</t>
-  </si>
-  <si>
-    <t>명상 스크립트 생성기</t>
-  </si>
-  <si>
-    <t>10분 동안 편안하게 들을 수 있는 명상 가이드 스크립트를 작성해줘. 호흡에 집중하고 몸의 긴장을 푸는 내용을 포함하여, 차분하고 부드러운 어조로 써줘.</t>
-  </si>
-  <si>
-    <t>틱톡 숏폼 트렌드 아이디어</t>
-  </si>
-  <si>
-    <t>현재 틱톡이나 릴스에서 유행할 만한 숏폼 콘텐츠 아이디어를 5가지만 제안해줘. 각 아이디어별로 촬영 컨셉, 사용하는 음악 스타일, 기대 효과를 설명해줘.</t>
-  </si>
-  <si>
-    <t>SQL 쿼리 최적화</t>
-  </si>
-  <si>
-    <t>복잡하고 느린 SQL 쿼리를 더 효율적으로 동작하도록 최적화해줘. 쿼리의 성능을 개선하는 방법과 인덱스 활용 팁을 함께 설명해줘.</t>
-  </si>
-  <si>
-    <t>이력서 성과 요약 다듬기</t>
-  </si>
-  <si>
-    <t>이력서에 들어갈 경력 기술서의 불렛 포인트(Bullet points)를 더 전문적이고 성과 중심적으로 다듬어줘. 수치(%)나 구체적인 결과를 포함하여 임팩트 있게 바꿔줘.</t>
-  </si>
-  <si>
-    <t>냉장고 재료 레시피 생성</t>
-  </si>
-  <si>
-    <t>현재 냉장고에 있는 재료들을 입력하면, 만들 수 있는 맛있는 요리 레시피 3가지를 추천해줘. 조리 방법과 예상 소요 시간, 난이도를 함께 알려줘.</t>
-  </si>
-  <si>
-    <t>스타트업 피치덱 개요</t>
-  </si>
-  <si>
-    <t>초기 스타트업이 투자 유치를 위해 사용할 피치덱(발표 자료)의 슬라이드별 목차와 핵심 내용을 구성해줘. 총 10장 내외로 스토리텔링이 이어지도록 짜줘.</t>
-  </si>
-  <si>
-    <t>트위터 스레드 생성기</t>
-  </si>
-  <si>
-    <t>트위터(X)에서 많은 리트윗을 받을 수 있는 정보성 스레드(Thread)를 작성해줘. 첫 트윗은 호기심을 자극하고, 이어지는 트윗들은 유용한 정보를 간결하게 전달해줘.</t>
-  </si>
-  <si>
-    <t>엑셀 수식 설명기</t>
-  </si>
-  <si>
-    <t>복잡한 엑셀 함수나 수식이 어떻게 작동하는지 초등학생도 이해할 수 있게 쉽게 설명해줘. 실제 예시 데이터를 들어서 단계별로 풀이해줘.</t>
-  </si>
-  <si>
-    <t>소설 캐릭터 배경 설정</t>
-  </si>
-  <si>
-    <t>소설에 등장할 입체적인 캐릭터의 배경 스토리(Backstory)를 창작해줘. 성격, 외모, 트라우마, 목표, 특징적인 습관 등을 상세하게 묘사해줘.</t>
-  </si>
-  <si>
-    <t>상품 상세페이지 개선</t>
-  </si>
-  <si>
-    <t>쇼핑몰 상품 상세페이지의 구매 전환율을 높일 수 있도록 제품 설명 문구를 매력적으로 개선해줘. 고객의 니즈를 건드리고 제품의 장점을 감성적으로 어필해줘.</t>
+    <t>B2B 링크드인 리드 생성 전략</t>
+  </si>
+  <si>
+    <t>링크드인(LinkedIn)을 통해 잠재 고객(Lead)을 발굴하는 B2B 마케팅 전략을 작성해줘. 프로필 최적화 방법, 진정성 있는 네트워킹 메시지 예시, 그리고 ‘생각 리더(Thought Leader)’로 포지셔닝하기 위한 콘텐츠 주제 3가지를 포함해줘.</t>
+  </si>
+  <si>
+    <t>Next.js 14 서버 액션 실전 가이드</t>
+  </si>
+  <si>
+    <t>프론트엔드 개발자를 위해 Next.js 14의 'Server Actions' 기능을 완벽하게 해설해줘. 기존 API 라우트와의 차이점을 설명하고, 폼(Form) 데이터를 처리하는 안전한 코드 스니펫과 에러 핸들링 방법을 단계별로 작성해줘.</t>
+  </si>
+  <si>
+    <t>SaaS 이탈률(Churn Rate) 개선법</t>
+  </si>
+  <si>
+    <t>구독형 소프트웨어(SaaS) 비즈니스에서 고객 이탈률을 획기적으로 줄이는 5가지 전략을 상세히 기술해줘. 코호트 분석(Cohort Analysis)의 중요성을 언급하고, 이탈 방지를 위한 고객 성공(CS) 팀의 체크리스트를 만들어줘.</t>
+  </si>
+  <si>
+    <t>노션(Notion) '세컨드 브레인' 템플릿 설계</t>
+  </si>
+  <si>
+    <t>생산성을 극대화하는 노션 대시보드 구조를 제안해줘. PARA 방법론(Projects, Areas, Resources, Archives)에 기반하여 데이터베이스를 어떻게 연결해야 하는지 설명하고, 초보자도 따라 할 수 있는 세팅 순서를 알려줘.</t>
+  </si>
+  <si>
+    <t>생산성</t>
+  </si>
+  <si>
+    <t>스테이블 디퓨전 LoRA 학습 가이드</t>
+  </si>
+  <si>
+    <t>AI 이미지 생성 툴인 스테이블 디퓨전(Stable Diffusion)에서 나만의 LoRA 모델을 학습시키는 방법을 기술적인 가이드로 작성해줘. 학습용 이미지 전처리 방법, 캡셔닝 요령, 그리고 최적의 학습 파라미터 설정을 다뤄줘.</t>
+  </si>
+  <si>
+    <t>AI아트</t>
+  </si>
+  <si>
+    <t>판타지 소설 경제 시스템 구축법</t>
+  </si>
+  <si>
+    <t>판타지 소설 작가를 위해 현실감 있는 '가상 화폐 및 경제 시스템'을 만드는 법을 알려줘. 마법이 경제에 미치는 영향, 물가 상승 요인, 무역 루트 설정 등 세계관의 깊이를 더해주는 요소를 구체적으로 묘사해줘.</t>
+  </si>
+  <si>
+    <t>원격 근무 팀 갈등 해결 매뉴얼</t>
+  </si>
+  <si>
+    <t>100% 리모트 워크 환경에서 발생하는 팀원 간의 소통 오해와 갈등을 해결하는 리더십 가이드를 작성해줘. 텍스트 커뮤니케이션의 뉘앙스 파악법과 비대면 1:1 면담 시 사용할 수 있는 공감 대화 스크립트를 포함해줘.</t>
+  </si>
+  <si>
+    <t>리더십</t>
+  </si>
+  <si>
+    <t>뉴스레터 오픈율 30% 달성 제목 공식</t>
+  </si>
+  <si>
+    <t>구독자가 무조건 클릭하게 만드는 뉴스레터 제목 패턴 10가지를 정리해줘. 심리학적 트리거(호기심, 긴급성, 이득)를 활용한 예시와 함께, 미리보기 텍스트(Preheader)를 활용해 오픈율을 높이는 팁을 추가해줘.</t>
+  </si>
+  <si>
+    <t>도커(Docker) 이미지 경량화 노하우</t>
+  </si>
+  <si>
+    <t>데브옵스 엔지니어를 위해 도커 이미지 용량을 90%까지 줄이는 최적화 기법을 설명해줘. 멀티 스테이지 빌드(Multi-stage build)와 알파인 리눅스 활용법을 코드 예시(Dockerfile)와 함께 비교 분석해줘.</t>
+  </si>
+  <si>
+    <t>데브옵스</t>
+  </si>
+  <si>
+    <t>N잡러를 위한 종합소득세 절세 치트키</t>
+  </si>
+  <si>
+    <t>부업을 하는 직장인이나 프리랜서를 위한 종합소득세 신고 가이드를 작성해줘. 경비 처리 가능한 항목(식대, 장비 등)을 구체적으로 나열하고, 간편장부와 복식부기의 차이를 알기 쉽게 설명해줘.</t>
+  </si>
+  <si>
+    <t>재테크</t>
+  </si>
+  <si>
+    <t>스마트스토어 상세페이지 심리전</t>
+  </si>
+  <si>
+    <t>고객의 구매 심리를 자극하는 상세페이지 기획 구성을 5단계(문제 인식-공감-해결책-증거-행동 촉구)로 나누어 설명해줘. 각 단계별로 반드시 들어가야 할 문구 예시와 GIF 활용 팁을 작성해줘.</t>
+  </si>
+  <si>
+    <t>이커머스</t>
+  </si>
+  <si>
+    <t>파이썬기반 주식 자동매매 알고리즘</t>
+  </si>
+  <si>
+    <t>파이썬 라이브러리(ccxt 또는 pyupbit)를 활용해 이동평균선 골든크로스 전략을 사용하는 자동매매 봇의 기본 구조를 짜줘. 백테스팅(Backtesting)의 중요성과 리스크 관리(손절매) 코드를 반드시 포함해줘.</t>
+  </si>
+  <si>
+    <t>유튜브 숏츠 수익화 채널 기획</t>
+  </si>
+  <si>
+    <t>얼굴을 공개하지 않고(Faceless) 운영할 수 있는 고수익 유튜브 숏츠 채널 아이디어 5가지를 제안해줘. 각 아이디어별 소스 영상 구하는 법, AI 보이스 활용법, 추천 편집 툴을 패키지로 묶어서 소개해줘.</t>
+  </si>
+  <si>
+    <t>부업</t>
+  </si>
+  <si>
+    <t>UX 라이팅: 마이크로 카피 작성법</t>
+  </si>
+  <si>
+    <t>앱 사용자의 이탈을 막고 행동을 유도하는 버튼, 에러 메시지, 로딩 문구 등 '마이크로 카피' 작성 원칙을 알려줘. 딱딱한 개발자 용어를 사용자 친화적인 언어로 바꾼 Before &amp; After 예시를 5개 보여줘.</t>
+  </si>
+  <si>
+    <t>디자인</t>
+  </si>
+  <si>
+    <t>장/단기 기억 활용 학습법(Anki)</t>
+  </si>
+  <si>
+    <t>뇌과학에 기반한 효율적인 공부법과 간격 반복 시스템(SRS) 툴인 'Anki' 활용법을 작성해줘. 망각 곡선 이론을 설명하고, 암기 카드를 효율적으로 만드는 구조화(Cloze deletion 등) 팁을 공유해줘.</t>
+  </si>
+  <si>
+    <t>자기계발</t>
   </si>
 </sst>
 </file>
@@ -220,21 +217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -249,19 +231,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -568,245 +569,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="83.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="370.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="342" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="342" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="243" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="271.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="285.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="285.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="228.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="243" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="285" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="200.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="299.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="228.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="243" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="257.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="299.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="200.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="214.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="299.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="243" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\visual\lazyprompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FF0AF-D6F7-4B4A-BE28-B1E90CD18F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA3600-5200-4C20-B791-274D75DE57A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>topic</t>
   </si>
@@ -37,134 +37,210 @@
     <t>코딩</t>
   </si>
   <si>
-    <t>글쓰기</t>
-  </si>
-  <si>
     <t>비즈니스</t>
   </si>
   <si>
-    <t>B2B 링크드인 리드 생성 전략</t>
-  </si>
-  <si>
-    <t>링크드인(LinkedIn)을 통해 잠재 고객(Lead)을 발굴하는 B2B 마케팅 전략을 작성해줘. 프로필 최적화 방법, 진정성 있는 네트워킹 메시지 예시, 그리고 ‘생각 리더(Thought Leader)’로 포지셔닝하기 위한 콘텐츠 주제 3가지를 포함해줘.</t>
-  </si>
-  <si>
-    <t>Next.js 14 서버 액션 실전 가이드</t>
-  </si>
-  <si>
-    <t>프론트엔드 개발자를 위해 Next.js 14의 'Server Actions' 기능을 완벽하게 해설해줘. 기존 API 라우트와의 차이점을 설명하고, 폼(Form) 데이터를 처리하는 안전한 코드 스니펫과 에러 핸들링 방법을 단계별로 작성해줘.</t>
-  </si>
-  <si>
-    <t>SaaS 이탈률(Churn Rate) 개선법</t>
-  </si>
-  <si>
-    <t>구독형 소프트웨어(SaaS) 비즈니스에서 고객 이탈률을 획기적으로 줄이는 5가지 전략을 상세히 기술해줘. 코호트 분석(Cohort Analysis)의 중요성을 언급하고, 이탈 방지를 위한 고객 성공(CS) 팀의 체크리스트를 만들어줘.</t>
-  </si>
-  <si>
-    <t>노션(Notion) '세컨드 브레인' 템플릿 설계</t>
-  </si>
-  <si>
-    <t>생산성을 극대화하는 노션 대시보드 구조를 제안해줘. PARA 방법론(Projects, Areas, Resources, Archives)에 기반하여 데이터베이스를 어떻게 연결해야 하는지 설명하고, 초보자도 따라 할 수 있는 세팅 순서를 알려줘.</t>
-  </si>
-  <si>
     <t>생산성</t>
   </si>
   <si>
-    <t>스테이블 디퓨전 LoRA 학습 가이드</t>
-  </si>
-  <si>
-    <t>AI 이미지 생성 툴인 스테이블 디퓨전(Stable Diffusion)에서 나만의 LoRA 모델을 학습시키는 방법을 기술적인 가이드로 작성해줘. 학습용 이미지 전처리 방법, 캡셔닝 요령, 그리고 최적의 학습 파라미터 설정을 다뤄줘.</t>
-  </si>
-  <si>
-    <t>AI아트</t>
-  </si>
-  <si>
-    <t>판타지 소설 경제 시스템 구축법</t>
-  </si>
-  <si>
-    <t>판타지 소설 작가를 위해 현실감 있는 '가상 화폐 및 경제 시스템'을 만드는 법을 알려줘. 마법이 경제에 미치는 영향, 물가 상승 요인, 무역 루트 설정 등 세계관의 깊이를 더해주는 요소를 구체적으로 묘사해줘.</t>
-  </si>
-  <si>
-    <t>원격 근무 팀 갈등 해결 매뉴얼</t>
-  </si>
-  <si>
-    <t>100% 리모트 워크 환경에서 발생하는 팀원 간의 소통 오해와 갈등을 해결하는 리더십 가이드를 작성해줘. 텍스트 커뮤니케이션의 뉘앙스 파악법과 비대면 1:1 면담 시 사용할 수 있는 공감 대화 스크립트를 포함해줘.</t>
-  </si>
-  <si>
     <t>리더십</t>
   </si>
   <si>
-    <t>뉴스레터 오픈율 30% 달성 제목 공식</t>
-  </si>
-  <si>
-    <t>구독자가 무조건 클릭하게 만드는 뉴스레터 제목 패턴 10가지를 정리해줘. 심리학적 트리거(호기심, 긴급성, 이득)를 활용한 예시와 함께, 미리보기 텍스트(Preheader)를 활용해 오픈율을 높이는 팁을 추가해줘.</t>
-  </si>
-  <si>
-    <t>도커(Docker) 이미지 경량화 노하우</t>
-  </si>
-  <si>
-    <t>데브옵스 엔지니어를 위해 도커 이미지 용량을 90%까지 줄이는 최적화 기법을 설명해줘. 멀티 스테이지 빌드(Multi-stage build)와 알파인 리눅스 활용법을 코드 예시(Dockerfile)와 함께 비교 분석해줘.</t>
-  </si>
-  <si>
     <t>데브옵스</t>
   </si>
   <si>
-    <t>N잡러를 위한 종합소득세 절세 치트키</t>
-  </si>
-  <si>
-    <t>부업을 하는 직장인이나 프리랜서를 위한 종합소득세 신고 가이드를 작성해줘. 경비 처리 가능한 항목(식대, 장비 등)을 구체적으로 나열하고, 간편장부와 복식부기의 차이를 알기 쉽게 설명해줘.</t>
-  </si>
-  <si>
-    <t>재테크</t>
-  </si>
-  <si>
-    <t>스마트스토어 상세페이지 심리전</t>
-  </si>
-  <si>
-    <t>고객의 구매 심리를 자극하는 상세페이지 기획 구성을 5단계(문제 인식-공감-해결책-증거-행동 촉구)로 나누어 설명해줘. 각 단계별로 반드시 들어가야 할 문구 예시와 GIF 활용 팁을 작성해줘.</t>
-  </si>
-  <si>
     <t>이커머스</t>
   </si>
   <si>
-    <t>파이썬기반 주식 자동매매 알고리즘</t>
-  </si>
-  <si>
-    <t>파이썬 라이브러리(ccxt 또는 pyupbit)를 활용해 이동평균선 골든크로스 전략을 사용하는 자동매매 봇의 기본 구조를 짜줘. 백테스팅(Backtesting)의 중요성과 리스크 관리(손절매) 코드를 반드시 포함해줘.</t>
-  </si>
-  <si>
-    <t>유튜브 숏츠 수익화 채널 기획</t>
-  </si>
-  <si>
-    <t>얼굴을 공개하지 않고(Faceless) 운영할 수 있는 고수익 유튜브 숏츠 채널 아이디어 5가지를 제안해줘. 각 아이디어별 소스 영상 구하는 법, AI 보이스 활용법, 추천 편집 툴을 패키지로 묶어서 소개해줘.</t>
-  </si>
-  <si>
     <t>부업</t>
   </si>
   <si>
-    <t>UX 라이팅: 마이크로 카피 작성법</t>
-  </si>
-  <si>
-    <t>앱 사용자의 이탈을 막고 행동을 유도하는 버튼, 에러 메시지, 로딩 문구 등 '마이크로 카피' 작성 원칙을 알려줘. 딱딱한 개발자 용어를 사용자 친화적인 언어로 바꾼 Before &amp; After 예시를 5개 보여줘.</t>
-  </si>
-  <si>
     <t>디자인</t>
   </si>
   <si>
-    <t>장/단기 기억 활용 학습법(Anki)</t>
-  </si>
-  <si>
-    <t>뇌과학에 기반한 효율적인 공부법과 간격 반복 시스템(SRS) 툴인 'Anki' 활용법을 작성해줘. 망각 곡선 이론을 설명하고, 암기 카드를 효율적으로 만드는 구조화(Cloze deletion 등) 팁을 공유해줘.</t>
-  </si>
-  <si>
     <t>자기계발</t>
+  </si>
+  <si>
+    <t>LLM RAG(검색 증강 생성) 아키텍처 해설</t>
+  </si>
+  <si>
+    <t>AI 개발자를 위해 RAG(Retrieval-Augmented Generation) 시스템의 작동 원리를 심층 분석해줘. 벡터 데이터베이스(Vector DB)의 역할, 임베딩(Embedding) 과정, 그리고 LLM이 외부 데이터를 참조하여 환각(Hallucination)을 줄이는 과정을 다이어그램 묘사와 함께 설명해줘.</t>
+  </si>
+  <si>
+    <t>AI테크</t>
+  </si>
+  <si>
+    <t>GA4 커스텀 이벤트 세팅 가이드</t>
+  </si>
+  <si>
+    <t>구글 애널리틱스 4(GA4)에서 기본 수집되지 않는 특정 버튼 클릭이나 스크롤 깊이를 추적하기 위한 '맞춤 이벤트' 설정법을 알려줘. 구글 태그 매니저(GTM)와 연동하여 트리거를 설정하는 과정을 초보자도 따라 할 수 있게 단계별(Step-by-step)로 작성해줘.</t>
+  </si>
+  <si>
+    <t>피그마(Figma) 오토레이아웃 마스터</t>
+  </si>
+  <si>
+    <t>UI 디자이너가 가장 어려워하는 피그마의 'Auto Layout' 기능을 완벽하게 정리해줘. 허그(Hug)와 필(Fill)의 차이, 반응형 컴포넌트 제작 팁, 그리고 절대 위치(Absolute position)를 활용해야 하는 상황을 예시와 함께 설명해줘.</t>
+  </si>
+  <si>
+    <t>제텔카스텐(Zettelkasten) 메모법</t>
+  </si>
+  <si>
+    <t>옵시디언(Obsidian) 같은 툴을 활용해 지식을 연결하고 확장하는 '제텔카스텐' 메모 작성법을 소개해줘. 임시 메모(Fleeting notes)를 영구 메모(Permanent notes)로 발전시키는 프로세스와 지식 그래프가 형성되는 원리를 설명해줘.</t>
+  </si>
+  <si>
+    <t>초기 창업자를 위한 SAFE 투자 계약</t>
+  </si>
+  <si>
+    <t>스타트업 초기 투자 방식인 SAFE(조건부지분인수계약)의 핵심 개념을 설명해줘. 밸류에이션 캡(Valuation Cap)과 할인율(Discount Rate)이 창업자의 지분 희석에 미치는 영향을 숫자로 시뮬레이션해서 보여줘.</t>
+  </si>
+  <si>
+    <t>쿠버네티스(K8s) 파드 디버깅</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">쿠버네티스 운영 중 자주 발생하는 파드(Pod) 에러 상태(CrashLoopBackOff, ImagePullBackOff, Pending)별 원인과 해결 방법을 정리해줘. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>kubectl describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 명령어를 통해 로그를 분석하고 문제를 해결하는 트러블슈팅 체크리스트를 만들어줘.</t>
+    </r>
+  </si>
+  <si>
+    <t>쇼핑몰 검색 최적화(SEO) 태그 전략</t>
+  </si>
+  <si>
+    <t>이커머스 상품 페이지가 구글 쇼핑 탭이나 검색 결과 상단에 노출되도록 하는 메타 데이터 전략을 짜줘. 스키마 마크업(Schema Markup) 적용법, 이미지 Alt 텍스트 작성 요령, 그리고 롱테일 키워드를 제품 설명에 녹이는 법을 포함해줘.</t>
+  </si>
+  <si>
+    <t>스토아 철학: 현대인의 멘탈 관리</t>
+  </si>
+  <si>
+    <t>마르쿠스 아우렐리우스나 세네카의 스토아 철학을 현대 직장인의 스트레스 상황(상사의 비난, 프로젝트 실패 등)에 적용하는 방법을 에세이 형식으로 써줘. '통제할 수 있는 것과 없는 것의 구분'을 통해 평정심을 찾는 구체적인 마인드셋 훈련법을 제시해줘.</t>
+  </si>
+  <si>
+    <t>플러터(Flutter) 리버팟 상태관리</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">플러터 앱 개발 시 Provider보다 더 안전하고 유연한 'Riverpod' 상태 관리 라이브러리 사용법을 강의해줘. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>ConsumerWidget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>ref.watch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">의 기본 개념부터, 비동기 데이터 처리를 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t>FutureProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 예제 코드까지 작성해줘.</t>
+    </r>
+  </si>
+  <si>
+    <t>에어비앤비 호스트 자동화 청사진</t>
+  </si>
+  <si>
+    <t>에어비앤비 부업 운영 시간을 하루 30분으로 줄이는 자동화 시스템 구축법을 알려줘. 게스트 메시지 자동 응답 템플릿, 청소 업체 스케줄링 연동 툴, 그리고 공실률을 줄이는 동적 가격 책정(Dynamic Pricing) 툴 추천을 포함해줘.</t>
+  </si>
+  <si>
+    <t>저탄고지(키토제닉) 전해질 밸런스</t>
+  </si>
+  <si>
+    <t>키토제닉 다이어트 초반에 겪는 '키토 플루(두통, 무기력)'를 예방하기 위한 전해질 섭취 가이드를 작성해줘. 소금, 마그네슘, 칼륨의 하루 권장 섭취량과 이를 자연식품으로 채우는 식단표를 표로 정리해줘.</t>
+  </si>
+  <si>
+    <t>건강</t>
+  </si>
+  <si>
+    <t>러스트(Rust) 소유권 시스템 해설</t>
+  </si>
+  <si>
+    <t>C++이나 자바 개발자에게 러스트 언어의 핵심인 '소유권(Ownership)'과 '빌림(Borrowing)' 개념을 쉽게 설명해줘. 왜 이 시스템이 메모리 누수와 경쟁 상태(Race Condition)를 원천 차단하는지 코드 비교를 통해 보여줘.</t>
+  </si>
+  <si>
+    <t>팟캐스트/유튜브 스폰서 제안서</t>
+  </si>
+  <si>
+    <t>구독자 수가 적은 마이크로 인플루언서가 브랜드에게 협찬 제안서(Media Kit)를 보낼 때 사용할 콜드 메일 내용을 작성해줘. 내 채널의 타겟 오디언스 분석 데이터와 예상 전환율을 매력적으로 어필하는 문구 예시를 포함해줘.</t>
+  </si>
+  <si>
+    <t>미니멀리스트 캡슐 옷장 구성법</t>
+  </si>
+  <si>
+    <t>옷 고르는 시간을 줄이고 스타일을 살리는 '30 아이템 캡슐 옷장' 구성 리스트를 제안해줘. 기본 아이템(Basic)과 포인트 아이템(Accent)의 비율, 색상 조합(Color Palette) 원칙을 남성/여성 버전으로 나누어 설명해줘.</t>
+  </si>
+  <si>
+    <t>라이프스타일</t>
+  </si>
+  <si>
+    <t>OKR vs KPI 목표 설정 차이점</t>
+  </si>
+  <si>
+    <t>조직의 성과 관리를 위한 OKR(Objective and Key Results)과 KPI(Key Performance Indicator)의 결정적인 차이를 설명해줘. 도전적인 목표 설정이 필요한 팀과 안정적인 유지가 필요한 팀에 각각 어떤 지표가 적합한지 비교 분석해줘.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +275,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444746"/>
+      <name val="Google Sans Text"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,19 +313,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -253,16 +322,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -569,223 +638,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="35.125" customWidth="1"/>
     <col min="2" max="2" width="83.25" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="370.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="342" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="356.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="342" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="285" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="299.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="327.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="299.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="299.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\visual\lazyprompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA3600-5200-4C20-B791-274D75DE57A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA35D08-AFCB-4C06-8807-5738A0A1731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>topic</t>
   </si>
@@ -43,204 +43,131 @@
     <t>생산성</t>
   </si>
   <si>
-    <t>리더십</t>
-  </si>
-  <si>
     <t>데브옵스</t>
   </si>
   <si>
-    <t>이커머스</t>
-  </si>
-  <si>
-    <t>부업</t>
-  </si>
-  <si>
     <t>디자인</t>
   </si>
   <si>
     <t>자기계발</t>
   </si>
   <si>
-    <t>LLM RAG(검색 증강 생성) 아키텍처 해설</t>
-  </si>
-  <si>
-    <t>AI 개발자를 위해 RAG(Retrieval-Augmented Generation) 시스템의 작동 원리를 심층 분석해줘. 벡터 데이터베이스(Vector DB)의 역할, 임베딩(Embedding) 과정, 그리고 LLM이 외부 데이터를 참조하여 환각(Hallucination)을 줄이는 과정을 다이어그램 묘사와 함께 설명해줘.</t>
-  </si>
-  <si>
     <t>AI테크</t>
   </si>
   <si>
-    <t>GA4 커스텀 이벤트 세팅 가이드</t>
-  </si>
-  <si>
-    <t>구글 애널리틱스 4(GA4)에서 기본 수집되지 않는 특정 버튼 클릭이나 스크롤 깊이를 추적하기 위한 '맞춤 이벤트' 설정법을 알려줘. 구글 태그 매니저(GTM)와 연동하여 트리거를 설정하는 과정을 초보자도 따라 할 수 있게 단계별(Step-by-step)로 작성해줘.</t>
-  </si>
-  <si>
-    <t>피그마(Figma) 오토레이아웃 마스터</t>
-  </si>
-  <si>
-    <t>UI 디자이너가 가장 어려워하는 피그마의 'Auto Layout' 기능을 완벽하게 정리해줘. 허그(Hug)와 필(Fill)의 차이, 반응형 컴포넌트 제작 팁, 그리고 절대 위치(Absolute position)를 활용해야 하는 상황을 예시와 함께 설명해줘.</t>
-  </si>
-  <si>
-    <t>제텔카스텐(Zettelkasten) 메모법</t>
-  </si>
-  <si>
-    <t>옵시디언(Obsidian) 같은 툴을 활용해 지식을 연결하고 확장하는 '제텔카스텐' 메모 작성법을 소개해줘. 임시 메모(Fleeting notes)를 영구 메모(Permanent notes)로 발전시키는 프로세스와 지식 그래프가 형성되는 원리를 설명해줘.</t>
-  </si>
-  <si>
-    <t>초기 창업자를 위한 SAFE 투자 계약</t>
-  </si>
-  <si>
-    <t>스타트업 초기 투자 방식인 SAFE(조건부지분인수계약)의 핵심 개념을 설명해줘. 밸류에이션 캡(Valuation Cap)과 할인율(Discount Rate)이 창업자의 지분 희석에 미치는 영향을 숫자로 시뮬레이션해서 보여줘.</t>
-  </si>
-  <si>
-    <t>쿠버네티스(K8s) 파드 디버깅</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">쿠버네티스 운영 중 자주 발생하는 파드(Pod) 에러 상태(CrashLoopBackOff, ImagePullBackOff, Pending)별 원인과 해결 방법을 정리해줘. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF444746"/>
-        <rFont val="Google Sans Text"/>
-        <family val="2"/>
-      </rPr>
-      <t>kubectl describe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 명령어를 통해 로그를 분석하고 문제를 해결하는 트러블슈팅 체크리스트를 만들어줘.</t>
-    </r>
-  </si>
-  <si>
-    <t>쇼핑몰 검색 최적화(SEO) 태그 전략</t>
-  </si>
-  <si>
-    <t>이커머스 상품 페이지가 구글 쇼핑 탭이나 검색 결과 상단에 노출되도록 하는 메타 데이터 전략을 짜줘. 스키마 마크업(Schema Markup) 적용법, 이미지 Alt 텍스트 작성 요령, 그리고 롱테일 키워드를 제품 설명에 녹이는 법을 포함해줘.</t>
-  </si>
-  <si>
-    <t>스토아 철학: 현대인의 멘탈 관리</t>
-  </si>
-  <si>
-    <t>마르쿠스 아우렐리우스나 세네카의 스토아 철학을 현대 직장인의 스트레스 상황(상사의 비난, 프로젝트 실패 등)에 적용하는 방법을 에세이 형식으로 써줘. '통제할 수 있는 것과 없는 것의 구분'을 통해 평정심을 찾는 구체적인 마인드셋 훈련법을 제시해줘.</t>
-  </si>
-  <si>
-    <t>플러터(Flutter) 리버팟 상태관리</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">플러터 앱 개발 시 Provider보다 더 안전하고 유연한 'Riverpod' 상태 관리 라이브러리 사용법을 강의해줘. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF444746"/>
-        <rFont val="Google Sans Text"/>
-        <family val="2"/>
-      </rPr>
-      <t>ConsumerWidget</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">과 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF444746"/>
-        <rFont val="Google Sans Text"/>
-        <family val="2"/>
-      </rPr>
-      <t>ref.watch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">의 기본 개념부터, 비동기 데이터 처리를 위한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF444746"/>
-        <rFont val="Google Sans Text"/>
-        <family val="2"/>
-      </rPr>
-      <t>FutureProvider</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 예제 코드까지 작성해줘.</t>
-    </r>
-  </si>
-  <si>
-    <t>에어비앤비 호스트 자동화 청사진</t>
-  </si>
-  <si>
-    <t>에어비앤비 부업 운영 시간을 하루 30분으로 줄이는 자동화 시스템 구축법을 알려줘. 게스트 메시지 자동 응답 템플릿, 청소 업체 스케줄링 연동 툴, 그리고 공실률을 줄이는 동적 가격 책정(Dynamic Pricing) 툴 추천을 포함해줘.</t>
-  </si>
-  <si>
-    <t>저탄고지(키토제닉) 전해질 밸런스</t>
-  </si>
-  <si>
-    <t>키토제닉 다이어트 초반에 겪는 '키토 플루(두통, 무기력)'를 예방하기 위한 전해질 섭취 가이드를 작성해줘. 소금, 마그네슘, 칼륨의 하루 권장 섭취량과 이를 자연식품으로 채우는 식단표를 표로 정리해줘.</t>
-  </si>
-  <si>
     <t>건강</t>
   </si>
   <si>
-    <t>러스트(Rust) 소유권 시스템 해설</t>
-  </si>
-  <si>
-    <t>C++이나 자바 개발자에게 러스트 언어의 핵심인 '소유권(Ownership)'과 '빌림(Borrowing)' 개념을 쉽게 설명해줘. 왜 이 시스템이 메모리 누수와 경쟁 상태(Race Condition)를 원천 차단하는지 코드 비교를 통해 보여줘.</t>
-  </si>
-  <si>
-    <t>팟캐스트/유튜브 스폰서 제안서</t>
-  </si>
-  <si>
-    <t>구독자 수가 적은 마이크로 인플루언서가 브랜드에게 협찬 제안서(Media Kit)를 보낼 때 사용할 콜드 메일 내용을 작성해줘. 내 채널의 타겟 오디언스 분석 데이터와 예상 전환율을 매력적으로 어필하는 문구 예시를 포함해줘.</t>
-  </si>
-  <si>
-    <t>미니멀리스트 캡슐 옷장 구성법</t>
-  </si>
-  <si>
-    <t>옷 고르는 시간을 줄이고 스타일을 살리는 '30 아이템 캡슐 옷장' 구성 리스트를 제안해줘. 기본 아이템(Basic)과 포인트 아이템(Accent)의 비율, 색상 조합(Color Palette) 원칙을 남성/여성 버전으로 나누어 설명해줘.</t>
-  </si>
-  <si>
     <t>라이프스타일</t>
   </si>
   <si>
-    <t>OKR vs KPI 목표 설정 차이점</t>
-  </si>
-  <si>
-    <t>조직의 성과 관리를 위한 OKR(Objective and Key Results)과 KPI(Key Performance Indicator)의 결정적인 차이를 설명해줘. 도전적인 목표 설정이 필요한 팀과 안정적인 유지가 필요한 팀에 각각 어떤 지표가 적합한지 비교 분석해줘.</t>
+    <t>로컬 LLM (Ollama) 구축 가이드</t>
+  </si>
+  <si>
+    <t>클라우드 비용이나 개인정보 유출 걱정 없이 내 컴퓨터에서 'Ollama'와 'Llama 3' 모델을 구동하는 방법을 설명해줘. 터미널 설치 명령어부터, 오픈 소스 UI 툴(Open WebUI)을 연결해 챗GPT처럼 사용하는 과정까지 다뤄줘.</t>
+  </si>
+  <si>
+    <t>디지털 유산(Digital Legacy) 상속법</t>
+  </si>
+  <si>
+    <t>내가 사망한 후 클라우드 사진, 암호화폐 지갑, SNS 계정 등을 가족에게 안전하게 넘겨주거나 영구 삭제하는 '디지털 유산 정리' 매뉴얼을 작성해줘. 구글/애플의 휴면 계정 관리자 설정 기능 활용법을 포함해줘.</t>
+  </si>
+  <si>
+    <t>타입스크립트 Zod 유효성 검사</t>
+  </si>
+  <si>
+    <t>타입스크립트 개발 생산성을 높여주는 'Zod' 라이브러리 활용법을 깊이 있게 다뤄줘. 런타임 데이터 검증이 왜 중요한지 설명하고, API 응답 데이터를 Zod 스키마로 파싱하여 타입 안전성을 확보하는 예제 코드를 작성해줘.</t>
+  </si>
+  <si>
+    <t>솔로프리너를 위한 Make 자동화</t>
+  </si>
+  <si>
+    <t>1인 사업자가 반복 업무를 없애기 위해 'Make.com(구 Integromat)'으로 구축해야 할 필수 시나리오 3가지를 설계해줘. (예: 이메일 문의 → 노션 DB 저장 → 슬랙 알림 → GPT 초안 작성) 구체적인 노드 연결 순서를 설명해줘.</t>
+  </si>
+  <si>
+    <t>도파민 디톡스 실천 로드맵</t>
+  </si>
+  <si>
+    <t>숏폼과 자극적인 콘텐츠에 중독된 뇌를 회복시키는 2주간의 '도파민 디톡스' 계획표를 짜줘. 금지 항목(스크린 타임 제한 등)과 대체 활동(독서, 산책 등)을 구체적으로 명시하고, 금단 현상을 이겨내는 심리적 팁을 줘.</t>
+  </si>
+  <si>
+    <t>UGC 크리에이터 포트폴리오</t>
+  </si>
+  <si>
+    <t>브랜드로부터 협찬이나 광고 의뢰를 받기 위해 UGC(User Generated Content) 크리에이터가 갖춰야 할 포트폴리오 구성 요소를 알려줘. 영상의 훅(Hook) 성과, 전환율, 다양한 톤앤매너 예시를 어떻게 시각적으로 배치해야 하는지 조언해줘.</t>
+  </si>
+  <si>
+    <t>WCAG 웹 접근성 디자인</t>
+  </si>
+  <si>
+    <t>모든 사용자(시각 장애인 등)가 이용 가능한 웹사이트를 만들기 위한 WCAG 2.1 가이드라인 핵심을 요약해줘. 명도 대비(Contrast Ratio) 기준, 스크린 리더를 위한 대체 텍스트 작성법, 키보드 탐색 지원 방법을 설명해줘.</t>
+  </si>
+  <si>
+    <t>버티컬 SaaS 마이크로 아이디어</t>
+  </si>
+  <si>
+    <t>특정 업계의 아주 좁은 문제만을 해결하여 고수익을 내는 '버티컬 SaaS' 아이디어 5가지를 제안해줘. (예: 치과 기공소 전용 재고 관리, 필라테스 강사 전용 시퀀스 빌더 등) 시장의 페인 포인트와 수익 모델을 분석해줘.</t>
+  </si>
+  <si>
+    <t>옵시디언 데이터뷰(Dataview) 쿼리</t>
+  </si>
+  <si>
+    <t>옵시디언 노트 앱의 잠재력을 폭발시키는 'Dataview' 플러그인 사용법을 알려줘. 내 서재의 책 목록을 표로 불러오거나, 특정 태그(#todo)가 달린 할 일 목록을 날짜별로 정렬해서 보여주는 쿼리문 예시를 작성해줘.</t>
+  </si>
+  <si>
+    <t>가정용 스마트팜(수경재배) 입문</t>
+  </si>
+  <si>
+    <t>아파트 베란다나 방 안에서 LED와 수경재배 키트를 이용해 샐러드 채소를 자급자족하는 방법을 알려줘. 초보자가 실패하지 않는 작물 추천(바질, 루꼴라 등), 양액 농도 조절법, 식물 생장 등 선택 가이드를 포함해줘.</t>
+  </si>
+  <si>
+    <t>취미</t>
+  </si>
+  <si>
+    <t>콜드월렛(Ledger) 보안 수칙</t>
+  </si>
+  <si>
+    <t>암호화폐 해킹이 빈번한 요즘, 자산을 안전하게 지키기 위한 하드웨어 월렛(Cold Wallet) 초기 세팅 및 관리 수칙을 알려줘. 니모닉(복구 구문)을 절대 디지털로 저장하면 안 되는 이유와 물리적인 보관 방법을 강조해줘.</t>
+  </si>
+  <si>
+    <t>재테크</t>
+  </si>
+  <si>
+    <t>AI 저작권 침해 방지 체크리스트</t>
+  </si>
+  <si>
+    <t>기업 블로그나 마케팅 자료에 생성형 AI 이미지를 사용할 때 법적 분쟁을 피하기 위한 가이드라인을 작성해줘. 상업적 이용 가능 여부 확인법, 저작권 등록 가능성, 그리고 인간의 창작 기여도 증빙 방법에 대해 설명해줘.</t>
+  </si>
+  <si>
+    <t>법률/비즈니스</t>
+  </si>
+  <si>
+    <t>서버리스(Serverless) 아키텍처 비용 분석</t>
+  </si>
+  <si>
+    <t>AWS Lambda나 Vercel 같은 서버리스 환경이 기존 EC2 서버보다 비용 효율적인지 판단하는 기준을 제시해줘. 콜드 스타트(Cold Start) 문제의 해결책과 트래픽 급증 시 발생할 수 있는 '비용 폭탄' 방지 설정을 알려줘.</t>
+  </si>
+  <si>
+    <t>게이머를 위한 손목 터널 증후군 예방</t>
+  </si>
+  <si>
+    <t>장시간 마우스와 키보드를 사용하는 게이머나 개발자를 위한 손목 및 손가락 스트레칭 루틴을 알려줘. 인체공학적 장비(버티컬 마우스, 스플릿 키보드)의 효과와 올바른 책상 높이 설정법을 설명해줘.</t>
+  </si>
+  <si>
+    <t>유튜브 에버그린 콘텐츠 기획</t>
+  </si>
+  <si>
+    <t>유행을 타지 않고 10년 뒤에도 조회수가 꾸준히 나오는 '에버그린(Evergreen)' 유튜브 콘텐츠 주제 5가지를 추천해줘. 검색 의도(Search Intent)를 파악하여 'How-to' 영상이나 '개념 설명' 영상을 기획하는 법을 다뤄줘.</t>
+  </si>
+  <si>
+    <t>크리에이터</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,12 +201,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF444746"/>
-      <name val="Google Sans Text"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -328,10 +249,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -638,18 +562,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.125" customWidth="1"/>
     <col min="2" max="2" width="83.25" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -682,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" thickBot="1">
+    <row r="4" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -690,109 +614,109 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43.5" thickBot="1">
+    <row r="8" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.5" thickBot="1">
+    </row>
+    <row r="14" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -803,7 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="43.5" thickBot="1">
+    <row r="15" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -811,32 +735,32 @@
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.5" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -844,20 +768,20 @@
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\visual\lazyprompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA35D08-AFCB-4C06-8807-5738A0A1731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015BA8B8-AC6F-439D-9E4C-C3A2D61DBE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>topic</t>
   </si>
@@ -31,136 +31,139 @@
     <t>category</t>
   </si>
   <si>
-    <t>마케팅</t>
-  </si>
-  <si>
-    <t>코딩</t>
-  </si>
-  <si>
-    <t>비즈니스</t>
-  </si>
-  <si>
-    <t>생산성</t>
-  </si>
-  <si>
-    <t>데브옵스</t>
-  </si>
-  <si>
-    <t>디자인</t>
-  </si>
-  <si>
-    <t>자기계발</t>
-  </si>
-  <si>
-    <t>AI테크</t>
+    <t>매터(Matter) 스마트홈 연동 가이드</t>
+  </si>
+  <si>
+    <t>IoT의 새로운 표준인 '매터(Matter)'가 무엇인지 설명하고, 애플 홈킷, 구글 홈, 삼성 스마트싱스를 하나의 생태계로 통합하여 제어하는 방법과 호환 기기 구매 팁을 작성해줘.</t>
+  </si>
+  <si>
+    <t>테크/리빙</t>
+  </si>
+  <si>
+    <t>교대근무자 수면 리듬 바이오해킹</t>
+  </si>
+  <si>
+    <t>간호사나 공장 근로자처럼 밤낮이 바뀌는 교대 근무자를 위한 수면 관리법을 알려줘. 암막 커튼 활용, 멜라토닌 섭취 타이밍, 근무 중 카페인 컷오프 시간 등 생체 리듬을 지키는 과학적 루틴을 짜줘.</t>
   </si>
   <si>
     <t>건강</t>
   </si>
   <si>
+    <t>지렁이 사육 상자(Vermicompost)</t>
+  </si>
+  <si>
+    <t>아파트 베란다에서 냄새 없이 음식물 쓰레기를 퇴비로 만드는 '지렁이 키우기' 가이드를 작성해줘. 지렁이가 좋아하는 먹이와 피해야 할 먹이, 그리고 여름철 초파리 꼬임을 방지하는 노하우를 포함해줘.</t>
+  </si>
+  <si>
+    <t>에코라이프</t>
+  </si>
+  <si>
+    <t>하우스 시팅(House Sitting) 여행법</t>
+  </si>
+  <si>
+    <t>전 세계 집주인의 집을 봐주며 무료로 숙박하는 '하우스 시팅' 여행 노하우를 알려줘. 'TrustedHousesitters' 같은 플랫폼 소개와 집주인에게 신뢰를 주는 프로필 작성법, 화상 면접 팁을 정리해줘.</t>
+  </si>
+  <si>
+    <t>여행</t>
+  </si>
+  <si>
+    <t>커피 물의 화학(Water for Coffee)</t>
+  </si>
+  <si>
+    <t>스페셜티 커피의 맛을 극대화하기 위한 '물의 레시피'를 설명해줘. 물의 경도(GH)와 알칼리도(KH)가 커피 추출 수율과 산미/단맛에 미치는 영향을 분석하고, 집에서 미네랄 워터를 제조하는 법을 알려줘.</t>
+  </si>
+  <si>
+    <t>취미/커피</t>
+  </si>
+  <si>
+    <t>TRPG 게임 마스터(GM) 스토리텔링</t>
+  </si>
+  <si>
+    <t>D&amp;D(던전 앤 드래곤) 같은 TRPG 게임 마스터를 위해 플레이어의 몰입도를 높이는 NPC 연기법과 즉흥적인 상황 대처 매뉴얼을 작성해줘. 지루하지 않게 전투 묘사를 하는 팁도 추가해줘.</t>
+  </si>
+  <si>
+    <t>게임/취미</t>
+  </si>
+  <si>
+    <t>퍼스널 컬러 자가진단 오해와 진실</t>
+  </si>
+  <si>
+    <t>전문가 도움 없이 집에서 웜톤/쿨톤을 진단할 때 흔히 저지르는 실수 3가지를 지적해줘. 손목 핏줄 색이나 금/은박지 테스트의 한계점을 설명하고, 옷장 속 옷을 활용해 진짜 베스트 컬러를 찾는 현실적인 방법을 제안해줘.</t>
+  </si>
+  <si>
+    <t>뷰티/패션</t>
+  </si>
+  <si>
+    <t>상사를 내 편으로 만드는 '매니징 업'</t>
+  </si>
+  <si>
+    <t>권위적이거나 우유부단한 상사 유형별 대처법, 즉 '매니징 업(Managing Up)' 기술을 가이드로 작성해줘. 업무 보고 시 내 성과는 돋보이게 하면서 상사의 불안감을 해소시켜주는 커뮤니케이션 스크립트를 써줘.</t>
+  </si>
+  <si>
+    <t>커리어</t>
+  </si>
+  <si>
+    <t>OSINT 기반 디지털 발자국 지우기</t>
+  </si>
+  <si>
+    <t>내 개인정보가 구글 검색에 노출되지 않도록 관리하는 법을 알려줘. 데이터 브로커 사이트에서 내 정보를 삭제 요청하는 방법과, 해킹된 계정이 있는지 확인하는 OSINT(공개 출처 정보) 도구 활용법을 다뤄줘.</t>
+  </si>
+  <si>
+    <t>보안/프라이버시</t>
+  </si>
+  <si>
+    <t>다이소 아이템 몬테소리 교구 만들기</t>
+  </si>
+  <si>
+    <t>비싼 교구 대신 다이소나 생활용품점에서 구할 수 있는 재료로 만드는 '엄마표 몬테소리' 아이디어를 5가지 제안해줘. 아이의 소근육 발달과 집중력을 키워주는 활동(따르기, 분류하기 등) 위주로 구성해줘.</t>
+  </si>
+  <si>
+    <t>육아/교육</t>
+  </si>
+  <si>
+    <t>유기견 분리불안 5분 탈감작 훈련</t>
+  </si>
+  <si>
+    <t>입양 초기 유기견이 겪는 분리불안을 완화하기 위한 체계적인 훈련법을 작성해줘. 보호자가 외출할 때 반려견이 당황하지 않도록 현관문 앞에서 수행하는 '탈감작(Desensitization)' 훈련 단계를 구체적으로 설명해줘.</t>
+  </si>
+  <si>
+    <t>반려동물</t>
+  </si>
+  <si>
+    <t>노코드 툴 글라이드(Glide) 앱 제작</t>
+  </si>
+  <si>
+    <t>코딩을 전혀 몰라도 구글 스프레드시트 데이터만 있으면 10분 만에 사내 재고 관리 앱이나 직원 연락처 앱을 만들 수 있는 '글라이드' 사용법을 튜토리얼 형식으로 작성해줘.</t>
+  </si>
+  <si>
+    <t>생산성/노코드</t>
+  </si>
+  <si>
+    <t>쌀누룩(Koji) 활용 만능 조미료</t>
+  </si>
+  <si>
+    <t>집에서 쌀누룩을 이용해 천연 조미료인 '소금누룩(시오코지)'을 발효시키는 방법을 레시피로 써줘. 화학 조미료 없이 고기를 부드럽게 연육하거나 찌개에 깊은 감칠맛을 내는 활용법도 함께 소개해줘.</t>
+  </si>
+  <si>
+    <t>요리</t>
+  </si>
+  <si>
+    <t>여성 솔로 캠핑 안전 가이드</t>
+  </si>
+  <si>
+    <t>혼자 캠핑(솔캠)을 떠나는 여성을 위한 안전 수칙을 정리해줘. 관리자가 상주하는 안전한 캠핑장 고르는 기준, 텐트 밖 인기척을 내는 팁, 그리고 위급 상황 시 사용할 호신 용품 리스트를 추천해줘.</t>
+  </si>
+  <si>
+    <t>아웃도어</t>
+  </si>
+  <si>
+    <t>노션(Notion) 모바일 청첩장 제작</t>
+  </si>
+  <si>
+    <t>디자인 툴 없이 노션(Notion) 페이지만으로 세련된 모바일 청첩장을 만드는 방법을 알려줘. 갤러리 뷰로 웨딩 사진 보여주기, 구글 폼 임베드로 참석 여부 받기, 카카오맵 연동하기 등 필수 기능 구현법을 설명해줘.</t>
+  </si>
+  <si>
     <t>라이프스타일</t>
-  </si>
-  <si>
-    <t>로컬 LLM (Ollama) 구축 가이드</t>
-  </si>
-  <si>
-    <t>클라우드 비용이나 개인정보 유출 걱정 없이 내 컴퓨터에서 'Ollama'와 'Llama 3' 모델을 구동하는 방법을 설명해줘. 터미널 설치 명령어부터, 오픈 소스 UI 툴(Open WebUI)을 연결해 챗GPT처럼 사용하는 과정까지 다뤄줘.</t>
-  </si>
-  <si>
-    <t>디지털 유산(Digital Legacy) 상속법</t>
-  </si>
-  <si>
-    <t>내가 사망한 후 클라우드 사진, 암호화폐 지갑, SNS 계정 등을 가족에게 안전하게 넘겨주거나 영구 삭제하는 '디지털 유산 정리' 매뉴얼을 작성해줘. 구글/애플의 휴면 계정 관리자 설정 기능 활용법을 포함해줘.</t>
-  </si>
-  <si>
-    <t>타입스크립트 Zod 유효성 검사</t>
-  </si>
-  <si>
-    <t>타입스크립트 개발 생산성을 높여주는 'Zod' 라이브러리 활용법을 깊이 있게 다뤄줘. 런타임 데이터 검증이 왜 중요한지 설명하고, API 응답 데이터를 Zod 스키마로 파싱하여 타입 안전성을 확보하는 예제 코드를 작성해줘.</t>
-  </si>
-  <si>
-    <t>솔로프리너를 위한 Make 자동화</t>
-  </si>
-  <si>
-    <t>1인 사업자가 반복 업무를 없애기 위해 'Make.com(구 Integromat)'으로 구축해야 할 필수 시나리오 3가지를 설계해줘. (예: 이메일 문의 → 노션 DB 저장 → 슬랙 알림 → GPT 초안 작성) 구체적인 노드 연결 순서를 설명해줘.</t>
-  </si>
-  <si>
-    <t>도파민 디톡스 실천 로드맵</t>
-  </si>
-  <si>
-    <t>숏폼과 자극적인 콘텐츠에 중독된 뇌를 회복시키는 2주간의 '도파민 디톡스' 계획표를 짜줘. 금지 항목(스크린 타임 제한 등)과 대체 활동(독서, 산책 등)을 구체적으로 명시하고, 금단 현상을 이겨내는 심리적 팁을 줘.</t>
-  </si>
-  <si>
-    <t>UGC 크리에이터 포트폴리오</t>
-  </si>
-  <si>
-    <t>브랜드로부터 협찬이나 광고 의뢰를 받기 위해 UGC(User Generated Content) 크리에이터가 갖춰야 할 포트폴리오 구성 요소를 알려줘. 영상의 훅(Hook) 성과, 전환율, 다양한 톤앤매너 예시를 어떻게 시각적으로 배치해야 하는지 조언해줘.</t>
-  </si>
-  <si>
-    <t>WCAG 웹 접근성 디자인</t>
-  </si>
-  <si>
-    <t>모든 사용자(시각 장애인 등)가 이용 가능한 웹사이트를 만들기 위한 WCAG 2.1 가이드라인 핵심을 요약해줘. 명도 대비(Contrast Ratio) 기준, 스크린 리더를 위한 대체 텍스트 작성법, 키보드 탐색 지원 방법을 설명해줘.</t>
-  </si>
-  <si>
-    <t>버티컬 SaaS 마이크로 아이디어</t>
-  </si>
-  <si>
-    <t>특정 업계의 아주 좁은 문제만을 해결하여 고수익을 내는 '버티컬 SaaS' 아이디어 5가지를 제안해줘. (예: 치과 기공소 전용 재고 관리, 필라테스 강사 전용 시퀀스 빌더 등) 시장의 페인 포인트와 수익 모델을 분석해줘.</t>
-  </si>
-  <si>
-    <t>옵시디언 데이터뷰(Dataview) 쿼리</t>
-  </si>
-  <si>
-    <t>옵시디언 노트 앱의 잠재력을 폭발시키는 'Dataview' 플러그인 사용법을 알려줘. 내 서재의 책 목록을 표로 불러오거나, 특정 태그(#todo)가 달린 할 일 목록을 날짜별로 정렬해서 보여주는 쿼리문 예시를 작성해줘.</t>
-  </si>
-  <si>
-    <t>가정용 스마트팜(수경재배) 입문</t>
-  </si>
-  <si>
-    <t>아파트 베란다나 방 안에서 LED와 수경재배 키트를 이용해 샐러드 채소를 자급자족하는 방법을 알려줘. 초보자가 실패하지 않는 작물 추천(바질, 루꼴라 등), 양액 농도 조절법, 식물 생장 등 선택 가이드를 포함해줘.</t>
-  </si>
-  <si>
-    <t>취미</t>
-  </si>
-  <si>
-    <t>콜드월렛(Ledger) 보안 수칙</t>
-  </si>
-  <si>
-    <t>암호화폐 해킹이 빈번한 요즘, 자산을 안전하게 지키기 위한 하드웨어 월렛(Cold Wallet) 초기 세팅 및 관리 수칙을 알려줘. 니모닉(복구 구문)을 절대 디지털로 저장하면 안 되는 이유와 물리적인 보관 방법을 강조해줘.</t>
-  </si>
-  <si>
-    <t>재테크</t>
-  </si>
-  <si>
-    <t>AI 저작권 침해 방지 체크리스트</t>
-  </si>
-  <si>
-    <t>기업 블로그나 마케팅 자료에 생성형 AI 이미지를 사용할 때 법적 분쟁을 피하기 위한 가이드라인을 작성해줘. 상업적 이용 가능 여부 확인법, 저작권 등록 가능성, 그리고 인간의 창작 기여도 증빙 방법에 대해 설명해줘.</t>
-  </si>
-  <si>
-    <t>법률/비즈니스</t>
-  </si>
-  <si>
-    <t>서버리스(Serverless) 아키텍처 비용 분석</t>
-  </si>
-  <si>
-    <t>AWS Lambda나 Vercel 같은 서버리스 환경이 기존 EC2 서버보다 비용 효율적인지 판단하는 기준을 제시해줘. 콜드 스타트(Cold Start) 문제의 해결책과 트래픽 급증 시 발생할 수 있는 '비용 폭탄' 방지 설정을 알려줘.</t>
-  </si>
-  <si>
-    <t>게이머를 위한 손목 터널 증후군 예방</t>
-  </si>
-  <si>
-    <t>장시간 마우스와 키보드를 사용하는 게이머나 개발자를 위한 손목 및 손가락 스트레칭 루틴을 알려줘. 인체공학적 장비(버티컬 마우스, 스플릿 키보드)의 효과와 올바른 책상 높이 설정법을 설명해줘.</t>
-  </si>
-  <si>
-    <t>유튜브 에버그린 콘텐츠 기획</t>
-  </si>
-  <si>
-    <t>유행을 타지 않고 10년 뒤에도 조회수가 꾸준히 나오는 '에버그린(Evergreen)' 유튜브 콘텐츠 주제 5가지를 추천해줘. 검색 의도(Search Intent)를 파악하여 'How-to' 영상이나 '개념 설명' 영상을 기획하는 법을 다뤄줘.</t>
-  </si>
-  <si>
-    <t>크리에이터</t>
   </si>
 </sst>
 </file>
@@ -238,24 +241,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -573,218 +573,212 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\visual\lazyprompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015BA8B8-AC6F-439D-9E4C-C3A2D61DBE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F13FEB-89A1-437D-9DCE-A3522C2C713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>topic</t>
   </si>
@@ -31,139 +31,94 @@
     <t>category</t>
   </si>
   <si>
-    <t>매터(Matter) 스마트홈 연동 가이드</t>
-  </si>
-  <si>
-    <t>IoT의 새로운 표준인 '매터(Matter)'가 무엇인지 설명하고, 애플 홈킷, 구글 홈, 삼성 스마트싱스를 하나의 생태계로 통합하여 제어하는 방법과 호환 기기 구매 팁을 작성해줘.</t>
-  </si>
-  <si>
-    <t>테크/리빙</t>
-  </si>
-  <si>
-    <t>교대근무자 수면 리듬 바이오해킹</t>
-  </si>
-  <si>
-    <t>간호사나 공장 근로자처럼 밤낮이 바뀌는 교대 근무자를 위한 수면 관리법을 알려줘. 암막 커튼 활용, 멜라토닌 섭취 타이밍, 근무 중 카페인 컷오프 시간 등 생체 리듬을 지키는 과학적 루틴을 짜줘.</t>
-  </si>
-  <si>
-    <t>건강</t>
-  </si>
-  <si>
-    <t>지렁이 사육 상자(Vermicompost)</t>
-  </si>
-  <si>
-    <t>아파트 베란다에서 냄새 없이 음식물 쓰레기를 퇴비로 만드는 '지렁이 키우기' 가이드를 작성해줘. 지렁이가 좋아하는 먹이와 피해야 할 먹이, 그리고 여름철 초파리 꼬임을 방지하는 노하우를 포함해줘.</t>
-  </si>
-  <si>
-    <t>에코라이프</t>
-  </si>
-  <si>
-    <t>하우스 시팅(House Sitting) 여행법</t>
-  </si>
-  <si>
-    <t>전 세계 집주인의 집을 봐주며 무료로 숙박하는 '하우스 시팅' 여행 노하우를 알려줘. 'TrustedHousesitters' 같은 플랫폼 소개와 집주인에게 신뢰를 주는 프로필 작성법, 화상 면접 팁을 정리해줘.</t>
-  </si>
-  <si>
-    <t>여행</t>
-  </si>
-  <si>
-    <t>커피 물의 화학(Water for Coffee)</t>
-  </si>
-  <si>
-    <t>스페셜티 커피의 맛을 극대화하기 위한 '물의 레시피'를 설명해줘. 물의 경도(GH)와 알칼리도(KH)가 커피 추출 수율과 산미/단맛에 미치는 영향을 분석하고, 집에서 미네랄 워터를 제조하는 법을 알려줘.</t>
-  </si>
-  <si>
-    <t>취미/커피</t>
-  </si>
-  <si>
-    <t>TRPG 게임 마스터(GM) 스토리텔링</t>
-  </si>
-  <si>
-    <t>D&amp;D(던전 앤 드래곤) 같은 TRPG 게임 마스터를 위해 플레이어의 몰입도를 높이는 NPC 연기법과 즉흥적인 상황 대처 매뉴얼을 작성해줘. 지루하지 않게 전투 묘사를 하는 팁도 추가해줘.</t>
-  </si>
-  <si>
-    <t>게임/취미</t>
-  </si>
-  <si>
-    <t>퍼스널 컬러 자가진단 오해와 진실</t>
-  </si>
-  <si>
-    <t>전문가 도움 없이 집에서 웜톤/쿨톤을 진단할 때 흔히 저지르는 실수 3가지를 지적해줘. 손목 핏줄 색이나 금/은박지 테스트의 한계점을 설명하고, 옷장 속 옷을 활용해 진짜 베스트 컬러를 찾는 현실적인 방법을 제안해줘.</t>
-  </si>
-  <si>
-    <t>뷰티/패션</t>
-  </si>
-  <si>
-    <t>상사를 내 편으로 만드는 '매니징 업'</t>
-  </si>
-  <si>
-    <t>권위적이거나 우유부단한 상사 유형별 대처법, 즉 '매니징 업(Managing Up)' 기술을 가이드로 작성해줘. 업무 보고 시 내 성과는 돋보이게 하면서 상사의 불안감을 해소시켜주는 커뮤니케이션 스크립트를 써줘.</t>
-  </si>
-  <si>
-    <t>커리어</t>
-  </si>
-  <si>
-    <t>OSINT 기반 디지털 발자국 지우기</t>
-  </si>
-  <si>
-    <t>내 개인정보가 구글 검색에 노출되지 않도록 관리하는 법을 알려줘. 데이터 브로커 사이트에서 내 정보를 삭제 요청하는 방법과, 해킹된 계정이 있는지 확인하는 OSINT(공개 출처 정보) 도구 활용법을 다뤄줘.</t>
-  </si>
-  <si>
-    <t>보안/프라이버시</t>
-  </si>
-  <si>
-    <t>다이소 아이템 몬테소리 교구 만들기</t>
-  </si>
-  <si>
-    <t>비싼 교구 대신 다이소나 생활용품점에서 구할 수 있는 재료로 만드는 '엄마표 몬테소리' 아이디어를 5가지 제안해줘. 아이의 소근육 발달과 집중력을 키워주는 활동(따르기, 분류하기 등) 위주로 구성해줘.</t>
-  </si>
-  <si>
-    <t>육아/교육</t>
-  </si>
-  <si>
-    <t>유기견 분리불안 5분 탈감작 훈련</t>
-  </si>
-  <si>
-    <t>입양 초기 유기견이 겪는 분리불안을 완화하기 위한 체계적인 훈련법을 작성해줘. 보호자가 외출할 때 반려견이 당황하지 않도록 현관문 앞에서 수행하는 '탈감작(Desensitization)' 훈련 단계를 구체적으로 설명해줘.</t>
-  </si>
-  <si>
-    <t>반려동물</t>
-  </si>
-  <si>
-    <t>노코드 툴 글라이드(Glide) 앱 제작</t>
-  </si>
-  <si>
-    <t>코딩을 전혀 몰라도 구글 스프레드시트 데이터만 있으면 10분 만에 사내 재고 관리 앱이나 직원 연락처 앱을 만들 수 있는 '글라이드' 사용법을 튜토리얼 형식으로 작성해줘.</t>
-  </si>
-  <si>
-    <t>생산성/노코드</t>
-  </si>
-  <si>
-    <t>쌀누룩(Koji) 활용 만능 조미료</t>
-  </si>
-  <si>
-    <t>집에서 쌀누룩을 이용해 천연 조미료인 '소금누룩(시오코지)'을 발효시키는 방법을 레시피로 써줘. 화학 조미료 없이 고기를 부드럽게 연육하거나 찌개에 깊은 감칠맛을 내는 활용법도 함께 소개해줘.</t>
-  </si>
-  <si>
-    <t>요리</t>
-  </si>
-  <si>
-    <t>여성 솔로 캠핑 안전 가이드</t>
-  </si>
-  <si>
-    <t>혼자 캠핑(솔캠)을 떠나는 여성을 위한 안전 수칙을 정리해줘. 관리자가 상주하는 안전한 캠핑장 고르는 기준, 텐트 밖 인기척을 내는 팁, 그리고 위급 상황 시 사용할 호신 용품 리스트를 추천해줘.</t>
-  </si>
-  <si>
-    <t>아웃도어</t>
-  </si>
-  <si>
-    <t>노션(Notion) 모바일 청첩장 제작</t>
-  </si>
-  <si>
-    <t>디자인 툴 없이 노션(Notion) 페이지만으로 세련된 모바일 청첩장을 만드는 방법을 알려줘. 갤러리 뷰로 웨딩 사진 보여주기, 구글 폼 임베드로 참석 여부 받기, 카카오맵 연동하기 등 필수 기능 구현법을 설명해줘.</t>
-  </si>
-  <si>
-    <t>라이프스타일</t>
+    <t>The Ultimate Guide to Digital Estate Planning: Securing Your Online Legacy</t>
+  </si>
+  <si>
+    <t>Write a comprehensive guide in English explaining digital estate planning. Discuss how to manage passwords, cryptocurrency wallets, social media accounts, and cloud storage after death, including a checklist for a digital will.</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Vertical Farming at Home: A Future-Proof Guide for Apartment Dwellers</t>
+  </si>
+  <si>
+    <t>Compose a detailed "how-to" blog post in English about starting a vertical hydroponic garden in a small space. Highlight sustainable living, necessary equipment like LED grow lights, and the importance of urban food security.</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Navigating the Ethics of AI Companions for the Elderly</t>
+  </si>
+  <si>
+    <t>Write a thought-provoking article in English exploring the rise of AI care robots and digital companions for senior citizens. Analyze the benefits for combating loneliness versus the ethical concerns of replacing human interaction.</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>Biohacking Your Sleep: Advanced Circadian Rhythm Optimization</t>
+  </si>
+  <si>
+    <t>Create a science-backed health article in English regarding advanced sleep optimization. Focus on future-forward techniques like circadian rhythm hacking, temperature regulation, and light management for longevity.</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Soft Skills in the AI Era: Why EQ Matters More Than IQ</t>
+  </si>
+  <si>
+    <t>Write a career development post in English explaining why Emotional Intelligence (EQ) is becoming the most valuable asset in an AI-dominated workforce. Provide actionable tips for cultivating empathy in remote work environments.</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>Micro-Community Living: The Future of Co-Housing for Remote Workers</t>
+  </si>
+  <si>
+    <t>Write a lifestyle trend report in English about the rise of modern co-housing and intentional micro-communities. Discuss how this model solves isolation for digital nomads and remote workers in the Western world.</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>The Rise of Insect Protein: Baking with Cricket Flour</t>
+  </si>
+  <si>
+    <t>Write a niche culinary blog post in English about the future of food sustainability, focusing on insect protein. Include an introduction to cricket flour and provide 3 simple, beginner-friendly baking recipes.</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Parenting Gen Alpha: Digital Minimalism Strategies for the Future</t>
+  </si>
+  <si>
+    <t>Write an insightful parenting guide in English on raising "Generation Alpha" amidst pervasive technology. Discuss strategies for digital minimalism, screen-time boundaries, and fostering real-world creativity.</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Off-Grid Cyber Security: Protecting Data in a Hyper-Connected World</t>
+  </si>
+  <si>
+    <t>Write a technical yet accessible guide in English about personal cybersecurity for the privacy-conscious. Discuss "off-grid" digital practices, Faraday bags, and hardware wallets for future-proofing personal data.</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Tokenizing Real World Assets: A Beginner’s Guide to RWA Investment</t>
+  </si>
+  <si>
+    <t>Write a financial education post in English about the trend of Real World Asset (RWA) tokenization. Explain how blockchain is changing ownership of real estate and art, tailored for a non-technical investor audience.</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -560,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,184 +539,148 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
+      <c r="A6" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
+      <c r="A8" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
+      <c r="A9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
+      <c r="A10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
+      <c r="A11" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
+    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
@@ -774,11 +693,6 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\visual\lazyprompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F13FEB-89A1-437D-9DCE-A3522C2C713A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0958FDD-674F-40FC-92E2-2530261FE27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="178">
   <si>
     <t>topic</t>
   </si>
@@ -31,94 +31,529 @@
     <t>category</t>
   </si>
   <si>
-    <t>The Ultimate Guide to Digital Estate Planning: Securing Your Online Legacy</t>
-  </si>
-  <si>
-    <t>Write a comprehensive guide in English explaining digital estate planning. Discuss how to manage passwords, cryptocurrency wallets, social media accounts, and cloud storage after death, including a checklist for a digital will.</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Vertical Farming at Home: A Future-Proof Guide for Apartment Dwellers</t>
-  </si>
-  <si>
-    <t>Compose a detailed "how-to" blog post in English about starting a vertical hydroponic garden in a small space. Highlight sustainable living, necessary equipment like LED grow lights, and the importance of urban food security.</t>
-  </si>
-  <si>
     <t>Sustainability</t>
   </si>
   <si>
-    <t>Navigating the Ethics of AI Companions for the Elderly</t>
-  </si>
-  <si>
-    <t>Write a thought-provoking article in English exploring the rise of AI care robots and digital companions for senior citizens. Analyze the benefits for combating loneliness versus the ethical concerns of replacing human interaction.</t>
-  </si>
-  <si>
-    <t>Society</t>
-  </si>
-  <si>
-    <t>Biohacking Your Sleep: Advanced Circadian Rhythm Optimization</t>
-  </si>
-  <si>
-    <t>Create a science-backed health article in English regarding advanced sleep optimization. Focus on future-forward techniques like circadian rhythm hacking, temperature regulation, and light management for longevity.</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
-    <t>Soft Skills in the AI Era: Why EQ Matters More Than IQ</t>
-  </si>
-  <si>
-    <t>Write a career development post in English explaining why Emotional Intelligence (EQ) is becoming the most valuable asset in an AI-dominated workforce. Provide actionable tips for cultivating empathy in remote work environments.</t>
-  </si>
-  <si>
     <t>Career</t>
   </si>
   <si>
-    <t>Micro-Community Living: The Future of Co-Housing for Remote Workers</t>
-  </si>
-  <si>
-    <t>Write a lifestyle trend report in English about the rise of modern co-housing and intentional micro-communities. Discuss how this model solves isolation for digital nomads and remote workers in the Western world.</t>
-  </si>
-  <si>
     <t>Lifestyle</t>
   </si>
   <si>
-    <t>The Rise of Insect Protein: Baking with Cricket Flour</t>
-  </si>
-  <si>
-    <t>Write a niche culinary blog post in English about the future of food sustainability, focusing on insect protein. Include an introduction to cricket flour and provide 3 simple, beginner-friendly baking recipes.</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
-    <t>Parenting Gen Alpha: Digital Minimalism Strategies for the Future</t>
-  </si>
-  <si>
-    <t>Write an insightful parenting guide in English on raising "Generation Alpha" amidst pervasive technology. Discuss strategies for digital minimalism, screen-time boundaries, and fostering real-world creativity.</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Off-Grid Cyber Security: Protecting Data in a Hyper-Connected World</t>
-  </si>
-  <si>
-    <t>Write a technical yet accessible guide in English about personal cybersecurity for the privacy-conscious. Discuss "off-grid" digital practices, Faraday bags, and hardware wallets for future-proofing personal data.</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Tokenizing Real World Assets: A Beginner’s Guide to RWA Investment</t>
-  </si>
-  <si>
-    <t>Write a financial education post in English about the trend of Real World Asset (RWA) tokenization. Explain how blockchain is changing ownership of real estate and art, tailored for a non-technical investor audience.</t>
-  </si>
-  <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t>How to Write a Viral YouTube Script</t>
+  </si>
+  <si>
+    <t>Write a detailed guide on creating a YouTube script that hooks viewers in the first 5 seconds. Include templates and examples. Write in fluent English.</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Python Automation for Beginners</t>
+  </si>
+  <si>
+    <t>Create a tutorial blog post about automating daily tasks using Python. Provide 3 useful code examples. Write in easy-to-understand English.</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Why K-POP is Taking Over the World</t>
+  </si>
+  <si>
+    <t>Write an analytical article about the global rise of K-POP. Discuss marketing strategies and fan culture. Write in engaging English.</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>5 Easy Sunday Meal Prep Ideas</t>
+  </si>
+  <si>
+    <t>Write a guide on Sunday meal prepping for the work week. Focus on American staples like chicken, quinoa, and roasted veggies.</t>
+  </si>
+  <si>
+    <t>Mason Jar Salad Recipes for Work</t>
+  </si>
+  <si>
+    <t>Create 3 refreshing mason jar salad recipes popular in US offices. Include tips on keeping ingredients fresh.</t>
+  </si>
+  <si>
+    <t>Backyard BBQ Hosting Guide</t>
+  </si>
+  <si>
+    <t>Write a checklist for hosting a perfect weekend BBQ party. Mention grilling tips, potluck etiquette, and lawn games.</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Thrifting 101: Goodwill &amp; Salvation Army</t>
+  </si>
+  <si>
+    <t>Write a guide on how to find hidden gems at American thrift stores like Goodwill. Focus on vintage clothing and furniture flipping.</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>How to Sell on Facebook Marketplace</t>
+  </si>
+  <si>
+    <t>Write a safety guide and tips for selling used items on FB Marketplace in the local community.</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>The Rise of ADUs: How to Build an Accessory Dwelling Unit for Passive Income</t>
+  </si>
+  <si>
+    <t>Write a comprehensive guide in English about building Accessory Dwelling Units (ADUs) or "Granny Flats." Discuss zoning laws, cost estimates, and the potential for generating rental income in the current housing market.</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Glucose Hacking for Non-Diabetics: Controlling Spikes for Energy</t>
+  </si>
+  <si>
+    <t>Write a health blog post in English explaining why healthy people are monitoring their blood sugar. specific diet hacks (like eating veggies first) to prevent glucose spikes and avoid the afternoon crash.</t>
+  </si>
+  <si>
+    <t>The Sober Curious Movement: Navigating Social Life Without Alcohol</t>
+  </si>
+  <si>
+    <t>Write a lifestyle article in English about the "Sober Curious" trend. Provide tips for ordering mocktails at bars, handling peer pressure, and the health benefits of reducing alcohol intake.</t>
+  </si>
+  <si>
+    <t>Credit Card Churning 101: A Beginner’s Guide to Travel Hacking</t>
+  </si>
+  <si>
+    <t>Write a detailed financial guide in English about "credit card churning" to earn free travel points. Explain the 5/24 rule, how to manage credit scores safely, and the best cards for beginners.</t>
+  </si>
+  <si>
+    <t>Clover Lawns vs. Grass: Why It’s Time to Ditch the Traditional Lawn</t>
+  </si>
+  <si>
+    <t>Write a gardening and sustainability post in English advocating for clover lawns. Explain the benefits: drought resistance, no need for mowing, and nitrogen fixation for the soil.</t>
+  </si>
+  <si>
+    <t>Gardening</t>
+  </si>
+  <si>
+    <t>Digital Detox with Dumbphones: Switching Back to Flip Phones</t>
+  </si>
+  <si>
+    <t>Write a tech trend article in English about the resurgence of "dumbphones" (feature phones) among Gen Z and Millennials. Discuss the benefits of disconnecting from social media and regaining focus.</t>
+  </si>
+  <si>
+    <t>Side Hustles for Introverts: Making Money Without Social Battery Drain</t>
+  </si>
+  <si>
+    <t>Write a career advice post in English specifically for introverts. List 10 high-paying side hustles that require minimal face-to-face interaction, such as transcription, faceless YouTube channels, or print-on-demand.</t>
+  </si>
+  <si>
+    <t>Adult ADHD Strategies: Productivity Hacks Without Medication</t>
+  </si>
+  <si>
+    <t>Write a supportive guide in English for adults recently diagnosed with ADHD. Focus on "executive function" hacks, body doubling techniques, and digital tools to manage time effectively.</t>
+  </si>
+  <si>
+    <t>Mental Health</t>
+  </si>
+  <si>
+    <t>Vanlife Internet Solutions: Starlink vs. 5G Hotspots</t>
+  </si>
+  <si>
+    <t>Write a technical comparison guide in English for digital nomads living in vans or RVs. Compare the cost, speed, and reliability of Starlink satellite internet versus cellular 5G hotspots in remote areas.</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>The Dilemma of "Sharenting": Protecting Your Child’s Digital Footprint</t>
+  </si>
+  <si>
+    <t>Write a parenting opinion piece in English about the ethics of sharing kids' photos online. Discuss privacy risks, facial recognition technology, and how to share family moments safely.</t>
+  </si>
+  <si>
+    <t>Parenting</t>
+  </si>
+  <si>
+    <t>529 Plans vs. Roth IRAs: Saving for Your Child’s Future Education</t>
+  </si>
+  <si>
+    <t>Write a financial comparison post in English for parents. Analyze the pros and cons of using a 529 College Savings Plan versus a Custodial Roth IRA for funding a child's future.</t>
+  </si>
+  <si>
+    <t>Building a Capsule Wardrobe: The 333 Challenge Explained</t>
+  </si>
+  <si>
+    <t>Write a fashion guide in English about the "Project 333" challenge. Explain how to curate a minimalist wardrobe with only 33 items for 3 months to reduce decision fatigue and clutter.</t>
+  </si>
+  <si>
+    <t>DIY Soundproofing: Creating a Quiet Home Office on a Budget</t>
+  </si>
+  <si>
+    <t>Write a DIY tutorial in English for remote workers dealing with noise. Suggest affordable solutions like acoustic panels, weather stripping, and heavy curtains to improve focus in a home office.</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>The Adult Gap Year: How to Plan a Career Sabbatical</t>
+  </si>
+  <si>
+    <t>Write a career planning guide in English for mid-career professionals considering a sabbatical. Discuss how to budget for a year off, how to explain the gap on a resume, and the mental health benefits.</t>
+  </si>
+  <si>
+    <t>Biohacking Menopause: Natural Strategies for Symptom Relief</t>
+  </si>
+  <si>
+    <t>Write a women's health article in English focusing on natural ways to manage perimenopause and menopause. Discuss diet changes, supplements like magnesium, and strength training benefits.</t>
+  </si>
+  <si>
+    <t>Prenups for Millennials: Why Every Couple Needs a Financial Agreement</t>
+  </si>
+  <si>
+    <t>Write a relationship and finance article in English destigmatizing prenuptial agreements. Explain why they are essential for protecting assets and debt management, even for non-wealthy couples.</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Lab-Grown Diamonds vs. Moissanite: The Ethical Engagement Ring Guide</t>
+  </si>
+  <si>
+    <t>Write a jewelry buying guide in English comparing Lab-Grown Diamonds and Moissanite. Discuss durability, sparkle, cost differences, and the ethical advantages over mined diamonds.</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Zero-Waste Grocery Shopping: A Guide to Bulk Bins and Jars</t>
+  </si>
+  <si>
+    <t>Write a practical sustainability guide in English about shopping at zero-waste or bulk-refill stores. Provide a checklist of kit essentials (jars, tote bags) and tips for tare weighing.</t>
+  </si>
+  <si>
+    <t>AI for Personal Budgeting: Using ChatGPT to Fix Your Finances</t>
+  </si>
+  <si>
+    <t>Write a "how-to" guide in English on using AI tools like ChatGPT to analyze bank statements and create personalized budget plans. Include prompt examples for cutting costs.</t>
+  </si>
+  <si>
+    <t>Restoring Vintage Cast Iron: A Step-by-Step Guide</t>
+  </si>
+  <si>
+    <t>Write a culinary DIY post in English about finding and restoring rusty cast iron skillets. Explain the stripping process, how to re-season properly, and daily maintenance rules.</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Stoicism for Modern Anxiety: Applying Ancient Philosophy Today</t>
+  </si>
+  <si>
+    <t>Write a self-improvement article in English explaining key Stoic principles (like the Dichotomy of Control). meaningful advice on how to use these concepts to handle modern workplace stress.</t>
+  </si>
+  <si>
+    <t>Self-Improvement</t>
+  </si>
+  <si>
+    <t>Suburban Prepping: Essential 72-Hour Bug-Out Bag Checklist</t>
+  </si>
+  <si>
+    <t>Write a preparedness guide in English tailored for suburban families, not "doomsday preppers." List practical items needed for a 3-day emergency kit (power outages, natural disasters).</t>
+  </si>
+  <si>
+    <t>Preparedness</t>
+  </si>
+  <si>
+    <t>Tax Write-offs for Freelancers: What You Can Actually Deduct</t>
+  </si>
+  <si>
+    <t>Write a tax education post in English for gig workers and freelancers in the US/UK. Clarify common deductions like home office space, internet bills, and software subscriptions.</t>
+  </si>
+  <si>
+    <t>Furniture Subscription Services: Is Renting Better Than Buying?</t>
+  </si>
+  <si>
+    <t>Write a lifestyle review in English analyzing the trend of furniture rental (e.g., Fernish, Feather). Compare the long-term costs for frequent movers versus buying cheap "fast furniture."</t>
+  </si>
+  <si>
+    <t>Living</t>
+  </si>
+  <si>
+    <t>Slow Travel: The Art of Staying Put for a Month</t>
+  </si>
+  <si>
+    <t>Write a travel philosophy post in English advocating for "Slow Travel." Explain the benefits of renting an apartment for a month in one city instead of hopping between 5 cities in 10 days.</t>
+  </si>
+  <si>
+    <t>Cold Water Therapy at Home: Benefits of the Daily Ice Plunge</t>
+  </si>
+  <si>
+    <t>Write a wellness guide in English about the physical and mental benefits of cold exposure. valid safety tips for beginners starting with cold showers or DIY ice baths.</t>
+  </si>
+  <si>
+    <t>Wellness</t>
+  </si>
+  <si>
+    <t>Seed Cycling for Hormone Balance: Fact or Fiction?</t>
+  </si>
+  <si>
+    <t>Write a health investigative post in English about "Seed Cycling" (eating pumpkin/flax seeds at specific times). Analyze the claims regarding menstrual health and what the science says.</t>
+  </si>
+  <si>
+    <t>Solo Dining: How to Eat Alone at Restaurants with Confidence</t>
+  </si>
+  <si>
+    <t>Write a lifestyle confidence guide in English for people afraid of dining alone. Offer tips for enjoying one's own company, bringing a book, and overcoming the "spotlight effect."</t>
+  </si>
+  <si>
+    <t>Flipping Furniture for Profit: A Side Hustle Guide</t>
+  </si>
+  <si>
+    <t>Write a hobby-to-income guide in English about finding undervalued furniture at thrift stores, sanding/painting it, and reselling it on Facebook Marketplace.</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Mouth Taping for Better Sleep: The Science of Nasal Breathing</t>
+  </si>
+  <si>
+    <t>Write a niche health article in English about the trend of mouth taping at night. Explain how it promotes nasal breathing, reduces snoring, and improves sleep quality, along with safety precautions.</t>
+  </si>
+  <si>
+    <t>The Rule of 72(t): How to Access Retirement Funds Early Without Penalty</t>
+  </si>
+  <si>
+    <t>Write a detailed financial guide in English explaining the IRS Rule 72(t) (SEPP). Explain how early retirees (FIRE movement) can withdraw from 401ks/IRAs before age 59½ without the 10% penalty.</t>
+  </si>
+  <si>
+    <t>Living Apart Together (LAT): The Secret to Relationship Longevity?</t>
+  </si>
+  <si>
+    <t>Write a relationship lifestyle post in English about the "Living Apart Together" trend. Discuss why committed couples are choosing to maintain separate residences and the legal/financial implications.</t>
+  </si>
+  <si>
+    <t>Water Glassing Eggs: Preserving Food for 12+ Months Without Refrigeration</t>
+  </si>
+  <si>
+    <t>Write a homesteading "how-to" guide in English about water glassing eggs using hydrated lime. Focus on long-term food security, safety precautions, and why this old-school method is returning.</t>
+  </si>
+  <si>
+    <t>Homesteading</t>
+  </si>
+  <si>
+    <t>The "Overemployed" Lifestyle: Managing Two Remote Jobs Secretly</t>
+  </si>
+  <si>
+    <t>Write a career controversy article in English about the "Overemployment" community. Discuss the ethics, the logistics of managing conflicting meetings (J1 vs. J2), and the risk of burnout.</t>
+  </si>
+  <si>
+    <t>Co-Buying Property: How to Buy a House with Friends in a High-Cost Market</t>
+  </si>
+  <si>
+    <t>Write a real estate guide in English about "Tenancy in Common" (TIC) and co-ownership. Provide a legal and relational checklist for friends buying property together to overcome housing affordability issues.</t>
+  </si>
+  <si>
+    <t>Rucking 101: Why Walking with Weight is the Ultimate Low-Impact Cardio</t>
+  </si>
+  <si>
+    <t>Write a fitness guide in English about "Rucking" (military-style walking with a weighted backpack). Explain the calorie-burning benefits, proper posture, and how to start with just a backpack and bricks.</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Tipping Fatigue: A Modern Etiquette Guide for Digital Kiosks</t>
+  </si>
+  <si>
+    <t>Write a cultural commentary and advice post in English about "Tipping Fatigue" in the US/Canada. Offer a guilt-free guide on when to tip and when to hit "No Tip" at counter-service tablet screens.</t>
+  </si>
+  <si>
+    <t>Worldschooling: Educating Your Kids While Traveling the Globe</t>
+  </si>
+  <si>
+    <t>Write an education lifestyle post in English about "Worldschooling." Distinguish it from homeschooling, and discuss curriculum options, legal requirements, and socialization for traveling families.</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>DIY Catios: Building Safe Outdoor Spaces for Indoor Cats</t>
+  </si>
+  <si>
+    <t>Write a DIY project guide in English for building a "Catio" (Cat Patio). Discuss materials (wire mesh, framing), different designs (window box vs. standalone), and the benefits for bird safety and cat health.</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>The Infinite Banking Concept: Be Your Own Bank with Whole Life Insurance</t>
+  </si>
+  <si>
+    <t>Write a financial strategy post in English explaining the "Infinite Banking Concept" (IBC). Demystify how people borrow against the cash value of whole life insurance policies to finance cars or investments.</t>
+  </si>
+  <si>
+    <t>Seasonal Color Analysis: Finding Your Palette (Winter, Spring, Summer, Autumn)</t>
+  </si>
+  <si>
+    <t>Write a fashion and beauty guide in English explaining "Seasonal Color Analysis." Teach readers how to determine their skin undertones and choose clothing colors that make them look vibrant vs. washed out.</t>
+  </si>
+  <si>
+    <t>Induction vs. Gas Stoves: The Health and Efficiency Debate Solved</t>
+  </si>
+  <si>
+    <t>Write a home appliance comparison post in English. Focus on the recent health studies regarding gas stove emissions (NO2) and why professional chefs are switching to induction cooktops for precision and safety.</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Self-Hosting for Privacy: A Beginner’s Guide to Nextcloud</t>
+  </si>
+  <si>
+    <t>Write a tech tutorial in English for privacy advocates. Explain how to set up a personal cloud server (using Nextcloud or similar) to replace Google Drive/Dropbox and regain control of personal data.</t>
+  </si>
+  <si>
+    <t>Bokashi Composting: How to Compost Meat and Dairy Indoors</t>
+  </si>
+  <si>
+    <t>Write a sustainability guide in English about the Bokashi method. Explain how it differs from traditional composting (using fermentation bran), allowing apartment dwellers to compost meat, dairy, and cooked food without odors.</t>
+  </si>
+  <si>
+    <t>Maladaptive Daydreaming: When Imagination Becomes an Addiction</t>
+  </si>
+  <si>
+    <t>Write a mental health awareness post in English about "Maladaptive Daydreaming." distinct it from normal daydreaming, discuss the symptoms, and offer coping mechanisms for regaining focus in daily life.</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Hyper-miling: Advanced Driving Techniques to Save Gas</t>
+  </si>
+  <si>
+    <t>Write an automotive "how-to" post in English about "Hypermiling." Share safe but extreme driving habits (like coasting, tire pressure adjustments) that can increase fuel efficiency by 30%+.</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Magnet Fishing: The Treasure Hunting Hobby Cleaning Our Waterways</t>
+  </si>
+  <si>
+    <t>Write a hobby guide in English about Magnet Fishing. Explain the gear needed (neodymium magnets, rope), the thrill of finding metal artifacts in rivers, and the environmental benefit of removing scrap metal.</t>
+  </si>
+  <si>
+    <t>Digital Legacy: Setting Up Inactive Account Managers (Google &amp; Apple)</t>
+  </si>
+  <si>
+    <t>Write a practical tech guide in English about "Digital Inheritance." Step-by-step instructions on setting up Apple’s "Legacy Contact" and Google’s "Inactive Account Manager" so family can access photos/data after death.</t>
+  </si>
+  <si>
+    <t>Red Light Therapy at Home: Hype or Healing?</t>
+  </si>
+  <si>
+    <t>Write a wellness investigative post in English about Red Light Therapy (RLT/Photobiomodulation). Explain the science behind wavelengths (660nm vs 850nm) for skin health and muscle recovery, and how to choose a device.</t>
+  </si>
+  <si>
+    <t>Travel Hacking with "Stopovers": Seeing Two Cities for the Price of One</t>
+  </si>
+  <si>
+    <t>Write a travel strategy post in English about airline "Free Stopover" programs (e.g., Icelandair, TAP Portugal, Qatar Airways). Explain how to book a multi-day layover to explore a bonus country at no extra airfare cost.</t>
+  </si>
+  <si>
+    <t>The "No-Buy Year": Resetting Your Relationship with Consumerism</t>
+  </si>
+  <si>
+    <t>Write a personal finance and lifestyle post in English regarding the "No-Buy Year" challenge. Provide rules for the challenge (essentials only), and discuss the psychological shift from consumerism to contentment.</t>
+  </si>
+  <si>
+    <t>Minimalism</t>
+  </si>
+  <si>
+    <t>Baby-Led Weaning (BLW): A Safety Guide for Skipping Purees</t>
+  </si>
+  <si>
+    <t>Write a parenting guide in English about Baby-Led Weaning. Explain the benefits of letting infants self-feed solid foods, the difference between gagging and choking, and safe first foods to serve.</t>
+  </si>
+  <si>
+    <t>Guerrilla Gardening: Greening Concrete Jungles with Seed Bombs</t>
+  </si>
+  <si>
+    <t>Write a niche gardening post in English about "Guerrilla Gardening." Discuss the ethics and methods of planting native wildflowers in neglected urban spaces using DIY seed bombs.</t>
+  </si>
+  <si>
+    <t>Hard Money Lenders vs. Traditional Banks: Financing for House Flippers</t>
+  </si>
+  <si>
+    <t>Write a real estate investment guide in English explaining "Hard Money Loans." Explain why house flippers use these high-interest, short-term loans and the risks involved compared to conventional mortgages.</t>
+  </si>
+  <si>
+    <t>Hardware Security Keys: Why You Need a YubiKey</t>
+  </si>
+  <si>
+    <t>Write a cybersecurity guide in English explaining why SMS 2-Factor Authentication is vulnerable to "SIM Swapping." Advocate for hardware keys (like YubiKey) as the gold standard for securing email and crypto accounts.</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Asynchronous Work: The Death of the Daily Stand-up Meeting</t>
+  </si>
+  <si>
+    <t>Write a business productivity post in English about "Async Work" cultures (like GitLab or Doist). Explain how writing-heavy communication replaces constant Zoom meetings and allows for true deep work.</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Swedish Death Cleaning (Döstädning): Organizing for Your Family’s Sake</t>
+  </si>
+  <si>
+    <t>Write a decluttering guide in English based on the concept of "Swedish Death Cleaning." Discuss the kindness of decluttering your own possessions while alive so your family doesn't have to bear the burden later.</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Raw Feeding for Cats: The BARF Diet Explained</t>
+  </si>
+  <si>
+    <t>Write a niche pet nutrition post in English about the "Biologically Appropriate Raw Food" (BARF) diet for cats. Discuss the benefits (coat health, energy) and the strict safety requirements to avoid bacterial contamination.</t>
+  </si>
+  <si>
+    <t>Apostille Services: The Expat’s Nightmare Explained</t>
+  </si>
+  <si>
+    <t>Write a bureaucratic guide in English for future expats. Explain what an "Apostille" is, why simply notarizing a document isn't enough for international use, and the process of authenticating birth/marriage certificates.</t>
+  </si>
+  <si>
+    <t>Expat</t>
+  </si>
+  <si>
+    <t>Optimistic Nihilism: A Philosophy for the Anxious Generation</t>
+  </si>
+  <si>
+    <t>Write a philosophy lifestyle post in English explaining "Optimistic Nihilism" (popularized by Kurzgesagt). Discuss how the realization that "nothing matters" can actually be liberating and lead to a happier, pressure-free life.</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
   </si>
 </sst>
 </file>
@@ -196,16 +631,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -515,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,160 +968,764 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="45" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="51" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    </row>
+    <row r="54" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,43 +1,331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\visual\lazyprompt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F857BFE1-2BB7-474F-8B9E-03C92400263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>The "Section 609" Credit Repair Hack: Fact or Fiction?</t>
+  </si>
+  <si>
+    <t>Write an investigative financial guide in English about the "Section 609 Dispute Letter." Analyze the Fair Credit Reporting Act (FCRA) loophole that claims to remove negative credit items by demanding physical proof of debt.</t>
+  </si>
+  <si>
+    <t>Credit Repair</t>
+  </si>
+  <si>
+    <t>Freezing Your LexisNexis Report: Lowering Insurance Premiums Secretly</t>
+  </si>
+  <si>
+    <t>Write a consumer privacy guide in English. Explain what the "LexisNexis" and "C.L.U.E." reports are, how insurers use them to spy on claims history, and why freezing them can lower auto and home insurance rates.</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Dynamic Currency Conversion (DCC): The ATM Scam Costing Travelers Millions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write a travel money guide in English. Warn tourists about the "Pay in USD or Local Currency?" screen at ATMs and card terminals. Explain the math behind DCC fees and why you must </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> choose local currency.</t>
+    </r>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Custodial Roth IRAs for Kids: Making Your Child a Millionaire by 50</t>
+  </si>
+  <si>
+    <t>Write a generational wealth guide in English. Explain the tax code rules that allow parents to open a Roth IRA for a minor (if they have earned income like modeling or chores-for-pay) to leverage 50 years of compound interest.</t>
+  </si>
+  <si>
+    <t>Family Finance</t>
+  </si>
+  <si>
+    <t>ChexSystems Blacklist: How to Get a Bank Account When No One Will Approve You</t>
+  </si>
+  <si>
+    <t>Write a banking survival guide in English. Explain what "ChexSystems" is (the credit bureau for bank accounts) and list "Second Chance Banking" options for people who have been blacklisted due to overdraft fees.</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Force-Placed Insurance: The Mortgage Lender's Expensive Trap</t>
+  </si>
+  <si>
+    <t>Write a real estate warning post in English. Explain what happens if your home insurance lapses (even for a day) and the lender imposes "Force-Placed Insurance," which is 3x more expensive and covers less.</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>The Marriage Tax Penalty vs. Bonus: When to Tie the Knot Tax-Wise</t>
+  </si>
+  <si>
+    <t>Write a tax planning guide in English. Analyze the US tax brackets to explain why some couples save money by marrying (Bonus) while high-earning dual-income couples often pay more (Penalty).</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Strategic Default: The Ethics of Walking Away from an Underwater Mortgage</t>
+  </si>
+  <si>
+    <t>Write a controversial real estate financial post in English. Discuss the concept of "Strategic Default" (mailing the keys back to the bank) when a home's value drops significantly below the mortgage balance.</t>
+  </si>
+  <si>
+    <t>Phantom Power (Vampire Load): Saving $200/Year by Unplugging</t>
+  </si>
+  <si>
+    <t>Write a home energy efficiency guide in English. Explain which appliances consume electricity even when turned off (game consoles, DVRs) and the economic benefit of using smart power strips to kill "Vampire Load."</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Structured Settlements: The Truth About Selling Your Annuity (JG Wentworth)</t>
+  </si>
+  <si>
+    <t>Write a financial advice post in English about selling future annuity payments for a lump sum of cash. Discuss the high discount rates (fees) charged by factoring companies and when it makes sense to sell.</t>
+  </si>
+  <si>
+    <t>Qualified Small Business Stock (QSBS): The 100% Tax-Free Exit Strategy</t>
+  </si>
+  <si>
+    <t>Write a high-level tax guide in English for startup founders and early employees. Explain Section 1202 (QSBS), which allows eligible shareholders to sell their stock completely tax-free up to $10 million.</t>
+  </si>
+  <si>
+    <t>Investing</t>
+  </si>
+  <si>
+    <t>Split Ticketing: The UK Rail Hack Saving Commuters 40%</t>
+  </si>
+  <si>
+    <t>Write a travel savings guide in English about "Split Ticketing" (specifically for UK/Europe trains). Explain the logic of buying multiple tickets for one journey (A to B, B to C) instead of one direct ticket (A to C).</t>
+  </si>
+  <si>
+    <t>Non-Owner Car Insurance: Liability Coverage for Frequent Renters</t>
+  </si>
+  <si>
+    <t>Write a niche insurance guide in English. Explain who needs "Non-Owner Car Insurance"—people who don't own a car but rent frequently or drive Zipcars—and how it prevents gaps in coverage history.</t>
+  </si>
+  <si>
+    <t>Escrow Shortages: Why Your Mortgage Payment Suddenly Went Up</t>
+  </si>
+  <si>
+    <t>Write a homeowner education post in English. Explain the "Escrow Analysis" statement. Detail how property tax hikes create a "shortage" in the escrow account, forcing lenders to increase monthly payments unexpectedly.</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Regulation Crowdfunding (Reg CF): Investing in Startups with $100</t>
+  </si>
+  <si>
+    <t>Write an investment trend post in English. Discuss platforms like StartEngine or Republic that allow non-accredited investors to buy equity in private startups, a sector previously reserved for millionaires.</t>
+  </si>
+  <si>
+    <t>The "Churning" Cycle: Opening Credit Cards Strictly for Sign-Up Bonuses</t>
+  </si>
+  <si>
+    <t>Write a comprehensive guide in English about "Credit Card Churning." Explain the strategy of opening cards to hit the "Spend $3,000, Get $500" bonuses and the discipline required to not go into debt.</t>
+  </si>
+  <si>
+    <t>Side Hustle</t>
+  </si>
+  <si>
+    <t>Third-Party Logistics (3PL): Scaling Your E-commerce Biz Without a Warehouse</t>
+  </si>
+  <si>
+    <t>Write a business logistics guide in English. Explain when a small business should switch to a 3PL (fulfillment center). Analyze the cost of storage fees vs. the time saved from packing boxes yourself.</t>
+  </si>
+  <si>
+    <t>Key Person Insurance: Protecting a Small Business from Disaster</t>
+  </si>
+  <si>
+    <t>Write a business risk management post in English. Explain "Key Man" insurance—a life insurance policy a company buys on its most crucial employee/owner to prevent bankruptcy if they pass away.</t>
+  </si>
+  <si>
+    <t>Over-the-Counter (OTC) Deeds: Buying Land Not Listed on Zillow</t>
+  </si>
+  <si>
+    <t>Write a real estate treasure hunting guide in English. Explain how to buy property directly from the County Clerk's office (surplus lands) that didn't sell at tax auctions, often for just the back taxes and fees.</t>
+  </si>
+  <si>
+    <t>VA Loan Residual Income: The Secret Approval Formula for Veterans</t>
+  </si>
+  <si>
+    <t>Write a niche mortgage guide in English. Explain that unlike conventional loans (Debt-to-Income ratio), VA loans use a unique "Residual Income" calculation that often allows veterans to borrow more than civilians.</t>
+  </si>
+  <si>
+    <t>Priority Pass vs. LoungeKey: The Airport Lounge Access Wars</t>
+  </si>
+  <si>
+    <t>Write a travel luxury comparison in English. Compare the two major lounge networks included with premium credit cards. Discuss coverage gaps, guest policies, and the recent overcrowding issues.</t>
+  </si>
+  <si>
+    <t>The "Latte Factor" Rebuttal: Why You Should Focus on Big 3 Expenses</t>
+  </si>
+  <si>
+    <t>Write a financial philosophy post in English. Argue against the "stop buying coffee" advice. Use math to show that reducing Housing, Transport, and Food costs (The Big 3) yields 100x more savings than skipping lattes.</t>
+  </si>
+  <si>
+    <t>Reverse Dieting: Repairing Metabolism After a Crash Diet</t>
+  </si>
+  <si>
+    <t>Write a health and fitness economics post in English. Explain "Reverse Dieting"—the process of slowly increasing calorie intake to restore metabolic rate—crucial for people who have damaged their metabolism through chronic dieting.</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Umbrella Insurance for Landlords: Essential Asset Protection</t>
+  </si>
+  <si>
+    <t>Write a real estate landlord guide in English. Explain why a standard "Dwelling Fire" policy isn't enough and why landlords need an Umbrella Policy to protect their personal savings from tenant lawsuits (e.g., slip and falls).</t>
+  </si>
+  <si>
+    <t>Fractional Gold: Investing in grams vs. Ounces</t>
+  </si>
+  <si>
+    <t>Write a precious metals investment guide in English. Discuss the premiums (markups) on fractional gold bars (1g, 5g) versus 1oz coins. Explain why buying small amounts is "stacking" friendly but less cost-efficient.</t>
+  </si>
+  <si>
+    <t>Amazon "Subscribe &amp; Save" Hacks: Managing the 15% Discount</t>
+  </si>
+  <si>
+    <t>Write a shopping optimization guide in English. Explain the math behind Amazon's "5 items for 15% off" rule. Share the trick of adding cheap "filler items" to unlock the maximum discount on expensive goods.</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>FHA 203(h) Mortgage: 100% Financing for Disaster Victims</t>
+  </si>
+  <si>
+    <t>Write a niche disaster relief guide in English. Explain the FHA 203(h) loan program, which offers 100% financing (zero down payment) for people whose homes were destroyed in a Presidentially Declared Disaster area.</t>
+  </si>
+  <si>
+    <t>CLUE Reports: The "Carfax" for Houses</t>
+  </si>
+  <si>
+    <t>Write a homebuying due diligence guide in English. Explain the "Comprehensive Loss Underwriting Exchange" (CLUE) report. Why buyers must demand it to see if a house has a history of hidden water damage claims.</t>
+  </si>
+  <si>
+    <t>Work Opportunity Tax Credit (WOTC): IRS Pays You to Hire</t>
+  </si>
+  <si>
+    <t>Write a small business hiring guide in English. Explain how employers can claim up to $9,600 in tax credits for hiring individuals from targeted groups (veterans, ex-felons, long-term unemployed).</t>
+  </si>
+  <si>
+    <t>Peer-to-Peer Car Insurance: How "Root" and "Metromile" Save Money</t>
+  </si>
+  <si>
+    <t>Write an InsurTech review in English. Discuss the rise of telematics-based insurance (pay-per-mile or pay-for-driving-skills). Analyze the privacy trade-offs versus the potential 40% savings for safe drivers.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +334,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,207 +676,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ADU Rental Income: Maximize Your Property Value with a Backyard Cottage in High-Cost Western Markets</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Write a comprehensive blog post in English detailing how homeowners in Western countries (specifically targeting California, British Columbia, or parts of Australia) can generate substantial rental income and increase property value by converting existing garage space or building an Accessory Dwelling Unit (ADU). Include sections on: understanding local zoning laws (mentioning general examples like SB9 in California), calculating potential ROI, financing options, common pitfalls to avoid, and a step-by-step project timeline. Emphasize the economic benefits and lifestyle flexibility for multi-generational living or passive income. Provide specific actionable tips for cost-effective construction and tenant screening.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Real Estate Investment</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Smart Home Energy Savings: Cut Utility Bills by 30% with AI-Powered Optimization in Variable Tariff Zones</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Write an in-depth blog post in English for Western homeowners, focusing on how to leverage AI-powered smart home devices (e.g., smart thermostats, smart panels, energy monitors) to achieve significant utility bill reductions, particularly in regions with complex Time-of-Use (TOU) or variable electricity tariffs (e.g., California, Texas, select European markets). Explain the economic principles behind demand response and dynamic pricing. Provide practical setup guides, recommended software/hardware integrations, and advanced strategies for automating energy consumption based on real-time pricing and personal usage patterns. Include examples of tangible savings and how to interpret energy reports for optimization. The goal is a tangible 30% saving.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Smart Living</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Digital Nomad Tax Hacks: Legally Reduce Your Income Tax as a High-Earning Western Freelancer Abroad</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Generate a detailed blog post in English for high-earning Western freelancers, consultants, and remote workers who are or plan to become digital nomads. Focus on advanced tax optimization strategies and leveraging international tax treaties and digital nomad visas to legally minimize their income tax burden. Cover concepts such as the Foreign Earned Income Exclusion (FEIE), tax residency rules, specific country examples with favorable tax regimes (e.g., Portugal's NHR, UAE's tax-free status), and the importance of professional tax advice. Include actionable steps for establishing tax residency abroad, understanding tax implications of various visa types, and avoiding common legal pitfalls. Emphasize the financial gains and expanded lifestyle opportunities.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Global Careers</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Forest Bathing for Urban Professionals: Boost Focus &amp; Reduce Burnout with Accessible Nature Therapy</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Create an engaging blog post in English targeting stressed urban professionals in Western cities. Explain the science-backed benefits of 'Shinrin-yoku' (forest bathing) for improving mental clarity, reducing stress hormones, and boosting overall well-being and productivity. Critically, provide practical, accessible techniques and urban-adaptable strategies for incorporating forest bathing into a busy Western lifestyle – even within city parks or limited green spaces. Include a 'how-to' guide with specific sensory exercises and a 30-minute urban forest bathing routine. Emphasize the tangible lifestyle improvements and the 'return on investment' for mental health, reducing burnout, and enhancing professional performance.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Wellness</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI-Powered Personal Finance: Uncover Hidden Savings &amp; Automate Wealth Building for Western Households</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Develop an insightful blog post in English for Western individuals and households on leveraging advanced AI-powered personal finance tools and apps. Focus beyond basic budgeting, detailing how these intelligent platforms can analyze spending patterns, predict future expenses, identify hidden savings opportunities (e.g., optimizing subscriptions, finding better utility rates, personalized credit card recommendations), and automate investment decisions. Provide specific examples of how AI can optimize debt repayment strategies, personalize retirement planning, and even flag potential fraud. Emphasize the tangible economic benefits of increased savings, reduced financial stress, and streamlined wealth accumulation for busy Western consumers. Include actionable steps for choosing and integrating the right AI tools.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FinTech</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rainwater Harvesting for Western Homeowners: Cut Water Bills &amp; Boost Garden Resilience in Drought Zones</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Please write a comprehensive blog post in English titled 'Rainwater Harvesting for Western Homeowners: Cut Water Bills &amp; Boost Garden Resilience in Drought Zones'. Focus on practical, actionable steps for suburban homeowners in Western states like California, Arizona, and Texas. Include a section on local regulations and permitting (with examples of where to find this info), a cost-benefit analysis of different system types (rain barrels vs. larger cisterns), and step-by-step installation guides. Emphasize the economic savings on water bills and the environmental advantages. Provide examples of ROI and discuss maintenance tips.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sustainability</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Reverse Mortgage Strategies: Fund In-Home Care Without Selling Your Western Home</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Write a detailed blog post in English titled 'Reverse Mortgage Strategies: Fund In-Home Care Without Selling Your Western Home'. Target Western homeowners over 62 who are considering long-term care options. Explain how a reverse mortgage can be strategically used to cover in-home care costs, medical expenses, or home modifications, while allowing seniors to retain ownership. Include a discussion of eligibility requirements, the pros and cons, common misconceptions, and a financial scenario demonstrating how it works. Provide actionable advice on choosing a reputable lender and understanding the repayment structure. Emphasize the lifestyle improvement and financial security for seniors.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Boutique Service Businesses: High-Profit Niches for Western Suburban Entrepreneurs</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Create a comprehensive blog post in English titled 'Boutique Service Businesses: High-Profit Niches for Western Suburban Entrepreneurs'. Focus on identifying and launching hyper-local, high-margin service businesses tailored to affluent Western suburban communities (e.g., luxury pet care, specialized estate organization, bespoke gardening for large properties, personal errand services for busy professionals). Detail market research techniques for identifying demand, low-cost startup strategies, pricing models for premium services, and effective local marketing tactics. Provide 3-5 specific business ideas with potential income projections and emphasize the lifestyle benefits of running a successful niche local business.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Digital Detox for Remote Professionals: Reclaim Focus &amp; Boost Productivity in the Western Work-From-Home Era</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Write an actionable blog post in English titled 'Digital Detox for Remote Professionals: Reclaim Focus &amp; Boost Productivity in the Western Work-From-Home Era'. Target Western remote workers struggling with digital overload and burnout. Provide practical, step-by-step strategies for implementing digital detox periods during workdays and off-hours, specifically tailored for a remote work environment. Include tips on managing notifications, setting boundaries with colleagues/clients, utilizing productivity tools for focused work, and transitioning effectively between work and personal life without digital distractions. Emphasize the tangible benefits: improved mental clarity, reduced stress, and increased output. Offer a 7-day digital detox challenge plan.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Productivity</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Smart Home Accessibility: Retrofit Western Homes for Aging-in-Place &amp; Enhanced Independence</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Generate a comprehensive blog post in English titled 'Smart Home Accessibility: Retrofit Western Homes for Aging-in-Place &amp; Enhanced Independence'. Focus on practical, cost-effective smart home technologies that can be integrated into existing Western homes to improve accessibility and safety for seniors or individuals with mobility challenges. Discuss specific solutions like voice-activated controls for lighting and thermostats, smart fall detection systems, automated door locks, remote monitoring devices, and accessible smart appliances. Include a guide on evaluating home needs, budgeting for upgrades, and choosing reliable systems. Emphasize the tangible benefits of enhanced independence, reduced caregiving burden, and improved quality of life. Provide examples of affordable products and their installation considerations.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="399.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="371.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="357" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="371.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="399.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="314.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="357" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="371.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="328.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="371.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="371.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="385.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="399.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="342.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="357" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/list.xlsx
+++ b/list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,46 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Untapped Potential: Mastering Bespoke Leather Crafting for a Lucrative Artisan Business</t>
+          <t>Unlocking Tax-Advantaged Land Conservation: The Historic Preservation Easement Strategy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Write a comprehensive blog post in English for aspiring artisans and entrepreneurs interested in starting a bespoke leather crafting business within Western economies. Focus on the economic benefits of high-end, personalized goods, and lifestyle improvements associated with artisanal work. Include actionable tips on sourcing premium leather, essential tools, pricing strategies for luxury items, and marketing to affluent clientele through platforms like Etsy, Instagram, and local craft fairs.  Emphasize the tangible advantage of building a brand around unique craftsmanship.  Include a small example of a pricing breakdown for a custom leather wallet.</t>
+          <t>Write a comprehensive blog post in English explaining the economic benefits of historic preservation easements for landowners in the United States. Detail the tax deduction process, eligibility criteria, and the long-term financial advantages. Include a case study of a successful easement and provide actionable steps for homeowners considering this strategy. Focus on SEO keywords like 'historic preservation tax credit', 'land conservation benefits', 'easement deductions'.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Artisan</t>
+          <t>Finance</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Optimizing Your Small Town Real Estate Portfolio: Strategies for Maximizing ROI in Rural American Markets</t>
+          <t>The Artisan Cobbler's Revival: Mastering Bespoke Shoemaking for a Lucrative Niche</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Create an in-depth blog post in English targeting real estate investors, particularly those focused on smaller towns and rural areas in the US.  Highlight the economic advantages of investing in these markets, such as lower entry costs and potential for gentrification. Discuss niche strategies for maximizing ROI, including identifying undervalued properties, understanding local zoning laws, leveraging short-term rental opportunities, and managing properties remotely.  Emphasize tangible benefits like passive income generation and long-term asset appreciation. Include a case study example of a successful rural real estate investment.</t>
+          <t>Create a blog post in English that explores the resurgence of bespoke shoemaking as a high-end craft and lucrative business opportunity in Western economies. Cover the essential skills, tools, and materials required. Discuss market positioning, pricing strategies, and how to build a clientele. Include an interview snippet with a successful modern cobbler. Optimize for keywords such as 'bespoke shoemaking business', 'artisan footwear', 'luxury handmade shoes'.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Investment</t>
+          <t>Craft</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Power of Personalized Nutrition: Biohacking Your Western Diet for Peak Cognitive Performance</t>
+          <t>Beyond the Treadmill: Optimizing Your Home Gym for Functional Fitness &amp; Longevity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Develop an informative blog post in English for health-conscious individuals in Western countries interested in optimizing their brain health through diet. Focus on the lifestyle improvement and tangible advantages of enhanced cognitive function. Explore niche biohacking techniques within the context of a typical Western diet, such as the impact of specific macronutrient ratios, beneficial micronutrients, gut health optimization (probiotics, prebiotics), and the role of intermittent fasting. Provide actionable dietary recommendations and discuss commonly available Western foods that support brain health. Include a sample daily meal plan for cognitive enhancement.</t>
+          <t>Generate an English blog post detailing how to design and equip a home gym specifically for functional fitness, emphasizing long-term health and injury prevention. Provide guidance on selecting key equipment (e.g., kettlebells, resistance bands, adjustable dumbbells) and offer workout routines that promote mobility, strength, and balance. Include a section on space-saving solutions for smaller homes. Target keywords like 'functional home gym', 'longevity fitness', 'injury prevention workouts'.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,46 +504,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Navigating the Gig Economy: Securing High-Value Freelance Contracts in Specialized Western Industries</t>
+          <t>The Micro-Distillery Boom: Navigating Licensing &amp; Crafting Premium Spirits in North America</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Craft a practical blog post in English aimed at experienced professionals in Western countries transitioning to or optimizing their freelance careers in niche industries (e.g., specialized software development, scientific consulting, high-end graphic design).  Focus on the economic benefits of securing well-compensated contracts and the lifestyle flexibility of freelancing.  Provide concrete advice on identifying lucrative freelance opportunities, building a strong professional portfolio, effective negotiation tactics, and utilizing platforms catering to specialized skills. Emphasize the tangible advantage of earning a higher income and achieving better work-life balance. Include tips for creating a compelling freelance proposal.</t>
+          <t>Write a detailed blog post in English aimed at aspiring entrepreneurs interested in the growing micro-distillery industry in North America. Cover the complex legal and licensing requirements, essential equipment, and the process of developing unique spirit recipes. Discuss branding, distribution challenges, and marketing strategies for craft spirits. Include a section on the economic potential and growing consumer demand for artisanal beverages. Optimize for search terms like 'how to start a microbrewery', 'craft spirit business plan', 'alcohol licensing USA'.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Career</t>
+          <t>Business</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sustainable Urban Farming: Vertical Hydroponic Systems for Edible Cityscapes in North America</t>
+          <t>Sustainable Urban Beekeeping: Cultivating Honey &amp; Biodiversity in City Ecosystems</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Write an engaging blog post in English for urban dwellers and homesteaders in North America interested in sustainable living and fresh produce.  Focus on the economic benefits of reducing grocery bills, the lifestyle improvement of growing your own food, and the tangible advantage of fresh, nutrient-rich produce.  Detail the principles of vertical hydroponic systems, including setup, maintenance, optimal plant choices for urban environments, and water/energy efficiency.  Provide practical guidance for small-scale residential setups and discuss potential community-based farming initiatives. Include a diagram illustrating a basic vertical hydroponic system.</t>
+          <t>Develop a blog post in English that champions urban beekeeping as a lifestyle choice offering both environmental and economic benefits. Explain the fundamentals of setting up and maintaining beehives in urban settings, focusing on sustainable practices. Discuss the tangible advantages like fresh honey production, pollination services, and contributing to local biodiversity. Provide practical tips on hive management, honey harvesting, and navigating local regulations. Target keywords such as 'urban beekeeping for beginners', 'sustainable urban agriculture', 'backyard beekeeping benefits'.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sustainability</t>
+          <t>Ecology</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Unlocking Tax Loopholes: Deducting Home Office Expenses for the Modern Remote Professional in the US</t>
+          <t>Harnessing Solar Tax Credits for Historic Homeowners: Maximize ROI &amp; Preserve Heritage</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Write a comprehensive blog post targeting US-based remote workers and freelancers. Explain in detail the eligibility requirements for deducting home office expenses according to IRS regulations. Provide actionable steps and examples for calculating the deduction, including the simplified option and the actual expense method.  Include a sample worksheet or checklist for readers to use. Emphasize the economic benefit of significant tax savings.  Ensure the tone is informative and authoritative, written in English for a US audience.</t>
+          <t>Write a comprehensive blog post in English for homeowners of historic properties in the US who are considering solar panel installation. The post should detail the specific federal and state tax credits available for solar energy systems on historic homes, emphasizing how these credits can significantly offset installation costs and improve the return on investment. Include actionable steps for identifying eligible systems, navigating the application process for credits, and integrating solar without compromising the architectural integrity of the property. Use concrete examples and cite relevant government resources. Focus on the economic benefits of embracing sustainable energy for heritage properties.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,68 +555,3247 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Rise of Legacy Planning: Protecting Your Digital Assets for Future Generations in the UK</t>
+          <t>The Untapped Potential of Estate Jewelry: Unlocking Hidden Value in Heirlooms</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Craft a blog post for UK residents focused on the increasingly important aspect of digital legacy planning.  Explain what digital assets are (e.g., online accounts, cryptocurrency wallets, social media profiles, digital photos) and the potential problems that arise when they are not addressed in estate planning.  Offer practical guidance on how to document, organize, and transfer these assets, mentioning specific UK legal considerations and potential challenges.  Highlight the lifestyle benefit of peace of mind and preventing future complications for loved ones.  Write the blog post in English for a UK audience.</t>
+          <t>Craft an insightful blog post in English for individuals in the US who have inherited or possess antique and vintage jewelry. This article should focus on identifying the economic value of estate jewelry, explaining the factors that contribute to its worth (e.g., gemstones, craftsmanship, historical significance, maker's marks). Provide practical advice on how to get jewelry appraised by reputable experts, explore options for selling (auctions, private dealers, online platforms), and understand the legal and tax implications of selling inherited assets. Highlight the lifestyle advantage of converting dormant heirlooms into liquid assets.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Commerce</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Maximizing Your Investment: Advanced Strategies for Flipping Mid-Century Modern Furniture for Profit</t>
+          <t>Mastering the Art of Collectible Bourbon Investment: A Guide for the Discerning Palate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Develop an in-depth guide for aspiring entrepreneurs and vintage enthusiasts in Western countries interested in the lucrative niche of refurbishing and reselling mid-century modern furniture.  Go beyond basic restoration; discuss sourcing strategies (estate sales, auctions, online marketplaces), identifying valuable pieces, authenticating designers, cost-effective repair techniques using authentic materials, and effective online sales channels (Etsy, specialized vintage sites, local consignment).  Quantify the economic benefit with potential profit margins and case study examples.  Write the blog post in English, assuming a Western market.</t>
+          <t>Develop an in-depth blog post in English for individuals in the US interested in the investment potential of rare and collectible bourbons. This piece should explore the burgeoning market for aged and limited-edition whiskies, explaining how to identify bottles with strong appreciation potential. Cover key investment strategies, including where to find rare bottles, storage best practices, understanding market trends, and the legalities of trading such assets. Emphasize the tangible advantage of building a valuable collection that can also be enjoyed, aligning lifestyle with financial growth.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Investment</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>From Burnout to Bliss: Crafting a Sustainable 'Slow Living' Routine for Overwhelmed Western Professionals</t>
+          <t>Leveraging Agricultural Easements for Rural Property Owners: Securing Income &amp; Protecting Landscapes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Create a practical and inspiring blog post for Western professionals experiencing burnout and seeking a more balanced lifestyle.  Define 'slow living' in the context of modern Western life, focusing on tangible benefits beyond just relaxation.  Offer actionable strategies for incorporating mindfulness, intentionality, and rest into daily routines.  Include specific examples of 'slow' activities that are achievable within a busy schedule (e.g., mindful commuting, intentional meal preparation, designated tech-free time, cultivating local hobbies).  Emphasize the lifestyle improvements in well-being and reduced stress.  Write the blog post in English.</t>
+          <t>Write an informative blog post in English for landowners in rural areas of the US contemplating how to best utilize their property. Focus on the economic and lifestyle benefits of agricultural conservation easements. Explain what easements are, the types available (e.g., farmland preservation, open space), and how they provide a steady income stream while permanently protecting the land from development. Detail the process of working with land trusts and government agencies, the tax benefits associated with donating or selling easements, and the long-term advantages for both the landowner and the community. Ensure practical, actionable advice.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lifestyle</t>
+          <t>RealEstate</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Eco-Chic Revolution: Sourcing and Styling Vintage Western Wear for a Unique Wardrobe</t>
+          <t>The Rise of the 'Digital Nomad' Retirement: Remote Work Strategies for Post-Career Freedom</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Write a fashion-forward blog post targeting individuals in Western countries interested in sustainable and stylish clothing.  Focus specifically on the niche of vintage Western wear (e.g., cowboy boots, denim jackets, plaid shirts, leather accents).  Provide expert advice on how to identify quality vintage pieces, where to find them (online vintage stores, thrift shops, specialized boutiques), and how to authentically style them for contemporary outfits.  Discuss the economic benefit of acquiring unique, high-quality items at a fraction of the cost of new designer wear, and the environmental advantage.  Include visual descriptions and styling tips.  Write the blog post in English.</t>
+          <t>Create an engaging blog post in English targeting US citizens in or nearing retirement who are interested in maintaining an active, location-independent lifestyle. This article should explore the emerging trend of 'digital nomad' retirement, outlining practical strategies for earning income remotely after traditional retirement age. Cover necessary technological skills, reliable online job platforms, setting up a home office for travel, managing finances on the go, and the lifestyle benefits of embracing this freedom. Provide concrete examples of remote work opportunities suitable for retirees and address potential challenges.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Art of Barn Quilt Trail Investment: Boosting Rural Tourism &amp; Property Value</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English explaining the economic and lifestyle benefits of establishing or participating in a barn quilt trail. Focus on how it can attract tourists, increase local business revenue, and enhance the aesthetic appeal and perceived value of rural properties in the Western US. Include actionable advice for local governments, tourism boards, and individual property owners on planning, marketing, and funding such initiatives. Use examples of successful barn quilt trails in states like Kentucky, Ohio, or even Western states like Colorado or Montana, if applicable. Emphasize the low barrier to entry for artists and homeowners.  Target keywords: 'barn quilt trails', 'rural tourism', 'property value', 'agritourism', 'economic development'.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tourism</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Reclaimed Timber Flooring: Sustainable Luxury &amp; Investment for Historic Homes</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Craft an informative blog post in English detailing the advantages of using reclaimed timber for flooring in Western homes, particularly those with historic architectural significance. Discuss the tangible economic benefits, such as increased property appeal and potential for higher resale value, as well as the lifestyle improvements like unique character and environmental consciousness. Include practical tips on sourcing reclaimed wood, installation considerations, and potential cost comparisons with new materials. Highlight the 'story' and authenticity that reclaimed wood brings. Target keywords: 'reclaimed wood flooring', 'historic homes', 'sustainable building materials', 'property investment', 'interior design'.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The Craft Cider Revolution: Scaling Small-Batch Production for Western Orchards</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Develop a detailed blog post in English exploring the economic viability and lifestyle appeal of transitioning from traditional apple orchards to craft cider production in Western agricultural regions. Focus on the niche market demand, potential profit margins, and the entrepreneurial spirit involved. Provide guidance on the basic steps of scaling production, understanding regional licensing, and marketing strategies tailored for a discerning Western consumer base that values local and artisanal products.  Include a brief overview of the economic benefits for orchard owners and the broader rural community. Target keywords: 'craft cider', 'apple orchard business', 'agribusiness', 'niche beverages', 'Western agriculture'.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Modernizing the Western Ranch: Smart Technology for Livestock Management &amp; Profitability</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Write an in-depth blog post in English on the integration of modern smart technology into traditional Western ranching operations. Focus on specific technologies like GPS tracking for livestock, drone-based land surveying, automated feeding systems, and data analytics for herd health and grazing management. Explain how these advancements offer tangible economic benefits by increasing efficiency, reducing labor costs, improving animal welfare, and ultimately boosting profitability. Discuss the lifestyle improvements for ranchers, allowing for better work-life balance and informed decision-making. Target keywords: 'ranch technology', 'smart farming', 'livestock management', 'Western ranching', 'agri-tech'.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The Rise of Bespoke Leather Goods: Craftsmanship &amp; High-Margin Niches in Western Cities</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Compose a compelling blog post in English that delves into the thriving niche market of bespoke leather goods (wallets, bags, belts, custom saddles) in Western metropolitan areas. Emphasize the economic opportunities for skilled artisans, the lifestyle appeal of creating tangible, high-quality products, and the potential for significant profit margins due to the demand for luxury and personalized items. Offer advice on sourcing premium leather, mastering traditional techniques, and building an online presence or local brand within the Western market. Target keywords: 'bespoke leather', 'handmade goods', 'luxury accessories', 'craftsmanship', 'small business Western US'.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Navigate New York State's 'Transfer of Development Rights' (TDRs): A Lucrative Strategy for Urban Property Owners</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English explaining New York State's Transfer of Development Rights (TDRs) program. Focus on how urban property owners can leverage TDRs to generate significant passive income by selling their unused development potential. Include actionable steps for identifying eligible properties, understanding the legal framework, and connecting with buyers in the TDR market. Emphasize the economic benefits and how this strategy contributes to preserving historic districts and open spaces.  Target keywords: 'Transfer of Development Rights NY', 'sell development rights', 'TDR New York', 'urban property income', 'real estate investment strategy'.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>The Surprising ROI of Historic Mill Restoration: Unlocking Energy Efficiency &amp; Tax Incentives in New England</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English about the economic and lifestyle advantages of restoring historic mills in New England for modern use. Focus on the tangible benefits, such as significant energy efficiency gains through advanced insulation and HVAC retrofits, coupled with an exploration of available federal and state tax credits specifically for historic property rehabilitation. Provide case studies or examples of successful mill restorations that have led to profitable businesses or desirable residential spaces. Target keywords: 'historic mill restoration', 'New England real estate investment', 'historic tax credits', 'energy efficient renovation', 'property development opportunities'.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mastering the Art of Heirloom Apple Orchard Preservation: Securing Your Legacy &amp; Premium Market Access</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Develop an informative blog post in English for landowners and agricultural enthusiasts interested in preserving and revitalizing heirloom apple orchards in the Pacific Northwest. Detail the economic benefits of cultivating rare and heritage apple varietals, focusing on direct-to-consumer sales, artisanal cider production, and premium juice markets. Include practical advice on sustainable orchard management, grafting techniques for preserving genetic diversity, and navigating the certification process for organic or heirloom varietal status. Highlight the lifestyle enhancement of maintaining a connection to agricultural heritage. Target keywords: 'heirloom apple orchard', 'Pacific Northwest agriculture', 'heritage fruit trees', 'artisanal cider production', 'agritourism business'.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>From Canvas to Condo: Investing in Emerging American Textile Arts &amp; Their Impact on Interior Design</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Write an insightful blog post in English exploring the economic and lifestyle opportunities within the niche market of contemporary American textile arts. Focus on how collectors and investors can identify emerging artists, understand the value drivers of unique fiber art (tapestries, weaving, sculptural textiles), and how these pieces enhance residential and commercial interior design. Discuss the tangible benefits of owning and displaying these artworks, including potential for appreciation and the creation of unique, personal living spaces. Target keywords: 'textile art investment', 'contemporary fiber art', 'American textile artists', 'interior design trends', 'collectible art market'.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The 'Dark Sky Preserve' Advantage: Maximizing Property Value &amp; Lifestyle in Rural Western America</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Create a compelling blog post in English detailing the economic and lifestyle benefits of owning property within or near designated Dark Sky Preserves in Western America. Explain how the pristine night sky attracts niche tourism, increasing demand for unique accommodations (e.g., glamping, stargazing retreats), and consequently boosting local property values. Provide actionable advice for property owners on how to market their location's dark sky status, integrate astrophotography amenities, and leverage the unique selling proposition for increased revenue and an enhanced lifestyle. Target keywords: 'dark sky preserve', 'rural property value', 'stargazing tourism', 'Western real estate investment', 'astro-tourism business'.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Navigating the Nuances of 'Artisan' Cheese Grading: Unlock Premium Pricing for Small-Batch Producers</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post for small-batch artisan cheese producers in the US and Canada. Focus on how understanding and achieving specific grading standards (e.g., USDA, provincial equivalents) can directly lead to higher wholesale and retail pricing. Include examples of grading criteria, the economic benefits of quality certification, and actionable steps producers can take to improve their cheese's grade. The post must be in English.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>The 'Gourmet Pet Food' Investment Frontier: High-Growth Niches &amp; Supply Chain Opportunities</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Explore the burgeoning gourmet pet food market in Western economies. Identify specific niche segments (e.g., raw, freeze-dried, allergen-free, specific breed diets) with high consumer demand and relatively low existing supply. Detail investment opportunities, supply chain challenges and solutions, and the economic drivers behind this trend. Provide actionable insights for aspiring entrepreneurs or investors. The blog post must be written in English.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Preserving 'Mid-Century Modern' Architectural Details: A DIY Guide to Value Enhancement</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Create a detailed DIY guide for homeowners in the US and Canada looking to preserve and restore original architectural details in their Mid-Century Modern homes. Focus on techniques and materials that enhance property value and maintain historical integrity. Include step-by-step instructions for common tasks like restoring original wood finishes, updating original tile, and repairing vintage fixtures. Emphasize the tangible economic benefits of authentic preservation over modernization. The content must be in English.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The 'Urban Rooftop Beekeeping' Blueprint: Monetizing Hive Products &amp; Sustainable City Living</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Develop a comprehensive blueprint for individuals or businesses in Western cities interested in establishing and monetizing urban rooftop beehives. Cover essential topics such as local zoning laws, hive management for beginners, harvesting and selling value-added products (honey, beeswax, propolis), and the economic and environmental advantages. Provide a clear path to profitability and sustainable urban integration. The blog post must be in English.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mastering 'Vintage Fountain Pen Restoration': A Lucrative Skill for Collectible Pen Enthusiasts</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Write an in-depth guide for hobbyists and aspiring entrepreneurs on the art of vintage fountain pen restoration. Detail the necessary tools, techniques, and common issues encountered when restoring classic pens from brands popular in Western markets. Explain the economic advantages of this niche skill, including the potential for significant profit margins when sourcing, restoring, and reselling collectible pens. Include practical advice on authentication and appraisal. The blog post must be in English.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Craft</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Unlocking Equity: Using Reverse Mortgages for Lifestyle Upgrades in Retirement</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English explaining how seniors in the US can leverage reverse mortgages not just for basic living expenses, but for significant lifestyle improvements such as home renovations, travel, or supporting family. Focus on the economic benefits and tangible advantages, including case studies and practical steps for qualification. Ensure the tone is informative and empowering.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>The 'Craft Beer Tourism' Boom: How Local Breweries Drive Regional Economic Growth</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Craft a blog post in English exploring the economic impact of craft beer tourism in specific Western US regions. Detail how breweries act as anchors for local economies, attracting visitors who then spend on accommodation, dining, and other attractions. Include actionable insights for brewery owners on marketing their tourism appeal and for aspiring entrepreneurs looking to capitalize on this trend. Provide statistics and examples of successful brewery-tourism partnerships.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sustainable Urban Farming: Monetizing Vertical Hydroponic Systems for City Dwellers</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Develop a blog post in English focused on the economic viability and lifestyle benefits of setting up and managing vertical hydroponic farms within urban residential spaces in the US. Cover topics like initial investment, operational costs, potential revenue streams (e.g., direct-to-consumer sales, restaurant partnerships), and the tangible advantage of fresh, locally sourced produce for health and well-being. Include a basic guide to system setup and crop selection.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The Niche Appeal of 'Heritage Seed' Cultivation: Profitability in Preserving Heirloom Crops</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Write an in-depth blog post in English for a Western US audience about the economic opportunities and personal satisfaction derived from cultivating and selling heritage seeds. Discuss how to identify, source, and propagate rare heirloom varieties, the premium pricing they command, and how to build a brand around preservation and quality. Include practical tips for seed saving, packaging, and marketing to niche gardeners and agricultural enthusiasts.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Investing in 'Smart Home' Retrofitting: Enhancing Property Value and Energy Efficiency</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Create a detailed blog post in English for homeowners in the US, focusing on the economic advantages and lifestyle improvements of retrofitting existing homes with smart home technology. Explain how specific installations (e.g., smart thermostats, lighting, security systems) contribute to increased property value, significant energy savings, and enhanced convenience. Provide actionable advice on choosing the right technologies, potential ROI calculations, and available rebates or tax incentives.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Unlock Equity in Historic New England Homes: A Practical Guide to Heritage Tax Credits for Renovation</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing how homeowners in New England can leverage historic tax credits for property renovations. Focus on the economic benefits and the practical steps involved in applying for and utilizing these credits. Include examples of eligible renovation projects and how they can increase property value while preserving historical integrity. Target keywords: New England historic homes, tax credits, renovation, property value, heritage preservation.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>The Economic Advantage of Mastering Traditional Wood Boat Restoration: A Niche Skill for Coastal Livelihoods</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English exploring the economic opportunities and lifestyle benefits of becoming a skilled traditional wood boat restorer. Highlight the increasing demand for this niche service along the North American coastlines, the potential for high-margin income, and the satisfaction of preserving maritime heritage. Include advice on acquiring the necessary skills, sourcing materials, and marketing services to affluent boat owners. Target keywords: wood boat restoration, maritime heritage, niche skills, coastal economy, boat maintenance.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Craftsmanship</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Navigating the 'Certified Angus Beef' Premium Market: A Farmer's Blueprint for Enhanced Profitability</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Develop an in-depth blog post in English for cattle ranchers in the Western US on how to achieve and market 'Certified Angus Beef'. Explain the economic advantages of meeting these quality standards, including premium pricing, increased demand, and market access. Provide actionable advice on herd management, genetics, feeding practices, and marketing strategies to maximize profitability through this prestigious certification. Target keywords: Certified Angus Beef, cattle ranching, profitability, premium market, Western agriculture.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>From Vineyard to Vintage Bottle: Unlocking the ROI of Small-Batch 'Amateur Winemaking' Investment in the Pacific Northwest</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Compose a blog post in English for individuals in the Pacific Northwest interested in the burgeoning field of small-batch amateur winemaking as a potential investment and lifestyle enhancement. Focus on the economic viability of producing high-quality, niche wines for local markets or personal enjoyment, the steps involved in setting up a home winery, and the potential for future growth. Discuss licensing considerations, grape sourcing, and marketing unique vintages. Target keywords: amateur winemaking, Pacific Northwest, investment ROI, small-batch wine, boutique winery.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Beverage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>The 'Artisan Bread Baking' Boom: Strategies for High-Margin Revenue in Urban American Bakeries</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Write a business-focused blog post in English for aspiring and existing bakery owners in urban American settings. Explore the economic benefits and strategies for success in the artisan bread baking niche. Detail how to differentiate products, optimize ingredient sourcing, implement efficient production processes, and create a strong brand identity to command premium pricing and attract a loyal customer base. Include tips on understanding consumer demand for sourdough, whole grains, and specialty loaves. Target keywords: artisan bread, bakery business, high-margin revenue, urban market, baking strategies.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Beyond the Bluebook: Unlocking Niche Value in Classic Motorcycle Collections</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Write a blog post in English that delves into the often-overlooked economic advantages of investing in and maintaining specific, less mainstream classic motorcycle models. Focus on how collectors can identify undervalued gems, understand restoration costs versus market appreciation, and leverage online communities for knowledge and sales. Include actionable tips on provenance verification and potential tax implications for collectors. Emphasize the tangible financial benefits and lifestyle enjoyment derived from this niche.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>The 'American Quilt Revival': Monetizing Heritage Patterns for Modern Home Decor</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Craft a blog post in English exploring the resurgent demand for authentic American-made quilts. Detail how individuals or small businesses can capitalize on this trend by researching and recreating traditional patterns, focusing on high-quality materials and craftsmanship. Provide insights into sourcing unique fabrics, pricing strategies for artisan creations, and effective marketing channels (e.g., Etsy, local craft fairs, interior design partnerships). Highlight the economic potential and the fulfillment of preserving a cultural art form.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Crafts</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Small-Town Succession Planning: Ensuring Business Longevity and Community Stability in the Midwest</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Develop a blog post in English focused on the critical need for succession planning for small, family-owned businesses in rural American communities, particularly the Midwest. Discuss the economic ripple effects of business continuity on local economies, strategies for identifying and training successors, and navigating the legal and financial aspects of ownership transfer. Offer practical advice for business owners approaching retirement and highlight the lifestyle benefits of securing a local economic foundation.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>From Seed to Sale: The Untapped Profitability of 'Specialty Mushroom Cultivation' in Pacific Northwest Gardens</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Write a blog post in English aimed at homeowners and small-scale farmers in the Pacific Northwest interested in cultivating specialty mushrooms. Explain the economic viability of growing high-demand varieties like shiitake, oyster, or lion's mane, detailing the relatively low startup costs, efficient space utilization (including indoor setups), and premium market pricing. Include guidance on sourcing cultures, optimal growing conditions, and direct-to-consumer sales strategies. Emphasize the lifestyle improvement of a sustainable, profitable hobby and the economic advantages.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>The 'Whiskey Trail' Advantage: Leveraging Regional Spirits for Tourism &amp; Investment in Kentucky</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Compose a blog post in English exploring the economic impact and investment opportunities associated with Kentucky's burgeoning whiskey tourism industry. Focus on how small towns and entrepreneurs can capitalize on the 'whiskey trail' by developing niche hospitality services, artisanal food pairings, or complementary businesses. Discuss the economic benefits of increased tourism, the potential for property value appreciation in distillery-adjacent areas, and the lifestyle appeal of being part of a rich cultural heritage.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tourism</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Boost Your Net Worth: Tax-Efficient Strategies for Selling Your First Startup in the US</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post for aspiring entrepreneurs and early-stage startup founders in the United States. Focus on actionable, legally sound strategies to minimize capital gains tax liabilities when exiting their first business. Include specific examples of tax deductions and deferral techniques. The post must be written in English and provide clear, step-by-step guidance. Incorporate a table comparing different exit strategies and their tax implications.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The 'Heirloom Recipe' Revival: Monetizing Ancestral Culinary Traditions for a Modern Palate</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Craft a blog post targeting individuals in the US who are passionate about preserving and sharing family recipes. Explore profitable avenues for monetizing these traditions, such as creating niche cookbooks, online cooking classes focused on historical dishes, or developing specialty food products based on ancestral techniques. Emphasize the economic benefits and lifestyle appeal of this unique culinary niche. The content must be in English and offer practical tips for recipe adaptation and market entry.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Beyond the Barn: Profitable Niches in Antique Tractor Restoration for the American Collector</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Develop a blog post for enthusiasts and mechanics in the US interested in the restoration and potential resale of antique tractors. Detail specific, less-common tractor models that hold significant value and outline the economic advantages of mastering their restoration. Include advice on sourcing parts, essential tools, and showcasing restored pieces to potential buyers. This post must be in English and provide actionable insights into this specialized market.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hobby</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Future-Proof Your Career: The Economic Imperative of Mastering AI Prompt Engineering in the US Workforce</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Write a blog post for US professionals across various industries explaining the emerging and high-demand skill of AI prompt engineering. Detail why this skill is crucial for career advancement and economic competitiveness. Provide clear examples of how effective prompt engineering can improve productivity and generate tangible business benefits. Include a beginner's guide to crafting effective prompts for common AI tools. The post must be in English and emphasize practical applications.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Career</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>The 'Micro-Distillery' Advantage: Scaling Small-Batch Spirits for Premium Market Dominance in the US</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Create a blog post for aspiring and existing craft distillers in the United States. Focus on the economic strategies for scaling a micro-distillery operation while maintaining premium quality and market exclusivity. Discuss branding, distribution challenges, and niche market identification (e.g., heritage grains, unique botanicals). Include insights into regulatory navigation and the ROI of focusing on high-margin, artisanal spirits. The content must be in English.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hobbyist Watchmaking Investment: Unlocking Residual Income from Vintage Timepiece Restoration</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English targeting individuals interested in horology and seeking to monetize their passion for vintage watch restoration. Focus on the economic benefits of acquiring, restoring, and potentially reselling or leasing niche vintage timepieces. Include a step-by-step guide on identifying valuable models, sourcing parts, essential tools, and strategies for marketing restored watches. Emphasize how this niche hobby can yield tangible financial returns and lifestyle enrichment for enthusiasts in Western markets.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hobby</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>The Art of 'Bonsai Monetization': Cultivating Rare Specimen Trees for High-Net-Worth Collectors in North America</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Craft an in-depth blog post in English for aspiring or established bonsai enthusiasts in North America who are looking to turn their horticultural expertise into a profitable venture. Detail the economic advantages of cultivating and selling high-value, mature bonsai specimens to a discerning clientele. Provide actionable advice on species selection for market demand, advanced horticultural techniques for rapid growth and refinement, ethical sourcing, creating a curated online or physical gallery, and pricing strategies that reflect the investment and artistic merit. Highlight the lifestyle upgrade of becoming a recognized expert in this exclusive market.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Horticulture</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Strategic 'Fountain Pen Collecting': Identifying Investment-Grade Nib Designs for Future Appreciation</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Develop a detailed blog post in English aimed at discerning collectors and investors in the Western world who are interested in the lucrative niche of vintage and rare fountain pens. Focus on the economic benefits of strategic collecting, emphasizing how to identify specific nib designs, limited editions, and historical models that have strong potential for capital appreciation. Include guidance on authentication, condition assessment, reputable dealers, and market trends. Explain how a well-curated collection can represent a tangible asset and a refined lifestyle enhancement.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Optimizing 'Home Brewing Equipment' Depreciation: Tax Advantages for Craft Beer Entrepreneurs in the US</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Generate a technical blog post in English for craft beer enthusiasts and small business owners in the US who are involved in or considering homebrewing as a commercial enterprise. Focus on the economic benefits derived from understanding and leveraging depreciation schedules for high-value homebrewing equipment (e.g., advanced fermenters, commercial-grade kegging systems, specialized cooling units). Provide clear explanations of relevant tax laws (e.g., Section 179, Bonus Depreciation), offer examples of equipment that qualifies, and suggest strategies for maximizing tax deductions. This should translate into direct financial savings and a more sustainable business model.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The 'Analog Photography Revival' Playbook: Monetizing Niche Film Stocks and Darkroom Services for Modern Creatives</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Write an informative blog post in English targeting photographers and creatives in Western countries experiencing a resurgence in analog photography. Focus on the economic opportunities within this niche, specifically around the scarcity and unique aesthetic qualities of certain vintage film stocks and the demand for specialized darkroom printing services. Provide practical advice on sourcing rare film, pricing archival prints, offering custom darkroom services, and building a brand around analog expertise. Emphasize how this can lead to both increased income and a lifestyle centered around a tangible, artful craft.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The 'Antique Typewriter' Renaissance: Cultivating Niche Resale Value and Profitable Restoration for Collectors</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing the burgeoning market for antique typewriters in Western culture. Focus on identifying high-demand, low-supply models and the economic benefits of their restoration and resale. Include actionable tips for sourcing, identifying rare features, and common restoration techniques (e.g., cleaning mechanisms, replacing ribbons). Discuss the lifestyle appeal for writers, collectors, and those seeking unique office decor. Emphasize identifying models with strong potential for appreciation. Use keywords like 'antique typewriter investment,' 'vintage typewriter restoration,' 'collectible typewriters,' and 'niche typewriter market.'</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Beyond the Bevel: Mastering 'Custom Cabinetry Joint' Techniques for Luxury Home Builders and Higher Margins</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Generate an English blog post for skilled woodworkers and custom cabinet makers in the US. This post should focus on the economic advantages of mastering advanced, niche cabinetry joinery techniques (e.g., dovetail, mortise and tenon, finger joints). Explain how these superior joints offer tangible benefits in terms of durability, aesthetic appeal, and perceived value, leading to higher profit margins for custom projects. Include detailed explanations and possibly diagrams or links to visual resources illustrating the construction and strength of these joints. Target keywords like 'custom cabinetry joints,' 'luxury woodworking,' 'cabinet maker profit margins,' and 'fine woodworking techniques.'</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Craftsmanship</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>The 'Urban Rooftop Beekeeping' Ecosystem: Sweet Profits and Sustainable Living in American Cities</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Craft a blog post in English for urban dwellers interested in sustainable living and niche income streams. Explore the economic benefits and lifestyle improvements associated with establishing and managing rooftop beehives in Western cities. Detail the steps for getting started, including necessary permits, equipment, and bee colony management. Highlight the profitability of selling niche honey varietals (e.g., local floral sources), beeswax products, and the environmental advantages. Emphasize the growing demand for locally sourced, artisanal food products. Use keywords like 'urban beekeeping,' 'rooftop honey,' 'sustainable city living,' and 'niche food production.'</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Reclaiming Heritage Grains: The High-ROI 'Ancient Wheat Varieties' Cultivation for Artisan Bakers and Millers</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Develop an English blog post aimed at farmers and food entrepreneurs interested in high-return agricultural niches. This article should focus on the economic benefits of cultivating rare and heritage grain varieties (e.g., Einkorn, Emmer, Spelt) for the artisanal baking and milling industries. Explain how these grains offer unique flavor profiles and nutritional benefits, commanding premium prices. Provide actionable advice on seed sourcing, soil requirements, cultivation best practices, and market access for these specialty crops. Highlight the growing consumer demand for traditional and 'healthy' food options. Target keywords like 'heritage grains,' 'ancient wheat cultivation,' 'artisan bakeries,' and 'high ROI farming.'</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>The 'Vintage Vinyl Record' Grading &amp; Authentication Edge: Maximizing Value for Collectors and Sellers in the Digital Age</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Write a detailed English blog post for vinyl record collectors and resellers. This topic delves into the niche but highly valuable skill of accurately grading and authenticating vintage vinyl records. Explain the economic importance of understanding grading systems (e.g., Goldmine), identifying pressings, and spotting counterfeits to maximize resale value and avoid losses. Provide clear, actionable criteria for grading LPs, EPs, and 45s, including visual inspection, sound quality assessment, and historical context. Discuss the lifestyle appeal of engaging with this passionate collector community. Incorporate keywords like 'vinyl record grading,' 'record authentication,' 'vintage vinyl value,' and 'collectible records.'</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Hobby</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>The 'Artisan Cheese Cave' Advantage: Building a Profitable Niche in American Specialty Dairy</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for aspiring entrepreneurs and existing dairy farmers interested in the artisan cheese market. Focus on the economic benefits of establishing and operating a 'cheese cave' for aging and maturing specialty cheeses. Include actionable advice on cave construction (climate control, hygiene), sourcing unique milk varieties, developing signature cheese profiles, marketing strategies for high-net-worth individuals and restaurants, and understanding regulatory requirements in the US. Emphasize how this niche can lead to premium pricing and substantial profit margins. Use SEO keywords like 'artisan cheese business', 'cheese aging', 'specialty dairy', 'niche food production', and 'profitable farming'.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Unlocking Equity: The 'ADU Investment Blueprint' for American Homeowners Seeking Passive Income</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Craft an in-depth guide in English for American homeowners interested in the financial advantages of building Accessory Dwelling Units (ADUs). Detail the economic benefits, including increased property value, rental income potential, and tax advantages. Provide a step-by-step blueprint covering zoning laws in key states (e.g., California, Oregon), design considerations for maximizing rental appeal, construction cost-saving tips, financing options, and effective property management strategies. Include illustrative examples of ROI scenarios. Target keywords such as 'ADU investment', 'passive income', 'rental property', 'home equity', and 'accessory dwelling unit'.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>The 'Heritage Orchard' Revival: Cultivating High-Value Heirloom Fruit for Premium Markets</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Develop a detailed blog post in English aimed at landowners and agricultural entrepreneurs in the Western US looking for profitable, sustainable farming ventures. Focus on the economic advantages of cultivating rare and heirloom fruit varieties (e.g., specific apple, pear, or plum cultivars). Explain how to identify, source, and propagate these trees, the benefits of organic and low-input farming practices, and strategies for accessing premium markets like specialty grocers, farm-to-table restaurants, and direct-to-consumer sales. Include insights into pest management specific to heritage varieties and potential for value-added products. Use keywords like 'heirloom fruit', 'specialty agriculture', 'profitable farming', 'orchard business', and 'sustainable agriculture'.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Beyond the Algorithm: Mastering 'AI-Powered Personal Branding' for Career Advancement in the US</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Write an informative blog post in English for American professionals seeking to enhance their career prospects through strategic personal branding, leveraging AI tools. Explain how AI can analyze online presence, identify skill gaps, and suggest content strategies. Provide actionable tips on using AI for resume optimization, LinkedIn profile enhancement, content creation (blog posts, social media updates), and networking. Focus on the tangible career benefits, such as increased visibility, interview opportunities, and salary negotiation power. Include examples of AI tools and prompt engineering for personal branding. Target keywords like 'AI personal branding', 'career advancement', 'professional development', 'online reputation', and 'AI for job search'.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>The 'Ethical Minimalism' Lifestyle: Decluttering for Financial Freedom and Mental Well-being</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Create a lifestyle-focused blog post in English exploring the principles and practical application of 'ethical minimalism' within a Western context. Emphasize the tangible benefits of decluttering and intentional living, focusing on how it leads to financial freedom (reduced spending, debt reduction, increased savings) and improved mental well-being (reduced stress, increased focus). Provide actionable steps for decluttering possessions, mindfully consuming, and adopting sustainable habits. Include advice on donating or selling unwanted items to generate extra income. Use keywords such as 'ethical minimalism', 'decluttering', 'financial freedom', 'mindful living', 'sustainable lifestyle', and 'reduce debt'.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mastering Tax-Loss Harvesting for High-Net-Worth Investors: Advanced Strategies for 2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing advanced tax-loss harvesting strategies specifically for high-net-worth individuals in the United States. Include practical, actionable advice on identifying opportunities, implementing the strategy effectively, and avoiding common pitfalls. Explain the economic benefit of reducing taxable capital gains. Incorporate at least one illustrative example of a complex scenario. Ensure the tone is authoritative and informative, targeting investors seeking to optimize their tax burden.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>The 'Heritage Craft Brewery' Succession Plan: Securing Your Legacy and Maximizing Valuation</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English aimed at owners of established, niche craft breweries in the US who are considering succession planning. Focus on the economic benefits of a well-structured plan, including how it can enhance business valuation, attract potential buyers or successors, and ensure the long-term viability of the brewery. Discuss legal, financial, and operational considerations. Provide actionable steps and considerations for family businesses versus external sales.  Use clear, professional language.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Optimizing 'Off-Grid Solar Power' Depreciation for Rural American Property Owners</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Generate an in-depth blog post in English for rural American homeowners and landowners who have invested in or are considering off-grid solar power systems. Focus on the specific tax advantages related to depreciating off-grid solar assets. Explain the economic benefit of leveraging these deductions to offset income. Provide clear instructions on how to track and claim depreciation, including relevant IRS guidelines and examples of calculation.  Emphasize the tangible financial advantage for property owners.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The 'Niche Audiobook Production' Blueprint: Monetizing Your Voice and Literary Works</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Develop a practical blog post in English for aspiring or established voice actors and authors in the US interested in the niche market of audiobook production. Detail the economic opportunities in producing audiobooks for independent authors and specialized content creators. Outline the technical requirements, marketing strategies, and pricing models that lead to tangible income. Include a step-by-step guide on setting up a home studio and essential post-production processes.  Highlight the lifestyle benefits of flexible work.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cultivating 'Artisan Sourdough Starter' Genetics: A Profitable Niche for American Bakers</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Write a highly specific blog post in English targeting serious home bakers and small-scale artisan bakeries in the US who are interested in cultivating and monetizing unique sourdough starter strains. Focus on the lifestyle improvement of developing a signature product and the economic advantage of selling premium, genetically distinct starters. Explain the science behind starter longevity and health, provide guidance on selecting and propagating heirloom cultures, and discuss branding and sales strategies for this niche market. Include practical tips for maintaining starter viability during shipping.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Maximizing Tax Credits for Historic Home Renovations: A US Homeowner's Guide to Preservation Incentives</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing the federal and state-level tax credits available for homeowners in the United States undertaking renovations on historic properties.  Focus on explaining the eligibility criteria, the types of qualified rehabilitation expenses, and the process of claiming these credits. Include a step-by-step guide on how to document expenses for tax purposes. Provide examples of common renovation projects that qualify and highlight the potential economic benefits of utilizing these incentives. Ensure the language is accessible to a non-expert homeowner but includes enough detail for them to understand the financial implications. Target keywords: historic home renovation tax credits, preservation tax incentives US, qualified rehabilitation expenses, federal historic tax credit, state historic preservation tax credits, renovating old houses tax benefits, American historic homes.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>The Unseen Value: Leveraging 'Fractional Ownership' for Luxury Vacation Properties in the US</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Craft a blog post in English exploring the economic and lifestyle advantages of fractional ownership for luxury vacation properties within the United States. Explain how this model allows individuals to own a share of a high-end property, significantly reducing upfront costs and ongoing maintenance burdens. Detail the typical financial structures, management responsibilities, and potential for rental income or capital appreciation. Emphasize the lifestyle benefits of accessing exclusive locations and amenities without the full financial commitment. Target keywords: fractional ownership luxury real estate US, vacation property investment, shared luxury homes America, exclusive vacation homes, how fractional ownership works, investment property America, lifestyle investment.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Beyond the Boardroom: 'Executive Coaching for Tech Founders' – Boosting Startup Growth and Personal Resilience</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Develop a blog post in English focused on the specific benefits of executive coaching for technology startup founders in the Western US. Explain how personalized coaching can address unique challenges faced by founders, such as scaling operations, managing investor relations, navigating rapid market changes, and preventing burnout. Provide actionable advice on how founders can identify a suitable coach and what to expect from the coaching engagement. Highlight the tangible economic outcomes, such as improved decision-making, increased fundraising success, and enhanced team leadership. Target keywords: executive coaching tech founders, startup founder coaching US, technology entrepreneurship coaching, leadership development for startups, founder resilience, startup success strategies, Silicon Valley coaching.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The 'Artisan Coffee Roasting' Blueprint: Crafting Premium Beans for a Thriving US Market</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Write a blog post in English for aspiring entrepreneurs interested in the artisan coffee roasting business in the United States. Outline the key steps involved in setting up a small-scale, high-quality coffee roasting operation, from sourcing green beans to roasting profiles and packaging. Discuss the economic viability of this niche market, emphasizing the demand for specialty coffee and the potential for premium pricing. Include practical tips on equipment selection, understanding roast levels, and building brand identity to appeal to discerning American consumers. Target keywords: artisan coffee roasting business US, specialty coffee roasting, how to start a coffee roastery, premium coffee beans America, coffee business plan, small batch coffee roasting, coffee entrepreneurship.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Entrepreneurship</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Reclaiming Your Time: 'Digital Decluttering Strategies' for Enhanced Productivity and Mental Well-being in Western Lifestyles</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Create a blog post in English offering practical and actionable strategies for 'digital decluttering' tailored to individuals in Western cultures. Focus on how excessive digital noise impacts productivity, focus, and mental well-being. Provide specific techniques for organizing digital files, managing email inboxes, curating social media feeds, and optimizing device settings to reduce distractions. Emphasize the tangible benefits of reclaiming time, reducing stress, and improving overall efficiency in both personal and professional life. Target keywords: digital decluttering, reduce digital distractions, improve productivity online, mental well-being digital age, time management digital life, online organization tips, western lifestyle productivity.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Unlock Hidden Equity: Strategies for Monetizing 'Accessory Dwelling Unit (ADU) Conversions' in High-Cost US Metro Areas</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for US homeowners in high-cost metropolitan areas. Focus on actionable strategies for converting existing structures (garages, basements, attics) into Accessory Dwelling Units (ADUs) to generate passive income or increase property value. Include detailed information on zoning regulations (mentioning a few example states/cities), permit processes, estimated conversion costs, potential rental income projections, and financing options. Emphasize the economic benefits and tangible advantages of ADU conversions. Ensure the content is SEO-optimized for keywords like 'ADU conversion cost', 'rental income from ADU', 'garage conversion basement ADU', and 'increase home value ADU'.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The 'Luxury Watch Authentication' Advantage: Safeguarding Investments and Maximizing Resale Value for Enthusiasts in the US</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Craft an in-depth blog post in English targeting US-based luxury watch collectors and investors. Delve into the critical importance of authenticating pre-owned luxury timepieces. Explain common authentication methods, signs of counterfeit watches (provide visual descriptions or specific features to look for), and the economic benefit of professional authentication services. Detail how authenticated watches command higher resale prices and attract serious buyers. Include a section on reputable authentication services and the value they add to the investment. Optimize for keywords such as 'luxury watch authentication', 'fake Rolex signs', 'authenticated pre-owned watches', and 'resell value luxury watches'.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Mastering 'Craft Distillery Tax Incentives': Navigating Federal and State Credits for US Spirit Producers</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Develop an informative blog post in English for American craft distillers, covering specific federal and state tax incentives available to them. Explain in detail the excise tax reductions (e.g., Craft Beverage Modernization and Tax Reform Act), state-level production credits, and potential deductions for equipment or raw material purchases. Provide clear, actionable advice on how to research and apply for these incentives, emphasizing the direct economic benefit in reducing operational costs and increasing profitability. Include hypothetical examples of how a small distillery could save money. Optimize for keywords like 'craft distillery tax credits', 'US spirit producer incentives', 'federal excise tax reduction', and 'state craft beverage tax benefits'.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>The 'Strategic Inheritance Planning' for Digital Assets: Protecting Your Online Legacy and Wealth in the US</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Write a detailed blog post in English for US residents on the crucial topic of planning for the inheritance of digital assets. Cover a wide range of digital assets including cryptocurrency (mentioning specific blockchain considerations), online accounts (social media, email, cloud storage), digital art (NFTs), and domain names. Explain the unique challenges of digital asset inheritance compared to physical assets, including access, valuation, and legal transfer. Provide actionable steps for creating a digital estate plan, including using password managers, digital vaults, and clear instructions for beneficiaries and executors. Highlight the importance of avoiding financial and emotional distress for heirs. Optimize for keywords like 'digital asset inheritance', 'crypto inheritance planning', 'planning for digital legacy', and 'US digital estate plan'.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Elevating Your Home's Atmosphere: The 'Smart Home Lighting Automation' for Enhanced Mood and Energy Savings in American Households</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Create an engaging blog post in English aimed at American homeowners interested in smart home technology. Focus specifically on the lifestyle improvements and tangible economic benefits of smart home lighting automation. Discuss how different lighting scenes can be programmed to enhance mood and productivity (e.g., wake-up routines, focus lighting, relaxation modes). Quantify the energy savings achievable through smart bulbs, dimmers, and scheduling. Explain the ease of integration with existing smart home ecosystems (e.g., Alexa, Google Home) and provide examples of popular smart lighting products and their features. Optimize for keywords like 'smart home lighting automation', 'energy saving lighting tips', 'mood lighting smart home', and 'smart bulbs benefits US'.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>The 'Antique Watch Restoration' Goldmine: Profitable Skills for a Growing Luxury Niche</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English targeting individuals in Western countries interested in acquiring a niche, high-demand skill with significant economic potential. Focus on the antique watch restoration market. Explain the demand drivers (growing interest in vintage timepieces, desire for sustainable luxury), the skills required (precision mechanics, sourcing parts, understanding historical context), potential income streams (repair services, resale of restored pieces, consulting), and steps to get started (education, tools, building a portfolio). Include a section on 'Essential Watch Restoration Tools for Beginners' with a bulleted list and brief descriptions. Emphasize the tangible advantage of developing a sought-after, artisanal skill that can be both a passion and a profitable business.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Maximizing 'Biodynamic Vineyard ROI': Sustainable Practices for Premium Wine Production in the US West Coast</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English for vineyard owners and wine producers in the Western United States. This post should explore the economic benefits of implementing biodynamic farming practices. Cover topics such as improved soil health leading to better grape quality and yield, enhanced brand reputation and marketability for premium wines, potential for premium pricing, and eligibility for certain organic certifications. Include specific examples of successful biodynamic vineyards in California or Oregon. Provide actionable tips on transitioning to biodynamic methods, emphasizing long-term return on investment through sustainable and high-quality production. Discuss the growing consumer demand for ethically produced and environmentally conscious wines.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The 'Craft Spirits Aging' Secret: Leveraging Barrel Selection for Enhanced Flavor and Market Value</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Generate an informative blog post in English aimed at craft distillers and spirits enthusiasts in the United States. This article should delve into the nuanced art and science of barrel aging for spirits like whiskey, bourbon, and rum. Explain how different barrel types (e.g., ex-bourbon, sherry, new oak), toast levels, and charring affect flavor profiles, maturation speed, and ultimately, the market value of the final product. Provide case studies or examples of distilleries that have achieved significant market success through innovative barrel aging programs. Offer practical advice on sourcing barrels, managing aging inventory, and understanding the economic implications of extended aging periods. Highlight the competitive advantage gained through superior product quality and unique flavor profiles.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Optimizing 'Smart Home Energy Audits' for Western Homeowners: Reducing Bills and Increasing Property Value</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Write a practical and SEO-optimized blog post in English for homeowners in Western North America. The focus should be on the tangible economic benefits of conducting professional smart home energy audits. Detail how these audits identify inefficiencies in insulation, HVAC, lighting, and appliance usage. Explain how smart home technology integration (e.g., smart thermostats, energy monitoring devices) can automate energy savings. Provide actionable steps for homeowners to prepare for an audit, understand the audit report, and implement recommended upgrades. Quantify potential savings on utility bills and discuss how energy-efficient homes command higher resale values. Include a checklist of 'Key Areas to Inspect During a Smart Home Energy Audit'.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>The 'Heirloom Seed Saving' Advantage: Cultivating Resilience and Profit in American Home Gardens</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Develop a blog post in English that appeals to home gardeners in the United States interested in self-sufficiency and niche crop cultivation. This article should focus on the lifestyle and economic benefits of saving heirloom seeds. Explain how preserving heirloom varieties contributes to biodiversity, provides unique culinary options, and offers a buffer against commercial seed supply disruptions. Detail the practical process of seed saving for common vegetables and herbs. Discuss potential avenues for economic gain, such as selling surplus seeds at local farmers' markets, online platforms, or through small-scale specialty businesses. Emphasize the tangible advantage of developing a sustainable food source and a unique horticultural skill. Include a 'Step-by-Step Guide to Saving Tomato Seeds' as a concrete example.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>The 'Vintage Motorcycle Restoration' Goldmine: Profitably Resurrecting Iconic Rides in the US</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Write a blog post in English detailing the economic and lifestyle benefits of restoring vintage motorcycles in the United States. Focus on actionable advice for enthusiasts looking to turn their passion into profit. Include tips on sourcing parts, understanding market value, and identifying profitable restoration projects. Emphasize the growing demand for these classic machines and the potential for significant ROI.  Target keywords: 'vintage motorcycle restoration', 'classic motorcycle investment', 'buy sell restore motorcycles', 'motorcycle restoration business US'.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Unlock 'Artisan Cheese Aging' Profits: Mastering Fermentation for Premium US Dairy Markets</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Craft a blog post in English for aspiring and established cheesemakers in the Western US. Explain the economic advantages of specializing in artisan cheese aging techniques. Cover the science behind successful aging, essential equipment, and strategies for marketing aged cheeses to high-end restaurants and specialty retailers. Highlight how mastering this niche can command premium prices and build a sustainable business. Target keywords: 'artisan cheese aging', 'cheese fermentation', 'sell aged cheese', 'specialty dairy US'.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>The 'Bespoke Leather Goods' Blueprint: Crafting &amp; Selling Luxury Wallets and Bags in America</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Develop a blog post in English aimed at American artisans and entrepreneurs interested in the bespoke leather goods market. Detail the lifestyle benefits of working with your hands and the significant economic potential in creating high-quality, custom leather products like wallets, bags, and accessories. Provide guidance on material sourcing, design principles, tooling techniques, and effective online sales strategies for reaching discerning customers in the US. Target keywords: 'bespoke leather goods', 'custom leather wallets', 'luxury leather bags', 'leather artisan US'.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Crafts</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Strategic 'Independent Bookstore Digitalization': Preserving Literary Heritage &amp; Expanding Reach in the US</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Write a blog post in English exploring the tangible benefits for independent bookstores in the US to embrace digitalization. Focus on how digitizing inventory, creating online catalogs, and implementing e-commerce solutions can increase revenue, reach new customer segments, and preserve literary heritage. Offer practical steps and technology recommendations for this transition, emphasizing cost-effectiveness and long-term sustainability. Target keywords: 'independent bookstore digitalization', 'online book sales US', 'literary heritage preservation', 'small bookstore marketing'.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Publishing</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>The 'Urban Beekeeping ROI': Maximizing Honey Yield &amp; Urban Apiary Profits in American Cities</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Create a blog post in English for urban dwellers in the US interested in the economic and environmental advantages of beekeeping. Detail how to establish and manage a profitable urban apiary, focusing on maximizing honey production, selling value-added products (like beeswax candles), and understanding the unique challenges and opportunities of city beekeeping. Emphasize the growing demand for local, sustainable honey and the potential for a lucrative side hustle or full-time business. Target keywords: 'urban beekeeping ROI', 'city beekeeping profit', 'local honey sales US', 'backyard apiary business'.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mastering Heritage Poultry Breeds: Profitable Backyard Flocks for American Homesteaders</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for American homesteaders interested in raising heritage poultry breeds. Focus on the economic benefits, such as higher egg quality, premium meat prices, and breeding stock sales. Include actionable advice on breed selection for specific climates, sourcing quality breeding stock, and understanding market demand for heritage products.  Incorporate a section on the 'heritage breed advantage' in terms of resilience and unique flavor profiles.  Target keywords: heritage poultry, backyard chickens, homesteading income, niche farming, American agriculture.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>The 'Vintage Vinyl Revival' Business: Launching a Profitable Record Store in a Digital Age</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Craft an in-depth guide in English for aspiring entrepreneurs looking to open a vintage vinyl record store in the US.  Detail the economic viability of this niche market, including strategies for sourcing rare and in-demand records, pricing models, and creating a unique in-store customer experience.  Discuss the lifestyle appeal of curating music collections and the tangible benefits of building a community around analog audio.  Include tips on inventory management and online sales integration.  Target keywords: vinyl record store, vintage vinyl, music business, niche retail, independent business.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Unlocking Equity: Strategies for 'Tiny Home Flipping' in High-Cost US Metro Areas</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Develop a detailed article in English focused on the financial opportunities of 'tiny home flipping' in expensive US urban and suburban markets. Explain how acquiring, renovating, and reselling small, efficient homes can offer significant profit margins. Cover legal considerations for zoning and permits, cost-effective renovation techniques, and marketing strategies to attract buyers seeking affordable and sustainable housing solutions. Emphasize the tangible economic advantage and lifestyle shift for both investors and end-buyers. Target keywords: tiny home flipping, real estate investment, affordable housing, urban development, property flipping.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>The 'Artisan Soap Making' Blueprint: Crafting Premium Natural Soaps for the Wellness Market</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Generate a detailed tutorial in English for individuals interested in starting an artisan soap-making business in the US.  Focus on the economic advantages of creating high-quality, natural soaps that cater to the growing wellness and self-care market.  Provide step-by-step instructions on cold-process and hot-process soap making, ingredient sourcing (e.g., organic oils, essential oils), and effective branding and marketing strategies for online and local sales.  Highlight the lifestyle benefits of a creative, home-based business. Target keywords: artisan soap, natural soap making, wellness products, small business, craft industry.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Crafts</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Maximizing Retirement Income: Advanced Annuity Strategies for US Seniors</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Compose an informative blog post in English designed for American seniors seeking to optimize their retirement income through advanced annuity strategies.  Explain complex but beneficial annuity types like deferred annuities, variable annuities with riders, and income annuities.  Focus on the tangible financial benefits of guaranteed income streams, protection against market volatility, and tax advantages.  Provide clear explanations and actionable advice for understanding and selecting appropriate annuity products to enhance financial security in later life. Target keywords: retirement income, annuities for seniors, financial planning, US retirement, senior finance.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Optimizing Propane Autogas Conversions for Fleets: Fuel Cost Savings for US Businesses</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing the economic benefits of converting commercial vehicle fleets to propane autogas. Focus on the US market, highlighting tangible cost savings through lower fuel prices, reduced maintenance, and potential tax incentives. Include a step-by-step guide on the conversion process, factors to consider for fleet managers, and case studies of businesses that have successfully adopted propane autogas. Emphasize actionable tips for ROI calculation and regulatory compliance.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>The 'Micro-Distillery Bottling &amp; Labeling Automation' Advantage for Craft Spirits</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English for owners of small craft distilleries in the US. Explain how investing in automated bottling and labeling equipment can significantly improve efficiency, reduce labor costs, and enhance product consistency and appeal. Discuss different types of automation, ROI considerations, and how to select the right solutions for a micro-distillery. Provide examples of automated systems and their impact on profitability and scalability.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mastering 'Heirloom Apple Orchard Revitalization' for Premium Cider and Markets</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Compose an in-depth blog post in English targeted at existing or aspiring apple orchard owners in the US. Focus on the economic advantages of revitalizing heirloom apple varieties specifically for the growing craft cider market and premium fresh sales. Cover topics such as identifying suitable heirloom varietals, modern pruning and care techniques for older trees, soil health optimization, and strategies for direct-to-consumer sales or partnerships with cideries. Include guidance on market trends and profitability metrics.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Leveraging 'Bespoke Timber Framing' for Sustainable Luxury Home Builds in the US</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Write an informative blog post in English for architects, builders, and high-net-worth homeowners in the US interested in sustainable and luxurious construction. Explain the economic and lifestyle benefits of using bespoke timber framing for residential properties. Cover aspects like material sourcing, traditional joinery techniques, energy efficiency, aesthetic appeal, and increased property value. Provide examples of successful projects and discuss the niche market for skilled timber framers.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>The 'Niche Book Subscription Box' Blueprint: Curating Literary Experiences for American Readers</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Develop a practical blog post in English guiding aspiring entrepreneurs in the US on how to launch and manage a successful niche book subscription box service. Focus on identifying underserved literary genres, sourcing unique titles and complementary merchandise, effective marketing strategies for reader engagement, and optimizing operational logistics for profitability. Include tips on customer retention, pricing models, and the lifestyle benefits of creating a community around shared reading interests.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Retail</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Decoding 'Estate Sale Arbitrage': Finding Hidden Gems for Resale Profit in American Suburbs</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English explaining the concept of estate sale arbitrage for American homeowners and aspiring resellers. Detail strategies for identifying undervalued items, negotiating effectively at sales, and maximizing resale value through online platforms and local markets. Include actionable tips on researching item authenticity and market demand for categories like vintage furniture, antique jewelry, and collectibles. Emphasize the economic benefits of turning discarded items into profit.  Include a section on legal and ethical considerations for reselling.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Commerce</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>The 'Hyperlocal Craft Brewery Distribution' Playbook: Reaching More American Beer Enthusiasts</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Craft an in-depth blog post in English for craft brewery owners focused on optimizing hyperlocal distribution strategies within the US. Discuss efficient route planning, building direct-to-consumer relationships with local bars and restaurants, and leveraging emerging tech for inventory management and order fulfillment. Provide concrete examples of successful hyperlocal distribution models and their economic advantages in a competitive market. Include a section on compliance with state and local alcohol distribution laws.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Maximizing 'Home Garden Aquaponics ROI': Sustainable Food Production for American Households</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Develop an informative blog post in English that guides American homeowners on setting up and optimizing backyard aquaponics systems for significant returns on investment. Cover system design, fish and plant selection for optimal yield, nutrient cycling, and troubleshooting common issues. Highlight the lifestyle benefits of fresh, sustainable produce and the potential economic savings compared to traditional grocery shopping. Include a step-by-step guide for building a small-scale system suitable for a suburban backyard.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Unlock 'Fiber Art Commission' Income: Monetizing Knitting &amp; Crochet Skills in the US</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Write a detailed blog post in English for skilled knitters and crocheters in the US looking to monetize their craft through commissions. Explore niche markets such as bespoke baby wear, intricate home decor, and custom cosplay costumes. Provide practical advice on pricing strategies, building a strong portfolio, effective client communication, and leveraging platforms like Etsy and Instagram to attract high-paying clients. Emphasize the tangible economic benefits of transforming a hobby into a profitable venture.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>The 'Off-Grid Solar Maintenance' Advantage: Ensuring Energy Independence for US Rural Properties</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Create a practical blog post in English focused on the essential maintenance of off-grid solar power systems for rural American property owners. Detail regular checks for solar panels, inverters, batteries, and wiring. Explain how proactive maintenance extends system lifespan, prevents costly breakdowns, and ensures consistent energy supply, leading to significant long-term economic savings and lifestyle improvements. Include a checklist for quarterly and annual maintenance tasks, along with guidance on troubleshooting common issues.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Navigating the UK's 'Inheritance Tax Allowance' for Digital Assets: Secure Your Crypto &amp; Online Accounts</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English explaining the nuances of UK Inheritance Tax (IHT) as it applies to digital assets. Focus on strategies for individuals to minimize potential IHT liability on cryptocurrencies, online subscriptions, digital intellectual property, and other intangible online holdings. Include actionable tips for asset organization, estate planning documentation, and legally leveraging allowances. Target individuals with significant digital wealth in the UK. Ensure the tone is informative and reassuring, emphasizing tangible financial planning benefits.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>The 'UK Artisan Bread Subscription' Premium: Cultivating a Profitable Niche in the Home Baking Boom</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Generate an English blog post for aspiring entrepreneurs and bakers in the UK interested in the artisan bread subscription model. Detail the economic viability of such a business, covering niche market identification (e.g., sourdough, gluten-free, heritage grains), operational efficiency, sourcing high-quality ingredients, packaging considerations for freshness, and customer retention strategies. Provide a step-by-step guide to launching and scaling a successful UK-based artisan bread subscription service, highlighting lifestyle benefits of a passion-driven business.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Maximizing 'UK Heritage Farm Diversification' for Agri-Tourism Revenue: Beyond Traditional Crops</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Craft an English blog post exploring the economic opportunities for UK heritage farms to diversify into agri-tourism. Focus on niche revenue streams such as 'pick-your-own' events for heritage fruit varieties, farm-to-table dining experiences, educational workshops on traditional farming techniques, and glamping or unique accommodation offerings. Provide actionable advice on marketing, legal considerations, and improving visitor experiences to boost profitability and preserve rural heritage. Emphasize the lifestyle appeal for farm owners and the tangible economic benefits.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>The 'UK Smart Home Energy Rebate' Optimization: Slash Your Electricity Bills with Strategic Upgrades</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Write an English blog post detailing how UK homeowners can leverage government and utility-provided rebates to significantly reduce their energy bills through smart home technology installations. Focus on specific rebate programs available in the UK for items like smart thermostats, energy-efficient lighting, solar panel integration, and home battery storage. Include a clear, actionable guide on researching, applying for, and implementing these upgrades for maximum financial savings and enhanced home comfort. Provide examples of potential cost reductions.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Unlocking 'UK Independent Author Royalties' Through Strategic Audiobook Narration: A Freelancer's Guide</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Develop an English blog post for independent authors in the UK looking to expand their revenue streams by producing and distributing audiobooks. Focus on the economic advantages of self-narration versus hiring voice actors, including cost savings and royalty maximization. Provide practical advice on audiobook production basics (equipment, software, editing), distribution platforms (e.g., ACX, Findaway Voices), and effective marketing strategies to drive sales and increase royalty income. Emphasize the tangible financial benefits for authors and the lifestyle flexibility of a diversified income.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Creative</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>The American 'Estate Planning for Digital Assets': Protecting Your Online Legacy &amp; Crypto Holdings</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for American readers on the crucial but often overlooked topic of estate planning for digital assets. Focus on practical steps and legal considerations, including cryptocurrency, online accounts, intellectual property, and social media profiles. Explain the economic benefits of proactive planning (avoiding probate issues, preserving value) and the lifestyle improvement of peace of mind. Include a checklist of essential digital assets to inventory and potential tools or services for secure management. Use clear, accessible language.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Navigating the 'Specialty Coffee Roasting Automation' for US Small Batch Producers: Efficiency &amp; Profit Boosts</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Craft an informative blog post in English aimed at small-batch coffee roasters in the United States. Delve into the economic advantages of integrating automation into their roasting process. Discuss specific technologies and equipment that offer a good ROI, such as automated bean sourcing, batch profiling software, and advanced roasting machines. Highlight how automation can improve consistency, reduce labor costs, and ultimately increase profitability and lifestyle flexibility for business owners. Include case studies or hypothetical scenarios illustrating the benefits.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Unlocking 'US Urban Permaculture Design' ROI: Creating Edible Landscapes &amp; Boosting Home Value</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Develop an engaging blog post in English for US homeowners interested in sustainable living and property enhancement. Explain the concept of urban permaculture and its tangible economic benefits, such as reducing food costs, increasing property value through attractive and productive landscaping, and potentially generating small income streams. Focus on actionable design principles, plant selection for various urban climates, and the lifestyle improvements associated with self-sufficiency and a connection to nature. Provide examples of successful urban permaculture projects and potential challenges to overcome.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>The 'US Independent Filmmaker's Funding Formula': Leveraging Crowdfunding &amp; Angel Investors for Niche Projects</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Write a practical and inspiring blog post in English for aspiring independent filmmakers in the United States. Focus on the economic realities of funding niche film projects. Detail effective strategies for utilizing crowdfunding platforms (Kickstarter, Indiegogo) and attracting angel investors. Emphasize the lifestyle benefits of retaining creative control and building a sustainable filmmaking career. Include advice on crafting compelling pitch decks, understanding investment structures, and managing post-production finances. Offer actionable tips for reaching target audiences and maximizing investor returns.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Optimizing 'US Craft Mead &amp; Cider Production Yields' with Advanced Fermentation Science</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Create a technical yet accessible blog post in English for craft mead and cider producers in the United States. Explore the economic imperative of maximizing production yields and quality through advanced fermentation science. Discuss specific yeast strains, nutrient management, temperature control, and clarification techniques that directly impact the profitability of their ventures. Explain how improved efficiency translates to a better lifestyle for the producers by reducing waste and increasing output without compromising quality. Include scientific principles and practical applications for small-scale operations.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Unlock Tax Benefits: Strategic Depreciation for US Rental Property Investors</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for US-based rental property investors. Focus on explaining the economic advantages of various depreciation methods (e.g., straight-line, accelerated depreciation for certain assets) and how investors can legally maximize their tax deductions. Include a step-by-step guide on identifying depreciable assets, calculating depreciation, and common pitfalls to avoid. Provide real-world examples of how depreciation has saved investors money. Ensure the content is SEO-optimized for terms like 'rental property depreciation tax benefits', 'real estate tax deductions US', and 'maximize investment property tax savings'.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Mastering 'Artisan Cheese Aging': Niche Techniques for Enhanced Flavor &amp; Premium Pricing</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English for aspiring and established artisan cheesemakers in the US. Explore advanced cheese aging techniques, including controlled humidity, temperature, and specific rind treatments. Highlight how these niche methods can significantly improve flavor profiles, texture, and shelf-life, leading to premium pricing and increased demand in specialty markets. Include practical advice on setting up aging environments, common challenges, and success stories from US cheesemakers. Optimize for keywords like 'artisan cheese aging techniques', 'specialty cheese production US', and 'premium cheese market strategies'.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>The 'US Equestrian Property Investment' Blueprint: Maximizing Value Beyond Horse Ownership</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Develop an insightful blog post in English targeted at high-net-worth individuals and investors in the US interested in equestrian properties. Go beyond the obvious benefits of horse ownership and explore the economic potential of these niche properties. Discuss opportunities in event hosting, breeding programs, training facilities, and potential for subdivision or specialized land use. Provide actionable advice on property assessment, zoning laws, and market trends specific to the US equestrian sector. Optimize for search terms such as 'equestrian property investment US', 'horse farm revenue streams', and 'investing in equestrian real estate'.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>AI-Powered 'Personalized Supplement Stacks': Optimizing Health &amp; Performance for American Professionals</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Write an informative blog post in English for health-conscious professionals in the US who are looking to optimize their well-being. Explain how emerging AI-driven platforms and personalized testing can create highly tailored supplement stacks. Focus on the tangible benefits for improved energy, cognitive function, and athletic performance, translating into lifestyle improvements and increased productivity. Detail the science behind personalized nutrition, how to interpret AI-generated recommendations, and the economic advantage of avoiding ineffective 'one-size-fits-all' supplements. Use keywords like 'AI personalized supplements US', 'custom nutrition plans', and 'performance optimization supplements'.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>The 'Vintage Watch Restoration &amp; Resale' Advantage: Capitalizing on Collectibles in the US Market</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Create an engaging blog post in English for enthusiasts and entrepreneurs in the US looking for a profitable niche. Detail the intricate process of restoring vintage timepieces, emphasizing the economic benefits derived from increased resale value. Cover essential restoration skills, sourcing authentic parts, identifying valuable models, and understanding market demand for specific brands and eras. Provide practical tips for authentication, effective marketing to collectors, and the legal aspects of reselling. Optimize for search terms like 'vintage watch restoration US', 'reselling luxury watches', and 'collectible timepiece investment'.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Deconstructing the 'Victorian Garden Revival': Cultivating Rare Heritage Roses for Premium Landscape Design</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for landscape designers and affluent homeowners interested in historical garden aesthetics. Focus on the economic benefits of using rare heritage roses, emphasizing their unique market value, low maintenance requirements once established, and potential for increasing property desirability. Include advice on sourcing, planting, and propagating specific Victorian-era rose varieties. Provide actionable tips for identifying and marketing these prestigious plants to high-end clients. The post should be SEO-optimized for terms like 'heritage roses,' 'Victorian gardening,' 'rare ornamental plants,' and 'luxury landscaping.'</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Horticulture</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>The 'American Craft Watchmaking Renaissance': Mastering Micro-Brand Entrepreneurship for Horological Artisans</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Develop an in-depth blog post in English targeting aspiring and established independent watchmakers in the US. Explore the economic viability of launching a niche craft watch brand, focusing on market entry strategies, pricing models for limited editions, and building a loyal customer base through storytelling and transparent production. Include insights into sourcing movements and components, effective digital marketing for luxury goods, and the legal aspects of brand creation. Offer practical advice on differentiating in a crowded market and the lifestyle advantages of artisanal craftsmanship. Target keywords: 'craft watchmaking,' 'microbrand watches,' 'American watchmakers,' 'independent watch entrepreneurship.'</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Unlocking 'American Artisan Alembic Distilling': Maximizing Yields for Niche Spirits &amp; Botanicals</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English for small-batch distillers and aspiring craft spirit producers in the United States. The focus should be on the economic advantages of using traditional alembic stills for producing unique spirits, cordials, and botanical essences. Discuss yield optimization techniques, the science behind vapor infusion for botanical spirits, and strategies for identifying and catering to underserved markets. Include guidance on regulatory compliance for small-scale operations and the lifestyle benefits of mastering a precise craft. Keywords to target: 'alembic distilling,' 'craft spirits,' 'botanical distillation,' 'niche alcohol production,' 'artisanal spirits.'</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Gastronomy</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>The 'UK Private Library Curation' Advantage: Building &amp; Monetizing Exclusive Literary Collections</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Write a sophisticated blog post in English for bibliophiles, collectors, and high-net-worth individuals in the UK interested in building and potentially monetizing private libraries. The topic should explore the lifestyle benefits of curating rare books and manuscripts, focusing on investment potential, historical significance, and the prestige associated with exclusive collections. Provide actionable advice on sourcing antiquarian books, authentication, preservation techniques, and strategies for discreet sales or acquisitions within the collector's market. Target keywords: 'private library,' 'rare books UK,' 'book collecting investment,' 'literary collections,' 'antiquarian books.'</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Optimizing 'US Sustainable Timber Framing' for Eco-Luxury Homes: Cost Savings &amp; Design Innovation</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Create an informative blog post in English aimed at architects, custom home builders, and environmentally conscious homeowners in the United States. The focus is on the economic benefits and lifestyle improvements of using sustainable timber framing in luxury residential construction. Detail cost-saving aspects through material efficiency, long-term durability, and reduced environmental impact. Discuss innovative design possibilities, energy efficiency advantages, and the aesthetic appeal of natural timber. Include tips on sourcing responsibly managed lumber and the tangible value added to eco-luxury properties. Target keywords: 'timber framing homes,' 'sustainable construction,' 'eco-luxury homes,' 'US custom builders,' 'natural building materials.'</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>The 'American Craft Charcuterie Board' Empire: Scaling Small-Batch Cured Meats for Retail &amp; Catering</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing the economic opportunities and operational strategies for small-scale American charcuterie producers. Cover topics such as sourcing high-quality pork, mastering traditional curing techniques (including salt-curing and air-drying), understanding USDA regulations for artisanal meats, developing unique flavor profiles, effective branding for premium markets, pricing strategies for both retail and catering, and leveraging local farmers' markets and online sales channels. Include a section on essential equipment and hygiene best practices for home-based or small commercial operations. Aim for a tone that is both informative and aspirational, highlighting the lifestyle benefits of pursuing this niche culinary passion.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Unlocking 'US Bespoke Tailoring' ROI: Leveraging Digital Tools for Bespoke Suit Fit &amp; Customer Loyalty</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English focused on the modern American bespoke tailoring business. Explore how digital technologies, such as 3D body scanning, AI-driven pattern generation, and online customer portals, can enhance the bespoke tailoring experience. Discuss the economic advantages of streamlining the measurement and fitting process, reducing alterations, and improving customer retention through personalized digital communication. Include actionable advice on marketing strategies for attracting affluent clients, building a brand around craftsmanship and precision, and the lifestyle advantages of operating a high-end custom apparel business. Provide examples of successful digital integrations in current tailoring studios.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>Fashion</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>The 'American Urban Apiary Management' Blueprint: Maximizing Honey Yields &amp; Nectar Diversity in City Ecosystems</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Develop an in-depth blog post in English for urban beekeepers in the United States. Focus on niche strategies for maximizing honey production and hive health within city environments. Cover advanced topics such as selecting bee-friendly urban flora, understanding local pesticide impacts, implementing swarm prevention techniques, managing smaller apiaries for optimal yield, extracting and marketing artisanal urban honey, and navigating city ordinances related to beekeeping. Emphasize the economic benefits of producing high-value, hyper-local honey and the lifestyle rewards of contributing to urban biodiversity. Include a small section on identifying and mitigating common urban bee pests.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>The 'American Mid-Century Modern Furniture Flipping' Algorithm: Identifying Investment Opportunities &amp; Profit Maximization</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Create a detailed blog post in English focusing on the lucrative niche of flipping Mid-Century Modern furniture in the United States. Explain how to identify authentic pieces, understand market value trends, and assess condition for restoration. Detail the economic advantages of strategically acquiring, repairing (focusing on common issues like veneer repair, upholstery updates, and structural fixes), and reselling these iconic pieces. Provide actionable tips on sourcing from estate sales, auctions, and online marketplaces, as well as effective marketing and sales strategies for maximizing profit margins. Emphasize the lifestyle appeal of curating and selling desirable vintage items.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>The Untapped Potential: Mastering 'European Vineyard Microclimate Analysis' for Premium Wine Futures</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English targeting high-net-worth individuals and wine investors. Focus on the economic benefits of understanding and leveraging microclimates in established European wine regions (e.g., Bordeaux, Tuscany, Burgundy). Explain how precise microclimate data analysis can predict grape quality, influence future wine futures pricing, and offer tangible advantages for investment. Include case studies of successful wineries that have capitalized on this niche understanding. Emphasize actionable insights for investors seeking to diversify portfolios into the wine market. Ensure the tone is sophisticated and informative. Write the blog post in English.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Beyond the Basics: 'US Historic Home Preservation Tax Credits' for Smart Property Investors</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Craft an in-depth blog post in English for real estate investors and historic property owners in the United States. Detail the often-overlooked federal and state tax credit programs available for the preservation and rehabilitation of historic homes. Explain the economic benefits, such as significant cost reductions and potential for increased property value appreciation. Provide clear, actionable steps on how to identify eligible properties, navigate the application process, and maximize these tax advantages. Include examples of successful projects that have leveraged these credits. Write the blog post in English.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>The 'American Heritage Breed Livestock' Profitability Pathway: Sustainable Farming &amp; Premium Markets</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Develop a compelling blog post in English for farmers and agricultural entrepreneurs in the United States interested in niche livestock farming. Focus on the economic advantages of raising heritage breeds (e.g., Gloucestershire Old Spots pigs, Black Welsh Mountain sheep). Explain how these breeds often possess superior meat quality, resilience, and market demand for consumers seeking ethically sourced and unique products. Provide insights into building a brand, accessing premium markets (restaurants, specialty butchers), and achieving higher profit margins compared to conventional livestock farming. Include practical advice on breed selection, management, and marketing strategies. Write the blog post in English.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Unlocking 'North American Rare Book Appraisal' ROI: Strategic Investment in Literary Antiquities</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Create an informative blog post in English for collectors, investors, and estate planners in North America interested in the value of rare books. Focus on the economic benefits and lifestyle improvements derived from understanding and accurately appraising antique and rare books. Explain how to identify valuable editions, assess condition, and leverage professional appraisal services to maximize returns on investment, insurance, and estate liquidation. Discuss the growing market for literary collectibles and the potential for significant appreciation. Provide tips on authentication and market trends. Write the blog post in English.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>The 'European Artisanal Soapmaking Automation' Blueprint: Scaling Lather &amp; Profit Margins</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Write a detailed blog post in English for small-scale European soapmakers looking to scale their operations. Explore the economic benefits of strategically integrating automation into the artisanal soapmaking process. Cover specific automated equipment and techniques that can increase production efficiency, maintain consistent quality, and reduce labor costs without sacrificing the 'artisanal' appeal. Discuss how this leads to tangible advantages like increased output capacity, broader market reach, and improved profitability. Include practical advice on selecting the right automation solutions for different scales of production and maintaining product integrity. Write the blog post in English.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>The 'American Single Malt Whiskey Investment' Playbook: Navigating Cask Purchases &amp; Future Appreciation</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for aspiring investors interested in the burgeoning American single malt whiskey market. Detail the economic benefits of investing in casks, explaining how to identify reputable distilleries, evaluate cask quality (barrel type, age, proof), understand legal ownership structures, and project potential resale value. Include actionable tips on navigating brokers and the secondary market. Ensure the content is SEO-optimized for keywords like 'whiskey investment', 'cask collecting', 'American single malt', and 'liquor futures'.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Maximizing 'US Estate Gardening' ROI: Profitable Cultivation of Heirloom Vegetables for Farmers Markets &amp; Restaurants</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Generate a detailed English blog post focused on American estate owners and market gardeners looking to monetize their land through specialized vegetable cultivation. Explain the economic advantages of growing high-value, heirloom varieties that command premium prices. Cover topics such as selecting profitable crops (e.g., unique tomato varietals, specialty greens, forgotten root vegetables), implementing sustainable organic farming practices for quality and yield, marketing strategies for direct sales to high-end restaurants and farmers' markets, and best practices for harvesting and packaging to maximize freshness and saleability. Emphasize the lifestyle benefits of a more connected and productive approach to land use. Optimize for search terms like 'heirloom vegetable farming', 'profitable gardening', 'farmers market produce', 'estate agriculture', and 'sustainable farming USA'.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>The 'US Boutique Bookstore Flip' Blueprint: Revitalizing Underperforming Shops for Maximum Profit</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Craft an in-depth English blog post offering a strategic guide for entrepreneurs looking to acquire and revitalize underperforming independent bookstores in the United States. Focus on the economic advantages and tangible returns of such ventures. Provide actionable steps for evaluating a bookstore's potential, including analyzing inventory, location, community engagement, and financial health. Detail strategies for modernization, including curated inventory selection, creating inviting ambiance, leveraging digital marketing and e-commerce, and fostering community events. Discuss financial projections and exit strategies. Ensure SEO optimization for keywords like 'bookstore investment', 'buy a bookstore', 'independent bookstore business', 'retail turnaround', and 'niche retail'.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Unlocking 'American Heritage Craft Breweries' Growth: Strategic Branding &amp; Distribution for Small-Batch Success</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Write a business-focused English blog post for American craft brewery owners aiming to scale their operations. The article should detail the economic benefits of strategic branding and distribution in a competitive market. Cover aspects like developing a unique brand narrative, effective taproom marketing, building relationships with distributors, exploring direct-to-consumer (DTC) sales channels, and optimizing production for consistency and efficiency. Include case studies of successful heritage breweries and provide actionable tips for market penetration and customer loyalty. Optimize for keywords such as 'craft brewery marketing', 'beer distribution strategy', 'small brewery growth', 'heritage beer brands', and 'craft beverage business'.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>The 'US Artisanal Wood Furniture Restoration' Advantage: Capitalizing on Vintage Pieces for Sustainable Income</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Develop a detailed English blog post targeting individuals in the US interested in turning a passion for woodworking and vintage furniture into a profitable venture. Focus on the economic benefits of restoration and resale of artisanal wooden furniture. Provide practical guidance on identifying valuable antique and mid-century modern pieces, understanding different wood types and joinery techniques, essential restoration tools and materials, effective repair and refinishing methods, and strategies for marketing and selling restored items through online platforms, antique shows, and direct sales. Emphasize the lifestyle aspect of working with tangible, beautiful objects and contributing to sustainability. Optimize for search terms like 'furniture restoration business', 'vintage furniture flipping', 'woodworking income', 'antique furniture value', and 'sustainable home decor'.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Navigating the 'Post-Pandemic Remote Work Tax Implications': Minimizing Liability for US Digital Nomads</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for US-based remote workers and digital nomads explaining the often-overlooked tax implications of working from different states or countries. Focus on actionable strategies to minimize tax liability legally. Include explanations of domicile vs. residency, nexus, and common pitfalls. Provide examples of tax forms and offer tips on consulting with tax professionals. Ensure the content is SEO-optimized for keywords like 'remote work taxes', 'digital nomad tax advice', and 'US tax implications'.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>The 'Urban Rooftop Micro-Farm' Ecosystem: Maximizing ROI with Hydroponics &amp; Aquaponics in US Cities</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Develop a detailed blog post in English focused on the economic and lifestyle benefits of establishing micro-farms on urban rooftops in the US. Emphasize the integration of hydroponic and aquaponic systems. Detail the potential for significant returns on investment through direct-to-consumer sales, restaurant partnerships, and community-supported agriculture (CSA) models. Include practical advice on system setup, crop selection, regulatory considerations, and marketing strategies for urban farmers. Target keywords: 'urban farming ROI', 'hydroponics rooftop', 'aquaponics US cities', 'micro-farm business plan'.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Beyond Traditional Gifting: Leveraging 'Bespoke Experience Curation' for High-Net-Worth Clients in the UK</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Craft a sophisticated blog post in English for aspiring luxury service providers and concierges in the UK. Explore the niche market of curating hyper-personalized, exclusive experiences for High-Net-Worth Individuals (HNWIs). Discuss the economic advantage of moving beyond material gifts to offering unforgettable moments like private art tours, Michelin-starred culinary journeys, or bespoke adventure travel. Provide insights into client profiling, vendor partnerships, pricing strategies, and building a reputation in this exclusive market. Focus on keywords like 'luxury experience curation UK', 'HNWI gifting', 'bespoke travel concierge'.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>The 'Electric Vehicle Charging Infrastructure Investment' Boom: Profiting from the US Green Energy Transition</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Write an informative blog post in English aimed at investors and entrepreneurs interested in the burgeoning US electric vehicle (EV) charging market. Detail the significant economic opportunities in investing in and developing EV charging infrastructure. Cover various investment models, including public charging stations, fleet charging solutions, and home charging installations. Discuss government incentives, the future growth projections of the EV market, and the technological advancements shaping this sector. Include actionable advice for evaluating investment opportunities. Target keywords: 'EV charging investment', 'US electric vehicle infrastructure', 'green energy transition profits'.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Mastering 'Digital Estate Planning for Digital Assets': Securing Your Online Legacy in Canada</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Create an in-depth blog post in English for Canadian residents focusing on the critical yet often overlooked aspect of digital estate planning. Explain how to legally secure and distribute digital assets (cryptocurrencies, online accounts, intellectual property, social media profiles, etc.) after death. Detail the unique challenges posed by digital assets and provide practical steps for creating a comprehensive digital will. Discuss the importance of password management, secure storage of credentials, and the legal frameworks in Canada. Include advice for engaging legal professionals. Keywords: 'digital estate planning Canada', 'managing digital assets death', 'cryptocurrency inheritance'.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Maximizing 'US Craft Spirits Distilling' ROI: Navigating Federal &amp; State Licensing for Small Producers</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for aspiring and existing craft spirit distillers in the United States. The post should focus on the economic benefits of understanding and efficiently navigating the complex federal (TTB) and state-level licensing processes. Include a step-by-step guide, common pitfalls to avoid, and actionable tips for reducing time and costs associated with licensing. Incorporate a sample timeline and a checklist of essential documents. Emphasize how streamlined licensing leads to faster market entry and increased profitability. The target audience is business owners and entrepreneurs in the craft spirits industry.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>The 'American Historic Preservation Tax Incentives' Playbook: Unlocking Value for Multi-Family Property Investors</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Generate an in-depth English blog post targeting real estate investors in the US who are interested in acquiring and renovating multi-family historic properties. The article should detail the economic advantages and practical application of federal and state historic preservation tax credits and incentives. Provide concrete examples of how these incentives can significantly reduce the net cost of acquisition and rehabilitation, improve cash flow, and boost ROI. Include case studies (hypothetical or generalized) of successful multi-family projects leveraging these programs, and offer actionable advice on identifying eligible properties and working with preservation agencies. Focus on tangible financial benefits and long-term investment strategy.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Beyond the Garden: 'US Heirloom Seed Saving &amp; Commercialization' Strategies for Niche Farmers</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Craft an informative English blog post for small-scale and niche farmers in the United States interested in the economic potential of heirloom seed saving and selling. The content should explore the lifestyle benefits of preserving agricultural heritage and the tangible financial advantages of cultivating and marketing unique, high-demand heirloom varieties. Provide detailed instructions on effective seed saving techniques for specific crops (e.g., tomatoes, beans, corn), strategies for identifying profitable niche markets (e.g., farmers markets, specialty grocers, online seed catalogs), and tips for branding and pricing. Include advice on compliance with relevant agricultural regulations. The goal is to demonstrate how this practice can be a sustainable and profitable venture.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>The 'American Sustainable Fashion Entrepreneurship' Blueprint: Building a Profitable Brand with Upcycled Materials</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Write a practical, English-language blog post aimed at aspiring fashion entrepreneurs in the US who want to build a sustainable and profitable brand using upcycled and recycled materials. The post should highlight the lifestyle appeal of eco-conscious entrepreneurship and the economic advantages of sourcing low-cost materials. Provide actionable steps for developing a business plan, identifying reliable sources of pre-consumer and post-consumer textile waste, designing collections with a focus on upcycling techniques, and marketing a sustainable fashion brand effectively. Include examples of successful US-based upcycled fashion businesses and discuss strategies for building customer loyalty in the ethical consumer market. Emphasize cost savings and market differentiation.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mastering 'US Vintage Watch Investment': Identifying Undervalued Timepieces for Significant Appreciation</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Develop an expert-level English blog post for collectors and investors in the United States interested in the financial benefits of investing in vintage watches. This niche topic requires detailed insights into identifying genuinely valuable and appreciating timepieces. The post should cover how to research specific brands and models (e.g., Rolex, Omega, Patek Philippe), recognize key indicators of authenticity and condition, understand market trends, and avoid common investment pitfalls. Provide actionable tips for sourcing watches (auctions, dealers, online platforms), negotiating prices, and preserving value. Emphasize the potential for substantial financial returns and the lifestyle appreciation of collecting rare horological pieces. Include a glossary of common watch terms.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Mastering 'Mid-Century Modern Furniture Restoration ROI': Profitable Strategies for Vintage Home Decor Investors</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing actionable strategies for individuals looking to profit from the restoration of mid-century modern furniture.  Focus on identifying valuable pieces, understanding common restoration challenges and solutions (e.g., veneer repair, fabric replacement, wood refinishing techniques), cost-effective sourcing of materials, and effective marketing channels for resale in the Western market. Include specific tips on tools and techniques that offer the best return on investment. Emphasize the economic benefits of this niche market.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Antiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>The 'US Boutique Vineyard Micro-Investing' Strategy: Cultivating Fractional Ownership for Oenophile Returns</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Develop an in-depth guide in English on fractional ownership models and micro-investing opportunities within the US boutique vineyard sector. Explain how individuals can invest small sums into premium vineyards, the legal structures involved (e.g., syndicates, REITs), potential revenue streams (wine sales, vineyard tours, land appreciation), and risk mitigation strategies. Highlight the lifestyle appeal alongside the financial advantages of being a part-owner in a celebrated winery.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Leveraging 'Canadian Private Debt Syndication' for High-Yield Income: A Conservative Investor's Guide</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Create a detailed blog post in English explaining the concept of private debt syndication within the Canadian financial landscape. Target conservative investors seeking higher yields than traditional fixed income. Cover how these syndicates are formed, the due diligence process for selecting lending opportunities, the typical loan structures and collateral involved, and the legal framework governing such investments in Canada. Emphasize the tangible advantage of stable, predictable income streams.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>The 'American Artisan Coffee Roasting Automation' Blueprint: Scaling Quality &amp; Profitability for Small Roasters</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Write a practical blog post in English for owners of small US-based artisan coffee roasting businesses. Focus on how to strategically implement automation technologies (e.g., automated roasting profiles, inventory management systems, automated packaging) without sacrificing artisanal quality. Provide specific examples of automation solutions, cost-benefit analyses, and how to maintain brand integrity and customer loyalty while increasing production capacity and profit margins. Include advice on selecting appropriate automation tools.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Optimizing 'UK Urban Permaculture Gardening' for Self-Sufficiency &amp; Reduced Living Costs</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Craft a practical guide in English for residents in UK urban environments on establishing and maintaining highly productive permaculture gardens. Focus on space-saving techniques, companion planting, soil building, water conservation, and waste reduction strategies. Explain how implementing these principles can significantly reduce household food expenses and improve overall lifestyle quality through access to fresh, organic produce. Include actionable tips for small balconies, rooftops, and backyards.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>The 'UK Property Stamp Duty Holiday' Loophole: Savvy Strategies for First-Time Buyers to Minimize Costs</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for UK residents exploring how to legally minimize Stamp Duty Land Tax (SDLT) when purchasing their first home. Focus on specific strategies and potential loopholes that might exist, particularly referencing any temporary reliefs or schemes. Include examples of tax calculations and actionable advice. Ensure the tone is informative and empowering for prospective homeowners.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Maximizing 'US Small Town Revitalization' ROI: Turnkey Strategies for Entrepreneurial Investors</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Create an in-depth English blog post targeting investors interested in capitalizing on the revitalization of small towns across the United States. Focus on identifying undervalued commercial properties, understanding local economic drivers, and implementing business models that benefit both the investor and the community. Provide case studies of successful town makeovers and outline the economic advantages of this niche investment.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>The 'American Heritage Breed Livestock Investment' Advantage: Profiting from Niche, Sustainable Farming</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Develop an English blog post detailing the economic benefits of investing in and raising heritage breeds of livestock (e.g., Berkshire pigs, Rhode Island Red chickens) in the US. Explain the market demand for ethically sourced, high-quality meats and animal products, the potential for premium pricing, and the operational advantages of these hardy breeds. Include advice on sourcing breeding stock, market channels, and regulatory considerations.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Mastering 'European Vintage Watch Arbitrage': Identifying &amp; Profiting from Undervalued Timepieces Across the Continent</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Write an English blog post for enthusiasts and investors on how to identify and capitalize on price discrepancies in vintage watches across various European markets. Detail how to research historical pricing, navigate different country-specific online marketplaces, understand import/export duties, and authenticate rare pieces. Emphasize the financial gains and lifestyle aspects of this niche pursuit.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>The 'US Freelance Creative Coaching' Blueprint: Scaling Your Income by Mentoring Emerging Artists</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Craft an English blog post for established freelance artists and creatives in the US on how to build a profitable coaching business. Outline strategies for defining a niche (e.g., illustration, photography, graphic design), structuring coaching packages, marketing services to aspiring creatives, and leveraging online platforms. Highlight the tangible benefits of passive income generation and personal fulfillment through mentorship.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Unlock Hidden Value: Expert Strategies for Appraising &amp; Monetizing American Antique Musical Instruments</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing how collectors and investors can accurately appraise and monetize antique musical instruments in the Western United States. Include specific advice on identifying rare makers, understanding market trends, factors affecting value (condition, provenance, rarity), and platforms for sale (auctions, specialized dealers, online marketplaces).  Provide examples of instruments that have seen significant appreciation. Emphasize the economic benefits of informed investment and the lifestyle appeal of engaging with musical history.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Antiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>From Hobby to High Income: The 'American Artisan Soap Making' Business Blueprint for Profit</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Craft a detailed guide in English for aspiring entrepreneurs on establishing a profitable artisan soap-making business in the US. Focus on niche markets (e.g., organic, vegan, therapeutic properties), sourcing premium ingredients, understanding regulatory compliance (FDA), branding strategies, effective online sales channels (Etsy, Shopify), and pricing for profit.  Include actionable tips for scaling production and achieving significant lifestyle improvements through entrepreneurial success.  Incorporate a brief section on cost-effective initial setups.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Maximizing 'US Equestrian Property Value': Strategic Landscaping &amp; Amenity Investments for High ROI</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Develop a specialized blog post in English for landowners and investors in the American equestrian community.  Focus on how strategic landscaping, fencing upgrades, and the addition of specific amenities (e.g., specialized barns, riding arenas, cross-country courses) can significantly increase property valuation and marketability.  Provide examples of return on investment for different amenity types and discuss how to identify premium locations with strong equestrian demand.  Highlight the tangible lifestyle advantages for owners and the economic benefits for investors.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>The 'American Homebrewing Beer Investment' Strategy: From Passion Project to Premium Portfolio</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Write an in-depth article in English for craft beer enthusiasts in the US looking to turn their hobby into an investment.  Explore strategies for investing in high-quality homebrewing equipment, sourcing rare ingredients, and the potential for entering small-scale commercial brewing or selling premium homebrew kits.  Discuss market trends in craft beer, potential licensing considerations for small ventures, and the economic advantages of building a 'beer portfolio' of exceptional brews.  Emphasize the lifestyle benefits of pursuing a passion with economic potential.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Beyond Basic Budgeting: 'UK Inheritance Tax Planning' for Preserving Generational Wealth</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Create an informative blog post in English for UK residents focused on proactive inheritance tax planning.  Delve into niche strategies beyond simple wills, such as lifetime gifts, trusts (discretionary, bare), business property relief, agricultural property relief, and offshore solutions.  Explain how these strategies can legally minimize tax liabilities and preserve wealth for future generations.  Provide clear, actionable advice and emphasize the long-term economic benefits and peace of mind gained from expert planning.  Include a disclaimer about seeking professional financial advice.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Unlocking 'American Antique Map Investment': Identifying Scarce Cartographic Treasures for Significant Returns</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for aspiring and experienced collectors on how to invest in antique maps. Focus on the economic benefits and tangible advantages of this niche market.  Include detailed advice on identifying authentic maps, understanding their historical significance, assessing condition, recognizing key cartographers and periods (e.g., early American exploration maps, colonial era charts), and where to find reliable sources for acquisition and appraisal. Provide actionable tips for authentication and preservation. Ensure the tone is authoritative yet accessible, targeting individuals interested in high-value collectibles with a deep connection to Western history.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>The 'US Historic Cemetery Preservation Investment' Opportunity: Restoring &amp; Monetizing Heritage Sites for Community &amp; Profit</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Develop an in-depth English blog post exploring the niche investment potential in the preservation and restoration of historic American cemeteries.  Highlight the economic benefits derived from grants, tax credits, and potential for managed heritage tourism.  Discuss strategies for identifying neglected but historically significant sites, understanding legal frameworks for preservation, engaging local communities, and implementing sustainable restoration techniques.  Include case studies or examples of successful preservation projects and their financial viability.  This should appeal to impact investors and those passionate about preserving Western cultural heritage.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Mastering 'US Artisanal Charcuterie Production': Scaling Small-Batch European-Inspired Cured Meats for Premium Markets</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Create a detailed English blog post for aspiring food entrepreneurs in the Western US interested in establishing a profitable artisanal charcuterie business. Focus on the economic benefits of supplying high-end restaurants, specialty food stores, and direct-to-consumer channels.  Cover essential aspects such as sourcing quality heritage breed pork, mastering traditional European curing techniques (e.g., prosciutto, salami, pâté), understanding food safety regulations and certifications, branding, and effective sales and distribution strategies.  Provide actionable tips for cost-effective production and maximizing profit margins.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>The 'American Legacy Winery Fractional Ownership' Advantage: Cultivating Oenophile Wealth Through Boutique Vineyard Investments</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Write an informative English blog post for affluent individuals and wine enthusiasts in Western America interested in investing in boutique wineries through fractional ownership.  Explain the lifestyle and economic benefits of owning a stake in a premium vineyard, including potential appreciation, wine allocations, and unique experiences.  Discuss the due diligence required when evaluating fractional ownership opportunities, the legal structures involved, and the role of winery management in ensuring profitability.  Emphasize the exclusivity and prestige associated with investing in high-quality, small-production wines.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Beyond the Screen: 'US Independent Film Production Financing' Strategies for Emerging Western Directors</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Craft a practical English blog post outlining effective strategies for independent film directors in the Western United States to secure financing for their projects.  Focus on the tangible advantages of this niche area within the media industry.  Detail various funding avenues, including private equity, venture capital, grants for arts and culture, crowdfunding, and strategic partnerships.  Provide actionable advice on developing compelling pitch decks, understanding investor expectations, navigating legal agreements, and leveraging local filmmaking incentives.  Target emerging talent seeking to bring their unique Western narratives to life.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Niche American Craft Spirits: Profiting from Small-Batch Bourbon &amp; Rye Distilleries</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing the economic opportunities within the American craft spirits industry, specifically focusing on small-batch bourbon and rye distilleries.  The post should cover market trends, key investment considerations, operational challenges and solutions, branding strategies, and potential revenue streams. Include a section on navigating state-specific liquor laws and licensing.  Target aspiring entrepreneurs and investors interested in a high-growth, niche market. Ensure SEO optimization for keywords like 'craft bourbon investment', 'small batch rye distillery business', 'American spirits market growth', and 'niche distillery ROI'.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>The 'American Urban Foraging' Lifestyle: Monetizing Wild Edibles &amp; Enhancing Your Well-being</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Create an engaging blog post in English exploring the burgeoning trend of urban foraging in Western cities.  Focus on the economic benefits of harvesting wild edibles for personal consumption and potential income generation (e.g., selling to restaurants, creating value-added products).  Discuss ethical foraging practices, identification guides for common urban edible plants, and safety considerations.  Highlight the lifestyle improvements associated with connecting with nature in urban environments and reducing food costs.  Incorporate actionable tips for beginners and advanced foragers.  Optimize for keywords such as 'urban foraging benefits', 'monetize wild edibles US', 'sustainable urban lifestyle', and 'identify edible plants city'.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Leveraging 'US Regional Opera Investment': Cultivating Artistic Patronage &amp; Financial Returns</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Develop an informative blog post in English aimed at individuals and foundations interested in investing in regional American opera companies.  The post should outline the unique economic advantages of supporting these often underfunded but culturally significant institutions.  Discuss various investment models, including direct patronage, endowment funds, and philanthropic ventures.  Explain how such investments can yield tangible benefits such as tax deductions, community impact, and potential for legacy building.  Provide examples of successful regional opera support.  SEO optimize for terms like 'invest in regional opera', 'artistic patronage US', 'philanthropic investment opportunities', and 'cultural funding models'.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Beyond Electric: 'American Off-Grid Solar Technology' for Rural Property Owners</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Craft a practical and data-driven blog post in English focused on the advantages of investing in and implementing advanced off-grid solar technology for rural American properties.  This should go beyond basic solar panel installation, delving into battery storage solutions, energy management systems, and the economic benefits of energy independence.  Include case studies of successful rural off-grid implementations, cost-benefit analyses, and actionable advice on choosing the right technologies and installers.  Emphasize the long-term cost savings and increased property value.  Keywords for SEO should include 'off-grid solar rural US', 'independent energy solutions', 'solar battery storage benefits', and 'rural property electrification cost'.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>The 'American Vintage Bicycle Restoration &amp; Resale' Blueprint: Profiting from Nostalgia &amp; Sustainability</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Write a detailed blog post in English that serves as a guide for individuals looking to profit from restoring and reselling vintage American bicycles.  The content should focus on identifying valuable vintage models, sourcing parts, restoration techniques (emphasizing sustainability and ethical practices), and effective online and offline resale strategies.  Highlight the economic potential in this niche market driven by nostalgia and the growing demand for sustainable transportation.  Include tips on appraising bikes and understanding market value.  Optimize for search terms like 'vintage bicycle restoration profit', 'resell classic bikes US', 'sustainable cycling business', and 'American retro bike market'.</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Mastering 'US Heirloom Seed Stock Preservation': Profitable Strategies for Niche Gardeners &amp; Seed Businesses</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for US-based gardeners and small businesses interested in preserving and profiting from heirloom seed varieties. Focus on practical, actionable advice. Include a section on the economic benefits of maintaining genetic diversity, how to properly store and document seeds, market opportunities for selling unique heirloom seeds, and legal considerations for seed businesses in the US. Incorporate a small, illustrative code snippet demonstrating a basic seed inventory tracking system (e.g., Python or pseudocode). The tone should be authoritative yet accessible.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>The 'American Craft Clockmaking Revival': Timepieces as Lucrative Investments &amp; Boutique Business Opportunities</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Craft a detailed English blog post exploring the resurgence of artisanal clockmaking in the United States. Target individuals interested in unique investment opportunities and those looking to establish a niche business. Explain the economic value proposition of handcrafted timepieces, highlight the lifestyle appeal of owning and collecting such items, and outline key steps for aspiring clockmakers or collectors. Include case studies of successful small-batch clock businesses. Discuss materials sourcing and the market for bespoke commissions.</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Craftsmanship</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Decoding 'UK Victorian Property Renovation Tax Credits': Maximizing Your Investment in Historic Homes</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Develop an informative blog post in English specifically for UK homeowners and property investors focusing on Victorian-era properties. The core theme is leveraging available tax credits and incentives for renovations. Provide clear, step-by-step guidance on identifying eligible properties, understanding the application process for tax relief, and calculating potential cost savings. Emphasize the long-term economic benefits of preserving historic architecture. Include expert tips on avoiding common pitfalls and maximizing the ROI of renovation projects.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>The 'US Guilded Age Home Decor Authentication' Advantage: Profiting from Rare Architectural Salvage</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Write an engaging blog post in English aimed at collectors, interior designers, and salvage yards in the United States interested in the Gilded Age period. The focus is on authenticating and profiting from rare architectural salvage from this era (e.g., mantels, stained glass, hardware). Detail methods for identifying genuine Gilded Age pieces, their market value, and where to find them. Discuss the lifestyle aspect of incorporating historical elements into modern homes. Include advice on restoration and ethical sourcing.</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Strategic 'American Artisanal Coffee Roasting' Expansion: Scaling Small-Batch Flavor for Premium Markets</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Compose a practical blog post in English for existing or aspiring artisanal coffee roasters in the US looking to scale their operations. Focus on strategies for expanding market reach and increasing profitability without compromising quality. Cover topics such as sourcing high-grade beans, mastering roasting profiles for specific flavor notes, effective branding, wholesale opportunities, and direct-to-consumer sales strategies. Include actionable tips for optimizing production efficiency and exploring premium product lines. Mention the lifestyle benefits of working in a growing, quality-focused industry.</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Deciphering 'UK Stamp Duty Land Tax' Exemptions for First-Time Buyers: A Practical Guide</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English for UK residents on understanding and leveraging Stamp Duty Land Tax (SDLT) exemptions. Focus on first-time buyers and provide actionable advice on eligibility criteria, required documentation, and common pitfalls to avoid. Include a hypothetical case study demonstrating how a buyer saved money. Optimize for keywords like 'UK stamp duty first time buyer', 'SDLT exemptions', 'how to avoid stamp duty UK', and 'first home buyer tax relief'.</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>The Economic Upside of 'US Bespoke Tailoring': Investing in Custom Wardrobes for Professional Advantage</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Craft an engaging blog post in English for ambitious professionals in the US on the economic benefits of bespoke tailoring. Discuss how custom-fitted suits and attire enhance professional image, boost confidence, and lead to tangible career advantages. Include insights from tailors and fashion consultants on fabric choices, fit, and the long-term value proposition. Target keywords such as 'bespoke tailoring US', 'custom suits professional', 'investment wardrobe men', and 'career advantage custom clothing'.</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Fashion</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Maximizing 'Canadian Artisan Cheese Production' Profitability: From Micro-Dairy to Market Dominance</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Develop a detailed blog post in English for aspiring and existing Canadian cheesemakers on strategies to enhance profitability. Cover niche market identification, advanced aging techniques, branding for premium appeal, direct-to-consumer sales channels, and potential export opportunities. Include a SWOT analysis for a hypothetical artisan cheese business. Focus on keywords like 'Canadian artisan cheese', 'micro-dairy business', 'artisanal cheese profit', and 'scaling cheese production Canada'.</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>The 'Australian Rare Coin Collecting' Strategy: Identifying High-Yield Numismatic Investments for Wealth Growth</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Create an informative blog post in English for Australian collectors and investors interested in numismatics. Explain how to identify rare and valuable Australian coins, understand grading systems, and navigate the market for maximum return on investment. Provide insights into historical context and emerging trends. Include a list of top 5 Australian coins with high appreciation potential. Target keywords like 'Australian rare coins', 'numismatic investment Australia', 'collectible coins Australia', and 'investing in coins'.</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Beyond the Standard: 'US Artisanal Bookbinding' Techniques for Preserving &amp; Monetizing Literary Heritage</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Write an in-depth blog post in English for individuals in the US interested in the art and business of artisanal bookbinding. Explore unique techniques, materials, and restoration methods for antique and modern books. Discuss how to establish a niche business, market services to collectors and institutions, and the potential for creating high-value, handcrafted items. Include a step-by-step guide to a simple artisanal binding technique. Keywords to target: 'US artisanal bookbinding', 'book restoration business', 'custom bookbinding', and 'literary heritage preservation'.</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Craft</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>The 'US Bespoke Leather Goods Manufacturing' Blueprint: Scaling Artisan Wallets, Bags, and Accessories for Premium E-commerce</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing the economic viability and practical steps for establishing and scaling a US-based bespoke leather goods manufacturing business. Focus on high-demand, low-supply niche products like custom wallets, messenger bags, and watch straps. Include actionable advice on material sourcing, artisanal techniques, online sales strategies (e.g., Etsy, Shopify integrations), branding, and reaching affluent Western consumers. Incorporate a section on legal considerations for small businesses in the US. The tone should be authoritative and aspirational.</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Unlocking 'American Vineyard Micro-Cloning Investment': High-Yielding Grape Varietals for Boutique Wineries</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English exploring the niche investment opportunity in American vineyard micro-cloning. Target experienced investors and winery owners interested in identifying and cultivating high-yield, disease-resistant grape varietals suitable for specific US wine regions. Explain the scientific process behind micro-cloning, its economic benefits (reduced disease, increased yield, unique flavor profiles), and potential ROI. Provide case studies or hypothetical scenarios illustrating the financial advantages. Discuss the role of agricultural technology and research in this field. The language should be sophisticated and data-driven.</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>The 'UK Heritage Orchard Preservation &amp; Cider Production' Strategy: Monetizing Apple &amp; Pear Groves for Artisanal Beverages</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Develop an informative blog post in English for landowners and entrepreneurs in the UK interested in the economic benefits of preserving heritage orchards and developing artisanal cider production. Focus on identifying rare apple and pear varieties, sustainable orchard management practices, and the process of creating high-value, niche ciders. Include details on fermentation techniques, branding, market entry for small-batch producers, and potential revenue streams beyond cider sales (e.g., orchard tours, farm-to-table experiences). Emphasize the cultural significance and lifestyle appeal of this endeavor.</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mastering 'US Bespoke Orthotics &amp; Prosthetics Design': Leveraging 3D Printing for Personalized Mobility Solutions</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Create a practical, yet forward-thinking blog post in English for healthcare professionals, engineers, and entrepreneurs in the US focusing on the niche market of bespoke orthotics and prosthetics, with an emphasis on 3D printing technology. Explain the economic advantages of personalized medical devices, improved patient outcomes, and the business opportunities in this sector. Include details on the design process, material selection (biocompatible polymers), 3D scanning and printing techniques, regulatory considerations, and market penetration strategies for innovative custom solutions. Provide actionable tips for integrating 3D printing into existing practices or startups.</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>The 'Canadian Bespoke Falconry Equipment Crafting' Advantage: High-Performance Gear for Avian Enthusiasts</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Write a highly specialized blog post in English for artisans and enthusiasts in Canada interested in the niche market of bespoke falconry equipment. Focus on the economic benefits of crafting high-quality, durable, and performance-oriented gear such as custom-made hoods, gloves, jesses, and lures. Detail the specific materials (e.g., premium leathers, stainless steel, specialized threads), crafting techniques, and design considerations essential for this sport. Discuss marketing strategies for reaching the affluent and dedicated falconry community, online sales platforms, and the potential for international export. Highlight the blend of tradition and modern craftsmanship.</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Crafts</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Unlocking the 'UK Inheritance Tax Planning for Digital Assets': Safeguarding Crypto &amp; Online Estates</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English on strategies for UK residents to plan for Inheritance Tax (IHT) on digital assets. This should cover cryptocurrencies, online accounts, intellectual property, and other digital wealth. Include actionable advice on digital estate planning, using trusts, and working with legal and financial professionals to minimize IHT liabilities. Incorporate insights into evolving UK tax legislation related to digital assets. Emphasize the tangible benefit of preserving wealth for beneficiaries.</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>The 'European Artisan Perfume Formulation' Business: Crafting Niche Scents for Premium Markets</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Generate a blog post in English detailing the business and lifestyle aspects of creating and selling niche artisan perfumes in Europe. Focus on the economic benefits of high-margin products, the lifestyle of a perfumer, and the market demand for unique, handcrafted fragrances. Include guidance on sourcing rare ingredients, understanding fragrance families, branding, and accessing European luxury markets. Discuss the tangible advantage of creating a unique brand identity.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Sustainable Urban Rooftop Beekeeping in the 'US Midwest': Maximizing Honey Yields &amp; Biodiversity</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Create a blog post in English focused on the economic and lifestyle advantages of urban beekeeping in the US Midwest, specifically on rooftops. Detail strategies for maximizing honey production and wax harvesting, the role of bees in urban biodiversity, and the tangible benefits of a hyper-local, sustainable food source. Include practical advice on hive management, pest control in urban environments, and navigating local ordinances. Offer tips for small-scale commercialization of honey and related products.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Decoding 'German Black Forest Cuckoo Clock Restoration' for Investment &amp; Profit</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Write a detailed blog post in English for enthusiasts and potential investors in the German Black Forest cuckoo clock market. Explain the process of authenticating, restoring, and valuing vintage cuckoo clocks. Highlight the economic benefits of acquiring, refurbishing, and reselling these unique mechanical timepieces. Discuss the craftsmanship, historical significance, and the niche market for collectors. Provide actionable tips on identifying valuable pieces and common restoration challenges. Focus on the tangible advantage of owning and appreciating historical artifacts with investment potential.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Collectibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>The 'Canadian Micro-Brewery Barley Terroir' Advantage: Cultivating Flavor for Craft Beer Excellence</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Develop a blog post in English exploring the concept of 'terroir' in barley cultivation for Canadian micro-breweries. Explain how soil, climate, and farming practices in specific Canadian regions influence the flavor profile of barley, and consequently, the resulting craft beers. Discuss the economic benefits for breweries that leverage unique regional barley strains for distinctive product offerings. Include insights into partnerships between breweries and farmers, the demand for local ingredients in the craft beer scene, and the tangible advantage of creating unique, regionally-branded beers.</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Unlocking the 'American Succession Planning for Family Farms': Strategies for Intergenerational Wealth Transfer &amp; Agricultural Continuity</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Write a comprehensive blog post in English detailing the unique challenges and opportunities of succession planning specifically for American family farms. Focus on practical strategies for wealth transfer, tax implications, legal frameworks, and preserving agricultural legacies. Include actionable advice for farmers looking to ensure a smooth transition to the next generation. Emphasize the economic benefits of well-executed plans for farm viability and community stability. The post should be SEO-optimized for terms like 'family farm succession planning', 'agricultural estate planning', 'passing on the farm', and 'farm wealth transfer'.</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>The 'US Historic Home Insulation Upgrade' Blueprint: Enhancing Energy Efficiency &amp; Property Value in Older Residences</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Craft a detailed blog post in English targeted at US homeowners of historic properties. The article should provide a deep dive into niche insulation techniques and materials suitable for older homes, emphasizing how these upgrades can significantly improve energy efficiency, reduce utility bills, and increase property resale value. Include specific examples of materials (e.g., cellulose, mineral wool, rigid foam boards in specific applications), installation considerations to preserve architectural integrity, and potential tax credits or incentives available. Use keywords such as 'historic home insulation', 'energy efficiency old house', 'retrofitting historic homes', and 'property value insulation'.</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Maximizing 'American Craft Spirits Barrel Aging Investment': Cultivating Premium Flavors &amp; Securing Premium Market Pricing</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Develop an in-depth blog post in English exploring the economic advantages of investing in barrel aging for American craft distilleries. Focus on the science and art of barrel selection, wood types, aging environments (e.g., climate-controlled warehouses), and their direct impact on the quality, flavor profile, and ultimate market price of spirits like whiskey, rum, and bourbon. Provide actionable insights into inventory management, forecasting demand for aged products, and the premium pricing strategies associated with well-aged spirits. Optimize for search terms like 'craft spirits barrel aging', 'whiskey investment', 'bourbon aging strategy', and 'premium spirits market'.</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>The 'US Bespoke Bicycle Frame Building' Advantage: Crafting High-Performance, Personalized Rides for Competitive Cyclists</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Write an informative blog post in English for serious cycling enthusiasts and potential entrepreneurs in the US. This post should highlight the economic and lifestyle benefits of bespoke bicycle frame building. Detail the process of custom design, material selection (steel, titanium, carbon fiber), geometry fitting, and the craftsmanship involved. Explain how these personalized frames offer superior performance, comfort, and durability, justifying their premium cost and creating a loyal customer base. Include insights into the business side for aspiring builders, covering market demand, pricing, and building a brand. Target keywords like 'bespoke bicycle frames', 'custom bike builder US', 'performance cycling', and 'handmade bicycle'.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Decoding 'US Specialty Mushroom Cultivation for Gourmet Markets': High-Yielding Techniques for Truffles, Morels, and Exotic Varieties</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Create an informative blog post in English for individuals in the US interested in niche agricultural ventures. Focus on the economic potential of cultivating high-demand specialty mushrooms like truffles, morels, and exotic varieties (e.g., lion's mane, shiitake). Detail specific cultivation techniques, substrate requirements, climate control, inoculation methods, and the process of bringing these gourmet products to high-end restaurants, farmers' markets, and online retailers. Emphasize the potential for significant profit margins and the lifestyle benefits of working in a rewarding, albeit challenging, agricultural niche. Optimize for keywords such as 'specialty mushroom farming US', 'truffle cultivation', 'grow gourmet mushrooms', and 'exotic mushroom business'.</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Unlock Your 'US Historic Home Insulation' ROI: Energy Efficiency Upgrades That Boost Value</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Write a blog post in English for homeowners in the United States interested in upgrading the insulation of their historic properties. Focus on the economic benefits, specifically how energy efficiency improvements translate to increased property value and reduced utility costs. Include actionable tips on identifying common insulation issues in older homes, understanding different insulation materials suitable for historic structures (e.g., cellulose, mineral wool), and how to find qualified contractors specializing in historic renovations. Incorporate a section on potential tax credits or rebates available for such upgrades at the federal or state level. Ensure the tone is informative and persuasive, highlighting the tangible advantages of investing in insulation for heritage homes.</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>RealEstate</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>The 'US Bespoke Bicycle Frame Building' Strategy: Crafting Performance &amp; Profit for Competitive Cyclists</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Create a blog post in English targeting cyclists and entrepreneurs interested in the niche market of bespoke bicycle frame building in the United States. Emphasize the economic benefits for builders by detailing how custom craftsmanship commands premium pricing and fosters strong customer loyalty. For cyclists, highlight the lifestyle improvement of owning a perfectly tailored, high-performance bicycle. Include insights into material selection (steel, titanium, carbon fiber), fitting processes, design considerations for various cycling disciplines (road, mountain, gravel), and strategies for marketing and selling custom frames in the competitive cycling industry. Provide examples of successful US-based bespoke frame builders and their unique selling propositions.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Craftsmanship</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Maximizing 'American Craft Spirits Barrel Aging Investment': Cultivating Premium Flavors &amp; Market Value</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Develop a blog post in English for investors and distillers in the United States interested in the economic potential of craft spirits barrel aging. Explain how strategic barrel selection, aging duration, and wood types significantly impact the flavor profile and market value of spirits like whiskey, bourbon, and rum. Detail the financial advantages of investing in well-aged spirits, including their higher price points and potential for appreciation. Include information on sourcing quality barrels, understanding the aging process in different climates, and strategies for marketing and selling aged craft spirits to premium consumers and distributors. Reference successful business models within the US craft spirits industry.</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Investment</t>
         </is>
       </c>
     </row>
